--- a/data/region/regionmap.xlsx
+++ b/data/region/regionmap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\surfmachine\globalfootprint\data\region\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ieu\surfmachine\globalfootprint\data\region\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AA9205-8EF4-4983-B4B6-7B70EAC98B6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79047CBA-99E4-436F-85D9-277ECFB9265D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="1695" windowWidth="25905" windowHeight="19200" activeTab="1" xr2:uid="{F4140DF5-CA1D-41C2-B634-398879465469}"/>
+    <workbookView xWindow="2730" yWindow="1260" windowWidth="24510" windowHeight="18840" activeTab="2" xr2:uid="{F4140DF5-CA1D-41C2-B634-398879465469}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="270">
   <si>
     <t>Eastern Africa</t>
   </si>
@@ -842,6 +842,15 @@
   </si>
   <si>
     <t>Region / Country</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Baharain</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
   </si>
 </sst>
 </file>
@@ -899,18 +908,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <name val="JetBrains Mono"/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -931,19 +944,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,7 +1025,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -986,12 +1035,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1015,27 +1058,54 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1361,1274 +1431,1036 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>243</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E785039C-D658-4628-B065-061DC85C3914}">
-  <dimension ref="B2:B235"/>
+  <dimension ref="B2:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="O106" sqref="O106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="35.28515625" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="36.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="6" max="6" width="36.42578125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="23" t="s">
+    <row r="2" spans="2:6">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="23" t="s">
+      <c r="D3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="23" t="s">
+      <c r="D4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="23" t="s">
+      <c r="D5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="23" t="s">
+      <c r="D6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="23" t="s">
+      <c r="D7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="23" t="s">
+      <c r="D8" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="23" t="s">
+      <c r="D9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="23" t="s">
+      <c r="D10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="23" t="s">
+      <c r="D11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="23" t="s">
+      <c r="F12" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="23" t="s">
+      <c r="D13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="23" t="s">
+      <c r="D14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="23" t="s">
+      <c r="D15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="23" t="s">
+      <c r="D16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="23" t="s">
+      <c r="D17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="23" t="s">
+      <c r="D18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="23" t="s">
+      <c r="D19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="23" t="s">
+      <c r="D20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
+      <c r="D21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
+      <c r="F22" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="F23" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="F24" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="F25" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="F26" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="4"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="28"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="2" t="s">
+      <c r="D65" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="27" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="2" t="s">
+      <c r="D66" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="27" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="2" t="s">
+      <c r="D67" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="27" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="2" t="s">
+      <c r="D68" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="27" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="2" t="s">
+      <c r="D69" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="27" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="2" t="s">
+      <c r="D70" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="27" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="2" t="s">
+      <c r="D71" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="27" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="2" t="s">
+      <c r="D72" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="27" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="2" t="s">
+      <c r="D73" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="27" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="2" t="s">
+      <c r="F74" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="27" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="2" t="s">
+      <c r="F75" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="27" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="2" t="s">
+      <c r="F76" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="27" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="2" t="s">
+      <c r="F77" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="27" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="2" t="s">
+      <c r="F78" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="27" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="2" t="s">
+      <c r="F79" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="2" t="s">
+    <row r="81" spans="2:6">
+      <c r="B81" s="27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="2" t="s">
+    <row r="82" spans="2:6">
+      <c r="B82" s="27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="2" t="s">
+    <row r="83" spans="2:6">
+      <c r="B83" s="27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="2" t="s">
+    <row r="84" spans="2:6">
+      <c r="B84" s="27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="2" t="s">
+    <row r="85" spans="2:6">
+      <c r="B85" s="27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="2" t="s">
+    <row r="86" spans="2:6">
+      <c r="B86" s="27" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="2" t="s">
+    <row r="87" spans="2:6">
+      <c r="B87" s="27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="2" t="s">
+    <row r="88" spans="2:6">
+      <c r="B88" s="27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="2" t="s">
+    <row r="89" spans="2:6">
+      <c r="B89" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
-      <c r="B95" s="2" t="s">
+    <row r="90" spans="2:6">
+      <c r="B90" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="2" t="s">
+    <row r="91" spans="2:6">
+      <c r="B91" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="2" t="s">
+    <row r="92" spans="2:6">
+      <c r="B92" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="2" t="s">
+    <row r="93" spans="2:6">
+      <c r="B93" s="27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="1"/>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="1"/>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="2" t="s">
-        <v>110</v>
+    <row r="95" spans="2:6">
+      <c r="B95" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="F96" s="7"/>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="D101" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="D102" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="D103" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" s="1"/>
+      <c r="D104" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" s="1"/>
+      <c r="D105" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="D106" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="D107" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="D108" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="D109" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="D110" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="F111" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="1"/>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2">
-      <c r="B157" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2">
-      <c r="B158" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2">
-      <c r="B159" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2">
-      <c r="B160" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2">
-      <c r="B164" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2">
-      <c r="B165" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2">
-      <c r="B166" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2">
-      <c r="B167" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2">
-      <c r="B168" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2">
-      <c r="B172" s="1"/>
-    </row>
-    <row r="173" spans="2:2">
-      <c r="B173" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2">
-      <c r="B174" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2">
-      <c r="B175" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2">
-      <c r="B176" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2">
-      <c r="B177" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2">
-      <c r="B178" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2">
-      <c r="B179" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2">
-      <c r="B180" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2">
-      <c r="B181" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2">
-      <c r="B182" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2">
-      <c r="B183" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="184" spans="2:2">
-      <c r="B184" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2">
-      <c r="B185" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2">
-      <c r="B186" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="187" spans="2:2">
-      <c r="B187" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2">
-      <c r="B188" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2">
-      <c r="B189" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="190" spans="2:2">
-      <c r="B190" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2">
-      <c r="B191" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2">
-      <c r="B192" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2">
-      <c r="B193" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2">
-      <c r="B194" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2">
-      <c r="B195" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="196" spans="2:2">
-      <c r="B196" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="197" spans="2:2">
-      <c r="B197" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2">
-      <c r="B198" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="199" spans="2:2">
-      <c r="B199" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="200" spans="2:2">
-      <c r="B200" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2">
-      <c r="B202" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="203" spans="2:2">
-      <c r="B203" s="1"/>
-    </row>
-    <row r="204" spans="2:2">
-      <c r="B204" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2">
-      <c r="B205" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="206" spans="2:2">
-      <c r="B206" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="207" spans="2:2">
-      <c r="B207" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="208" spans="2:2">
-      <c r="B208" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2">
-      <c r="B209" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2">
-      <c r="B210" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="211" spans="2:2">
-      <c r="B211" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="212" spans="2:2">
-      <c r="B212" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="213" spans="2:2">
-      <c r="B213" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="214" spans="2:2">
-      <c r="B214" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="215" spans="2:2">
-      <c r="B215" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="216" spans="2:2">
-      <c r="B216" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="217" spans="2:2">
-      <c r="B217" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="219" spans="2:2">
-      <c r="B219" s="11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="220" spans="2:2">
-      <c r="B220" s="9"/>
-    </row>
-    <row r="221" spans="2:2">
-      <c r="B221" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="222" spans="2:2">
-      <c r="B222" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="223" spans="2:2">
-      <c r="B223" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="224" spans="2:2">
-      <c r="B224" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="225" spans="2:2">
-      <c r="B225" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="226" spans="2:2">
-      <c r="B226" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="227" spans="2:2">
-      <c r="B227" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="228" spans="2:2">
-      <c r="B228" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="229" spans="2:2">
-      <c r="B229" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="230" spans="2:2">
-      <c r="B230" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="231" spans="2:2">
-      <c r="B231" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="232" spans="2:2">
-      <c r="B232" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="233" spans="2:2">
-      <c r="B233" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="234" spans="2:2">
-      <c r="B234" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="235" spans="2:2">
-      <c r="B235" s="10" t="s">
-        <v>217</v>
-      </c>
+      <c r="B121" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2651,200 +2483,200 @@
     <hyperlink ref="B19" r:id="rId17" location="ug" display="https://www.internetworldstats.com/africa.htm - ug" xr:uid="{A73BA0D0-02E2-4A21-98BC-B7E4B1F3E45B}"/>
     <hyperlink ref="B20" r:id="rId18" location="zm" display="https://www.internetworldstats.com/africa.htm - zm" xr:uid="{67538E7F-CF45-4147-8324-DF14B3A0DDE9}"/>
     <hyperlink ref="B21" r:id="rId19" location="zw" display="https://www.internetworldstats.com/africa.htm - zw" xr:uid="{DFC5A57A-4B17-4A62-B9F5-7E904265CB21}"/>
-    <hyperlink ref="B24" r:id="rId20" location="ao" display="https://www.internetworldstats.com/africa.htm - ao" xr:uid="{1291F04D-38C0-4C64-8F58-FC6C94367471}"/>
-    <hyperlink ref="B25" r:id="rId21" location="cm" display="https://www.internetworldstats.com/africa.htm - cm" xr:uid="{1ADC7402-9A00-417B-A69D-0BF60F4ECE6F}"/>
-    <hyperlink ref="B26" r:id="rId22" location="cf" display="https://www.internetworldstats.com/africa.htm - cf" xr:uid="{A28F7ABD-C76F-4957-A349-4CA3CE9B0D2D}"/>
-    <hyperlink ref="B27" r:id="rId23" location="td" display="https://www.internetworldstats.com/africa.htm - td" xr:uid="{3698945A-C8D2-4BAD-B625-3BD78B723709}"/>
-    <hyperlink ref="B28" r:id="rId24" location="cg" display="https://www.internetworldstats.com/africa.htm - cg" xr:uid="{08E7F656-73E6-45E9-9A5E-8623A8C6E179}"/>
-    <hyperlink ref="B29" r:id="rId25" location="cd" display="https://www.internetworldstats.com/africa.htm - cd" xr:uid="{E80387AF-8C2E-4EB0-8FAC-281211830231}"/>
-    <hyperlink ref="B30" r:id="rId26" location="gq" display="https://www.internetworldstats.com/africa.htm - gq" xr:uid="{B8703DE5-93B6-4E7A-B1E4-33B8762271E3}"/>
-    <hyperlink ref="B31" r:id="rId27" location="ga" display="https://www.internetworldstats.com/africa.htm - ga" xr:uid="{67F10795-C18F-4217-AD47-2B3174F081E4}"/>
-    <hyperlink ref="B32" r:id="rId28" location="st" display="https://www.internetworldstats.com/africa.htm - st" xr:uid="{A0F14105-E146-4A4F-863B-189E0ED8A5A3}"/>
-    <hyperlink ref="B35" r:id="rId29" location="dz" display="https://www.internetworldstats.com/africa.htm - dz" xr:uid="{247C432E-22AE-47E7-968C-73B3F7C623BC}"/>
-    <hyperlink ref="B36" r:id="rId30" location="eg" display="https://www.internetworldstats.com/africa.htm - eg" xr:uid="{3644A65C-B56F-4E51-91D5-884AFFA5E2EB}"/>
-    <hyperlink ref="B37" r:id="rId31" location="ly" display="https://www.internetworldstats.com/africa.htm - ly" xr:uid="{0276C5A7-7E4B-4334-A420-C9133F499ED3}"/>
-    <hyperlink ref="B38" r:id="rId32" location="ma" display="https://www.internetworldstats.com/africa.htm - ma" xr:uid="{181E21AC-D8AD-4BB5-9E51-820CCB4B83D9}"/>
-    <hyperlink ref="B39" r:id="rId33" location="ss" display="https://www.internetworldstats.com/africa.htm - ss" xr:uid="{5887410C-E622-4B8E-8F23-4CE5794B2C1C}"/>
-    <hyperlink ref="B40" r:id="rId34" location="sd" display="https://www.internetworldstats.com/africa.htm - sd" xr:uid="{CE4DFDD6-8C1A-4DDE-801C-5EC40EAA00EA}"/>
-    <hyperlink ref="B41" r:id="rId35" location="tn" display="https://www.internetworldstats.com/africa.htm - tn" xr:uid="{E4C447DD-87B5-4641-B9A3-CC2C83FD641A}"/>
-    <hyperlink ref="B42" r:id="rId36" location="st" display="https://www.internetworldstats.com/africa.htm - st" xr:uid="{E2CB0308-83EC-4C7F-9C42-AC9277481A1F}"/>
-    <hyperlink ref="B45" r:id="rId37" location="bw" display="https://www.internetworldstats.com/africa.htm - bw" xr:uid="{38542C75-4073-4F03-AB9A-44F9700B4B4F}"/>
-    <hyperlink ref="B46" r:id="rId38" location="sz" display="https://www.internetworldstats.com/africa.htm - sz" xr:uid="{76751FD6-CF7D-43F3-81B1-0920ED9B3639}"/>
-    <hyperlink ref="B47" r:id="rId39" location="ls" display="https://www.internetworldstats.com/africa.htm - ls" xr:uid="{0B060894-FAD3-47EA-A26A-29492AB81B8A}"/>
-    <hyperlink ref="B48" r:id="rId40" location="na" display="https://www.internetworldstats.com/africa.htm - na" xr:uid="{9D1BECBB-AF14-45D3-8E8C-F2A9CAD0DA6D}"/>
-    <hyperlink ref="B49" r:id="rId41" location="za" display="https://www.internetworldstats.com/africa.htm - za" xr:uid="{23FBB80D-6989-474F-8102-12CB0071A710}"/>
-    <hyperlink ref="B52" r:id="rId42" location="bj" display="https://www.internetworldstats.com/africa.htm - bj" xr:uid="{922017AC-4A49-46AC-A4CD-0E3F924B77AE}"/>
-    <hyperlink ref="B53" r:id="rId43" location="bf" display="https://www.internetworldstats.com/africa.htm - bf" xr:uid="{19DEB61B-5FA3-4FCA-B417-090DD528DC56}"/>
-    <hyperlink ref="B54" r:id="rId44" location="cv" display="https://www.internetworldstats.com/africa.htm - cv" xr:uid="{C4D5F3EF-082B-4F06-89CD-7B31A1BAD0A4}"/>
-    <hyperlink ref="B55" r:id="rId45" location="ci" display="https://www.internetworldstats.com/africa.htm - ci" xr:uid="{F5414C92-5662-4E04-808A-85963828A41E}"/>
-    <hyperlink ref="B56" r:id="rId46" location="gm" display="gm" xr:uid="{DF44FC4C-AA6A-4F8C-9A09-2C2C31CD40DC}"/>
-    <hyperlink ref="B57" r:id="rId47" location="gh" display="https://www.internetworldstats.com/africa.htm - gh" xr:uid="{7A51772E-37A2-444F-B863-6A9C041C75A4}"/>
-    <hyperlink ref="B58" r:id="rId48" location="gn" display="https://www.internetworldstats.com/africa.htm - gn" xr:uid="{A6931A7E-CDA2-4F4A-915C-D3ED1FDEE4BE}"/>
-    <hyperlink ref="B59" r:id="rId49" location="gw" display="https://www.internetworldstats.com/africa.htm - gw" xr:uid="{AC964607-87B1-4DEB-9184-F780206190F0}"/>
-    <hyperlink ref="B60" r:id="rId50" location="lr" display="https://www.internetworldstats.com/africa.htm - lr" xr:uid="{89031ED8-D4F5-4751-BE66-CFB107370E35}"/>
-    <hyperlink ref="B61" r:id="rId51" location="ml" display="https://www.internetworldstats.com/africa.htm - ml" xr:uid="{A85677F1-5FD9-4C35-9F55-41DA1493ED81}"/>
-    <hyperlink ref="B62" r:id="rId52" location="mr" display="https://www.internetworldstats.com/africa.htm - mr" xr:uid="{57CC7151-FEE4-4BA5-B5F6-8804220B9296}"/>
-    <hyperlink ref="B63" r:id="rId53" location="ne" display="https://www.internetworldstats.com/africa.htm - ne" xr:uid="{E6CCCF99-1B22-420C-99BE-532D667BEE2E}"/>
-    <hyperlink ref="B64" r:id="rId54" location="ng" display="https://www.internetworldstats.com/africa.htm - ng" xr:uid="{312C2869-DFEA-422B-B257-C221ED8FE4F3}"/>
-    <hyperlink ref="B65" r:id="rId55" location="sh" display="https://www.internetworldstats.com/africa.htm - sh" xr:uid="{913BC357-07D7-4C3D-A33D-BE05AED0AABB}"/>
-    <hyperlink ref="B66" r:id="rId56" location="sn" display="https://www.internetworldstats.com/africa.htm - sn" xr:uid="{C29769FA-7105-4A80-8E3C-5997A693B923}"/>
-    <hyperlink ref="B67" r:id="rId57" location="sl" display="https://www.internetworldstats.com/africa.htm - sl" xr:uid="{5FFAA694-9F99-4FAB-A2BB-A475A4F3B88D}"/>
-    <hyperlink ref="B68" r:id="rId58" location="tg" display="https://www.internetworldstats.com/africa.htm - tg" xr:uid="{47EEA0F9-74CF-4EE5-959A-DC5398C0A395}"/>
-    <hyperlink ref="B70" r:id="rId59" display="https://www.internetworldstats.com/carib.htm" xr:uid="{24CF38E7-ED3C-4E13-A44D-6F85CD176A40}"/>
-    <hyperlink ref="B71" r:id="rId60" location="ai" display="https://www.internetworldstats.com/carib.htm - ai" xr:uid="{33EEE538-AA40-4D0D-AE5D-209EC64A70F2}"/>
-    <hyperlink ref="B72" r:id="rId61" location="ag" display="https://www.internetworldstats.com/carib.htm - ag" xr:uid="{145B9AEE-EDD2-44AF-8BF0-BA3489B70A77}"/>
-    <hyperlink ref="B73" r:id="rId62" location="aw" display="https://www.internetworldstats.com/carib.htm - aw" xr:uid="{3B8D786C-B26A-4729-A3E4-F8B49F6E3911}"/>
-    <hyperlink ref="B74" r:id="rId63" location="bs" display="https://www.internetworldstats.com/carib.htm - bs" xr:uid="{C65E032E-C610-4421-AED0-C7D62F149D17}"/>
-    <hyperlink ref="B75" r:id="rId64" location="bb" display="https://www.internetworldstats.com/carib.htm - bb" xr:uid="{9EF0D533-5401-4686-8047-447A0CD75D5C}"/>
-    <hyperlink ref="B76" r:id="rId65" location="bq" display="https://www.internetworldstats.com/carib.htm - bq" xr:uid="{5FB4D105-702B-4EE4-A66A-EEA45325E729}"/>
-    <hyperlink ref="B77" r:id="rId66" location="vg" display="https://www.internetworldstats.com/carib.htm - vg" xr:uid="{35ADE0C4-931D-4668-8B82-5E9796984D18}"/>
-    <hyperlink ref="B78" r:id="rId67" location="ky" display="https://www.internetworldstats.com/carib.htm - ky" xr:uid="{93F4EFA5-9948-45D2-AE33-714942F88657}"/>
-    <hyperlink ref="B79" r:id="rId68" location="cu" display="https://www.internetworldstats.com/carib.htm - cu" xr:uid="{4877F3EB-B39F-4A61-873D-268F535453DA}"/>
-    <hyperlink ref="B80" r:id="rId69" location="cw" display="https://www.internetworldstats.com/carib.htm - cw" xr:uid="{A4AB14A6-9708-406C-9BF5-D9DDB624B4EC}"/>
-    <hyperlink ref="B81" r:id="rId70" location="dm" display="https://www.internetworldstats.com/carib.htm - dm" xr:uid="{D2A42072-1B93-4BEB-BC0A-06ECADF41207}"/>
-    <hyperlink ref="B82" r:id="rId71" location="do" display="https://www.internetworldstats.com/carib.htm - do" xr:uid="{7AADB110-74AD-4C0B-B45A-39256D4DA712}"/>
-    <hyperlink ref="B83" r:id="rId72" location="gd" display="https://www.internetworldstats.com/carib.htm - gd" xr:uid="{D3B1D2EE-9E0F-452C-B602-F33C9F6EC140}"/>
-    <hyperlink ref="B84" r:id="rId73" location="gp" display="https://www.internetworldstats.com/carib.htm - gp" xr:uid="{3921E611-22CC-4036-8AF3-1CA8EF2C3B10}"/>
-    <hyperlink ref="B85" r:id="rId74" location="ht" display="https://www.internetworldstats.com/carib.htm - ht" xr:uid="{5A5B1371-A1BA-46ED-9A14-7BD09C2497E9}"/>
-    <hyperlink ref="B86" r:id="rId75" location="jm" display="https://www.internetworldstats.com/carib.htm - jm" xr:uid="{85769EC3-8686-4C1B-B23F-27CF1FC363D5}"/>
-    <hyperlink ref="B87" r:id="rId76" location="mq" display="https://www.internetworldstats.com/carib.htm - mq" xr:uid="{661F2831-DF13-43F9-B685-6170F73F82F0}"/>
-    <hyperlink ref="B88" r:id="rId77" location="ms" display="https://www.internetworldstats.com/carib.htm - ms" xr:uid="{A866B65B-821F-4D84-8D8A-089DD944AF70}"/>
-    <hyperlink ref="B89" r:id="rId78" location="pr" display="https://www.internetworldstats.com/carib.htm - pr" xr:uid="{5E9D7FFA-2C12-4311-969F-37C889218DDF}"/>
-    <hyperlink ref="B90" r:id="rId79" location="bl" display="https://www.internetworldstats.com/carib.htm - bl" xr:uid="{36155238-5E99-441B-AC1D-5EDC01002C16}"/>
-    <hyperlink ref="B91" r:id="rId80" location="kn" display="https://www.internetworldstats.com/carib.htm - kn" xr:uid="{67EA7320-FC4A-4120-844A-8F1E45CE08E7}"/>
-    <hyperlink ref="B92" r:id="rId81" location="lc" display="https://www.internetworldstats.com/carib.htm - lc" xr:uid="{54303B4B-52AE-469A-A972-9F373AFEDB65}"/>
-    <hyperlink ref="B93" r:id="rId82" location="mf" display="https://www.internetworldstats.com/carib.htm - mf" xr:uid="{47E22C72-3A4F-4A14-A3D9-073153D95C10}"/>
-    <hyperlink ref="B94" r:id="rId83" location="vc" display="https://www.internetworldstats.com/carib.htm - vc" xr:uid="{5F6E2E8C-528B-45D8-A1B2-F08B742708A1}"/>
-    <hyperlink ref="B95" r:id="rId84" location="sx" display="https://www.internetworldstats.com/carib.htm - sx" xr:uid="{9FCF1908-D368-421A-939D-FC87EA338B22}"/>
-    <hyperlink ref="B96" r:id="rId85" location="tt" display="https://www.internetworldstats.com/carib.htm - tt" xr:uid="{20D32A03-9071-497C-9A97-C408E1621DDE}"/>
-    <hyperlink ref="B97" r:id="rId86" location="tc" display="https://www.internetworldstats.com/carib.htm - tc" xr:uid="{CE0D44F3-5AA1-46DA-BF00-E136D723C48E}"/>
-    <hyperlink ref="B98" r:id="rId87" location="vi" display="https://www.internetworldstats.com/carib.htm - vi" xr:uid="{7F4C0D09-C54D-4A1A-B97C-583EB42E72AA}"/>
-    <hyperlink ref="B100" r:id="rId88" display="https://www.internetworldstats.com/central.htm" xr:uid="{7511BF00-3DDE-4D97-85A7-E084A70D8D4F}"/>
-    <hyperlink ref="B101" r:id="rId89" location="bz" display="https://www.internetworldstats.com/central.htm - bz" xr:uid="{17C62BA5-F76A-485C-89F0-2000ABE06C0D}"/>
-    <hyperlink ref="B102" r:id="rId90" location="cr" display="https://www.internetworldstats.com/central.htm - cr" xr:uid="{B9F67ECB-3A4F-4BA0-9DB2-0CAD35992857}"/>
-    <hyperlink ref="B103" r:id="rId91" location="sv" display="https://www.internetworldstats.com/central.htm - sv" xr:uid="{24DB55D6-D6F9-4084-AC4E-6C88CE29E007}"/>
-    <hyperlink ref="B104" r:id="rId92" location="gt" display="https://www.internetworldstats.com/central.htm - gt" xr:uid="{DB08C1F7-5386-4A02-B2D0-BA016F2688F6}"/>
-    <hyperlink ref="B105" r:id="rId93" location="hn" display="https://www.internetworldstats.com/central.htm - hn" xr:uid="{21DB5BBE-9143-40D9-84CC-949DE6806A2A}"/>
-    <hyperlink ref="B106" r:id="rId94" location="mx" display="https://www.internetworldstats.com/central.htm - mx" xr:uid="{A2F36181-7E59-434F-BE59-75074EF55E97}"/>
-    <hyperlink ref="B107" r:id="rId95" location="ni" display="https://www.internetworldstats.com/central.htm - ni" xr:uid="{2C5F06AB-EED9-4F5C-B8EB-F44861ED8411}"/>
-    <hyperlink ref="B108" r:id="rId96" location="pa" display="https://www.internetworldstats.com/central.htm - pa" xr:uid="{81052F52-B6EB-43C8-8D2A-44C72573ADA2}"/>
-    <hyperlink ref="B111" r:id="rId97" display="https://www.internetworldstats.com/south.htm" xr:uid="{62C249C7-1577-49E4-A766-860829903E0A}"/>
-    <hyperlink ref="B112" r:id="rId98" location="ar" display="https://www.internetworldstats.com/south.htm - ar" xr:uid="{B937AB29-BADB-4ACE-B185-63290766296A}"/>
-    <hyperlink ref="B113" r:id="rId99" location="bo" display="https://www.internetworldstats.com/south.htm - bo" xr:uid="{816EBBA6-CB62-45B4-864D-1AFAC613D5A3}"/>
-    <hyperlink ref="B114" r:id="rId100" location="br" display="https://www.internetworldstats.com/south.htm - br" xr:uid="{AF376EDA-6856-4DC4-890D-9FFDA7BC9FF4}"/>
-    <hyperlink ref="B115" r:id="rId101" location="cl" display="https://www.internetworldstats.com/south.htm - cl" xr:uid="{F1374B4B-9B26-4AF2-8022-01F9D339DACA}"/>
-    <hyperlink ref="B116" r:id="rId102" location="co" display="https://www.internetworldstats.com/south.htm - co" xr:uid="{060A5783-EDE8-4C25-8CD2-E3DE27340F27}"/>
-    <hyperlink ref="B117" r:id="rId103" location="ec" display="https://www.internetworldstats.com/south.htm - ec" xr:uid="{312754B3-93BD-44EF-8B06-FC294A31343F}"/>
-    <hyperlink ref="B118" r:id="rId104" location="fk" display="https://www.internetworldstats.com/south.htm - fk" xr:uid="{22F1F8B0-27F8-4977-9C5C-1FEBDCFCF2B3}"/>
-    <hyperlink ref="B119" r:id="rId105" location="gf" display="https://www.internetworldstats.com/south.htm - gf" xr:uid="{730E9D07-B231-4979-9490-42CE519C6662}"/>
-    <hyperlink ref="B120" r:id="rId106" location="gy" display="https://www.internetworldstats.com/south.htm - gy" xr:uid="{DCEE9B95-5F0A-4D63-81E1-D0194AE43D97}"/>
-    <hyperlink ref="B121" r:id="rId107" location="py" display="https://www.internetworldstats.com/south.htm - py" xr:uid="{1325F67C-18DD-4A5F-93E5-75251111C8F4}"/>
-    <hyperlink ref="B122" r:id="rId108" location="pe" display="https://www.internetworldstats.com/south.htm - pe" xr:uid="{81A75AA6-6E70-4359-B8D2-7AF502A1E12E}"/>
-    <hyperlink ref="B123" r:id="rId109" location="sr" display="https://www.internetworldstats.com/south.htm - sr" xr:uid="{7E153AA7-AC10-4E38-96FC-A3A90F532C41}"/>
-    <hyperlink ref="B124" r:id="rId110" location="uy" display="https://www.internetworldstats.com/south.htm - uy" xr:uid="{D749E5E8-3055-4027-A11A-A7272BF9741E}"/>
-    <hyperlink ref="B125" r:id="rId111" location="ve" display="https://www.internetworldstats.com/south.htm - ve" xr:uid="{6EAE2A6C-5534-4CA3-8FAC-847C23AC2D3C}"/>
-    <hyperlink ref="B127" r:id="rId112" display="https://www.internetworldstats.com/america.htm" xr:uid="{AE66FD67-F98D-46FF-BA83-9B37809C9287}"/>
-    <hyperlink ref="B128" r:id="rId113" location="bm" display="https://www.internetworldstats.com/america.htm - bm" xr:uid="{694B0D6A-6284-46C2-8AC0-DE0B932A3662}"/>
-    <hyperlink ref="B129" r:id="rId114" location="ca" display="https://www.internetworldstats.com/america.htm - ca" xr:uid="{A4DD5869-FE15-496E-8730-A2A7F5FF883F}"/>
-    <hyperlink ref="B130" r:id="rId115" location="gl" display="https://www.internetworldstats.com/america.htm - gl" xr:uid="{7B337EE5-0830-4E88-84A5-71BF457704DF}"/>
-    <hyperlink ref="B131" r:id="rId116" location="sp" display="https://www.internetworldstats.com/america.htm - sp" xr:uid="{1F4623A3-C1BB-466C-B1C6-0402CE17A0DA}"/>
-    <hyperlink ref="B132" r:id="rId117" location="us" display="https://www.internetworldstats.com/america.htm - us" xr:uid="{F4D3A9CD-D99C-4E22-9EBB-BE36D7C0D9B6}"/>
-    <hyperlink ref="B134" r:id="rId118" display="https://www.internetworldstats.com/asia.htm" xr:uid="{C1A25423-E3D9-4255-8CD2-364F28036CDC}"/>
-    <hyperlink ref="B135" r:id="rId119" location="af" display="https://www.internetworldstats.com/asia.htm - af" xr:uid="{2C25B988-9801-4543-8907-89444D88FFAD}"/>
-    <hyperlink ref="B136" r:id="rId120" location="am" display="https://www.internetworldstats.com/asia.htm - am" xr:uid="{9120D148-DC80-46EB-8146-50A50869E0A2}"/>
-    <hyperlink ref="B137" r:id="rId121" location="az" display="https://www.internetworldstats.com/asia.htm - az" xr:uid="{C55D7ECF-92E9-4D8E-A6A9-6D9B4A9D7B6A}"/>
-    <hyperlink ref="B138" r:id="rId122" location="bd" display="https://www.internetworldstats.com/asia.htm - bd" xr:uid="{66C945BE-A76E-466A-BB3B-112D7B5795D7}"/>
-    <hyperlink ref="B139" r:id="rId123" location="bt" display="https://www.internetworldstats.com/asia.htm - bt" xr:uid="{08AE8E3A-323B-4C64-B9E7-9F9E34D6D303}"/>
-    <hyperlink ref="B140" r:id="rId124" location="bn" display="https://www.internetworldstats.com/asia.htm - bn" xr:uid="{F6C649B1-F299-45BC-AD7C-96EE7A531BA0}"/>
-    <hyperlink ref="B141" r:id="rId125" location="kh" display="https://www.internetworldstats.com/asia.htm - kh" xr:uid="{AB2A1CBD-F60D-4CDC-9A86-652F86B4F0BA}"/>
-    <hyperlink ref="B142" r:id="rId126" location="cn" display="https://www.internetworldstats.com/asia.htm - cn" xr:uid="{52349099-0868-4BED-BE74-6F6A8FAD56E6}"/>
-    <hyperlink ref="B143" r:id="rId127" location="ge" display="https://www.internetworldstats.com/asia.htm - ge" xr:uid="{F9CA7E5A-6A40-4FE0-AEFB-CD1BA40F42F1}"/>
-    <hyperlink ref="B144" r:id="rId128" location="hk" display="https://www.internetworldstats.com/asia.htm - hk" xr:uid="{AFAD08C3-26F2-4700-B9CE-F377B52F28F4}"/>
-    <hyperlink ref="B145" r:id="rId129" location="in" display="https://www.internetworldstats.com/asia.htm - in" xr:uid="{D3CA2176-A4FA-4D36-AF4B-7E36E164D814}"/>
-    <hyperlink ref="B146" r:id="rId130" location="id" display="https://www.internetworldstats.com/asia.htm - id" xr:uid="{433341A7-E7D3-44A6-8AEC-ABAC71027124}"/>
-    <hyperlink ref="B147" r:id="rId131" location="jp" display="https://www.internetworldstats.com/asia.htm - jp" xr:uid="{68920538-192A-42F8-B7C7-3238EE44CAD1}"/>
-    <hyperlink ref="B148" r:id="rId132" location="kz" display="https://www.internetworldstats.com/asia.htm - kz" xr:uid="{E6F4C035-B6AF-4C23-AEBC-3B7FB5928975}"/>
-    <hyperlink ref="B149" r:id="rId133" location="kp" display="https://www.internetworldstats.com/asia.htm - kp" xr:uid="{6EBAB7C5-DED4-49DF-966F-32B83D13ECBB}"/>
-    <hyperlink ref="B150" r:id="rId134" location="kr" display="https://www.internetworldstats.com/asia.htm - kr" xr:uid="{8684C6AD-1FE0-41F4-83B7-04AD32A67734}"/>
-    <hyperlink ref="B151" r:id="rId135" location="kg" display="https://www.internetworldstats.com/asia.htm - kg" xr:uid="{D488A38B-C473-4A28-88F1-BC24A8F434DC}"/>
-    <hyperlink ref="B152" r:id="rId136" location="la" display="https://www.internetworldstats.com/asia.htm - la" xr:uid="{1269E40A-D07B-431A-9A4E-2B2F33357BF4}"/>
-    <hyperlink ref="B153" r:id="rId137" location="mo" display="https://www.internetworldstats.com/asia.htm - mo" xr:uid="{07A3F09C-3150-4A97-B294-1CD7DF983359}"/>
-    <hyperlink ref="B154" r:id="rId138" location="my" display="https://www.internetworldstats.com/asia.htm - my" xr:uid="{35335DA2-9EBF-4A4E-AB1A-9D687114EA70}"/>
-    <hyperlink ref="B155" r:id="rId139" location="mv" display="https://www.internetworldstats.com/asia.htm - mv" xr:uid="{22BCA42F-5F75-4A90-8104-6A016CD6BC0F}"/>
-    <hyperlink ref="B156" r:id="rId140" location="mn" display="https://www.internetworldstats.com/asia.htm - mn" xr:uid="{30290F6C-E3AE-42C2-BCD1-4A680FA8BD6C}"/>
-    <hyperlink ref="B157" r:id="rId141" location="mm" display="https://www.internetworldstats.com/asia.htm - mm" xr:uid="{503D8444-CD95-4C8B-85F9-5DC321B490B7}"/>
-    <hyperlink ref="B158" r:id="rId142" location="np" display="https://www.internetworldstats.com/asia.htm - np" xr:uid="{88DD6818-4052-409E-9BC7-CDBE7892B43E}"/>
-    <hyperlink ref="B159" r:id="rId143" location="pk" display="https://www.internetworldstats.com/asia.htm - pk" xr:uid="{1958A985-EBF9-4831-9FFD-0642E6E92547}"/>
-    <hyperlink ref="B160" r:id="rId144" location="ph" display="https://www.internetworldstats.com/asia.htm - ph" xr:uid="{45F41183-E091-4359-8E5E-0AA4389186A1}"/>
-    <hyperlink ref="B161" r:id="rId145" location="sg" display="https://www.internetworldstats.com/asia.htm - sg" xr:uid="{DBA31724-FAFD-46DD-AD57-E30900A8F814}"/>
-    <hyperlink ref="B162" r:id="rId146" location="lk" display="https://www.internetworldstats.com/asia.htm - lk" xr:uid="{F5DBCC04-5C96-4A24-B68C-DF4F83CF417A}"/>
-    <hyperlink ref="B163" r:id="rId147" location="tw" display="https://www.internetworldstats.com/asia.htm - tw" xr:uid="{4B2309E2-391C-49D8-89A3-238C5809389D}"/>
-    <hyperlink ref="B164" r:id="rId148" location="tj" display="https://www.internetworldstats.com/asia.htm - tj" xr:uid="{6F4DB67F-A134-4DAF-8D56-0E55E04C1ABD}"/>
-    <hyperlink ref="B165" r:id="rId149" location="th" display="https://www.internetworldstats.com/asia.htm - th" xr:uid="{F884516E-7A20-441E-9DD2-FFE3204C75A3}"/>
-    <hyperlink ref="B166" r:id="rId150" location="tl" display="https://www.internetworldstats.com/asia.htm - tl" xr:uid="{1619BF8E-C8F7-4CD8-9760-E93FCE4278C1}"/>
-    <hyperlink ref="B167" r:id="rId151" location="tm" display="https://www.internetworldstats.com/asia.htm - tm" xr:uid="{C8FBB504-6CF4-4776-BCBF-8F0246DD944B}"/>
-    <hyperlink ref="B168" r:id="rId152" location="uz" display="https://www.internetworldstats.com/asia.htm - uz" xr:uid="{426F9C0D-2DA8-40D1-8041-F354B40C5CCC}"/>
-    <hyperlink ref="B169" r:id="rId153" location="vn" display="https://www.internetworldstats.com/asia.htm - vn" xr:uid="{1D937933-15B6-4805-BE67-0F7B1FD3E5C7}"/>
-    <hyperlink ref="B171" r:id="rId154" display="https://www.internetworldstats.com/europa2.htm" xr:uid="{324E6B64-BF2E-41F8-AEBE-01BA229EE507}"/>
-    <hyperlink ref="B173" r:id="rId155" location="al" display="https://www.internetworldstats.com/europa2.htm - al" xr:uid="{DBCAFD32-E319-4A56-A399-D6065402FA2A}"/>
-    <hyperlink ref="B174" r:id="rId156" location="ad" display="https://www.internetworldstats.com/europa2.htm - ad" xr:uid="{0C23B572-9ED0-4978-8F28-8E4C0A570AF2}"/>
-    <hyperlink ref="B175" r:id="rId157" location="by" display="https://www.internetworldstats.com/europa2.htm - by" xr:uid="{BD04C8E9-98D0-4721-A4C0-E56E6893A96A}"/>
-    <hyperlink ref="B176" r:id="rId158" location="ba" display="https://www.internetworldstats.com/europa2.htm - ba" xr:uid="{15BDE9FE-8030-49B6-8E36-A0C80DDAA61B}"/>
-    <hyperlink ref="B177" r:id="rId159" location="hr" display="https://www.internetworldstats.com/europa1.htm - hr" xr:uid="{459576E9-97F3-4153-8943-CB26F8C0CD18}"/>
-    <hyperlink ref="B178" r:id="rId160" display="https://www.internetworldstats.com/europa.htm" xr:uid="{9FCC5BC3-9F07-4AF3-97E1-F884FD56E5F6}"/>
-    <hyperlink ref="B179" r:id="rId161" location="fo" display="https://www.internetworldstats.com/europa2.htm - fo" xr:uid="{157DDEE4-F4F4-4E40-8A76-35E35C0B2C04}"/>
-    <hyperlink ref="B180" r:id="rId162" location="gi" display="https://www.internetworldstats.com/europa2.htm - gi" xr:uid="{FA2B1627-AFC8-4E82-A89B-4739C3B8DA3E}"/>
-    <hyperlink ref="B181" r:id="rId163" location="gg" display="https://www.internetworldstats.com/europa2.htm - gg" xr:uid="{CF94AD20-2F89-4EC2-B51F-BCC10ED6B29F}"/>
-    <hyperlink ref="B182" r:id="rId164" location="is" display="https://www.internetworldstats.com/europa2.htm - is" xr:uid="{DAD634B4-0B13-495C-BF3A-0E78F139288D}"/>
-    <hyperlink ref="B183" r:id="rId165" location="je" display="https://www.internetworldstats.com/europa2.htm - je" xr:uid="{AAA4C443-AC6E-48A0-9AC6-3A30B5BF0733}"/>
-    <hyperlink ref="B184" r:id="rId166" location="kv" display="https://www.internetworldstats.com/europa2.htm - kv" xr:uid="{CEF5469A-24EB-4DEE-A430-FA262A21AF91}"/>
-    <hyperlink ref="B185" r:id="rId167" location="li" display="https://www.internetworldstats.com/europa2.htm - li" xr:uid="{AE532CB7-F20F-4F4C-8A6A-D9E95176F4BD}"/>
-    <hyperlink ref="B186" r:id="rId168" display="https://www.internetworldstats.com/europa2.htm" xr:uid="{69238723-FFBF-4DCA-A4E9-70A6E8C4D7DE}"/>
-    <hyperlink ref="B187" r:id="rId169" location="md" display="https://www.internetworldstats.com/europa2.htm - md" xr:uid="{0A718CB7-E6C6-45F1-9812-34EC83324DBB}"/>
-    <hyperlink ref="B188" r:id="rId170" location="mc" display="https://www.internetworldstats.com/europa2.htm - mc" xr:uid="{DBCFD336-FA4B-4158-BBB3-9BB1CC3AF7AD}"/>
-    <hyperlink ref="B189" r:id="rId171" location="me" display="https://www.internetworldstats.com/europa2.htm - me" xr:uid="{A5EED805-B385-469E-B86F-811578E17A9A}"/>
-    <hyperlink ref="B190" r:id="rId172" location="mk" display="https://www.internetworldstats.com/europa2.htm - mk" xr:uid="{A209AD69-4B32-4D7F-8CC3-2458AC35F4F8}"/>
-    <hyperlink ref="B191" r:id="rId173" location="no" display="https://www.internetworldstats.com/europa2.htm - no" xr:uid="{9CB8888C-C72D-47BC-A7EA-DF4D531B7F32}"/>
-    <hyperlink ref="B192" r:id="rId174" location="ru" display="https://www.internetworldstats.com/europa2.htm - ru" xr:uid="{06425AF9-A6C2-4F72-A8FA-B317226B01C1}"/>
-    <hyperlink ref="B193" r:id="rId175" location="sm" display="https://www.internetworldstats.com/europa2.htm - sm" xr:uid="{5E5F8356-C37C-4FB6-9FFC-68B8976FA302}"/>
-    <hyperlink ref="B194" r:id="rId176" location="rs" display="https://www.internetworldstats.com/europa2.htm - rs" xr:uid="{074BD699-128B-4388-A30F-4E16389781D4}"/>
-    <hyperlink ref="B195" r:id="rId177" location="sj" display="https://www.internetworldstats.com/europa2.htm - sj" xr:uid="{2777F7AF-600C-4E57-B36A-018479FD0A7D}"/>
-    <hyperlink ref="B196" r:id="rId178" location="ch" display="https://www.internetworldstats.com/europa2.htm - ch" xr:uid="{A0EAABEB-E190-485F-B147-8F07FF3FD736}"/>
-    <hyperlink ref="B197" r:id="rId179" location="tr" display="https://www.internetworldstats.com/europa1.htm - tr" xr:uid="{C821B750-A704-4109-BEA3-A16931323D86}"/>
-    <hyperlink ref="B198" r:id="rId180" location="ua" display="https://www.internetworldstats.com/europa2.htm - ua" xr:uid="{48383F7F-5652-412C-B957-4AD3444519BE}"/>
-    <hyperlink ref="B199" r:id="rId181" location="uk" display="https://www.internetworldstats.com/europa2.htm - uk" xr:uid="{025253C4-6B9E-4A76-9C8B-D7329E4019D7}"/>
-    <hyperlink ref="B200" r:id="rId182" location="va" display="https://www.internetworldstats.com/europa2.htm - va" xr:uid="{1C01A439-4A6F-4D97-BA50-6E16D8ED8361}"/>
-    <hyperlink ref="B202" r:id="rId183" display="https://www.internetworldstats.com/middle.htm" xr:uid="{60B2C186-AF9D-4DEA-9B58-CEAC91435EF9}"/>
-    <hyperlink ref="B204" r:id="rId184" location="bh" display="https://www.internetworldstats.com/middle.htm - bh" xr:uid="{820FF52D-7BCB-4AF2-B181-D3DEBBB3E9C2}"/>
-    <hyperlink ref="B205" r:id="rId185" location="iq" display="https://www.internetworldstats.com/middle.htm - iq" xr:uid="{8AE15886-8773-42F8-A314-599F1569FD90}"/>
-    <hyperlink ref="B206" r:id="rId186" location="ir" display="https://www.internetworldstats.com/middle.htm - ir" xr:uid="{FF936BB4-2CDE-4FBA-BDA0-B1AD2B956999}"/>
-    <hyperlink ref="B207" r:id="rId187" location="il" display="https://www.internetworldstats.com/middle.htm - il" xr:uid="{694A39FA-F386-4076-B35F-44B93EA89AA0}"/>
-    <hyperlink ref="B208" r:id="rId188" location="jo" display="https://www.internetworldstats.com/middle.htm - jo" xr:uid="{251E5819-6569-4031-985F-6AF596CE9492}"/>
-    <hyperlink ref="B209" r:id="rId189" location="kw" display="https://www.internetworldstats.com/middle.htm - kw" xr:uid="{4571D135-D4A9-41DA-B146-2964433DD077}"/>
-    <hyperlink ref="B210" r:id="rId190" location="lb" display="https://www.internetworldstats.com/middle.htm - lb" xr:uid="{9F45FAAE-0125-449D-928B-8BA652E218DF}"/>
-    <hyperlink ref="B211" r:id="rId191" location="om" display="https://www.internetworldstats.com/middle.htm - om" xr:uid="{D3CE7777-4C29-4405-BEBA-26236A68D496}"/>
-    <hyperlink ref="B212" r:id="rId192" location="pl" display="https://www.internetworldstats.com/middle.htm - pl" xr:uid="{DC34E366-FC7A-45CF-8A6E-4A965DF33495}"/>
-    <hyperlink ref="B213" r:id="rId193" location="qa" display="https://www.internetworldstats.com/middle.htm - qa" xr:uid="{676D9174-09F3-473D-B546-346ABBC8201A}"/>
-    <hyperlink ref="B214" r:id="rId194" location="sa" display="https://www.internetworldstats.com/middle.htm - sa" xr:uid="{440E1530-E6A8-4AF4-9B15-3CD2255FAEBF}"/>
-    <hyperlink ref="B215" r:id="rId195" location="sy" display="https://www.internetworldstats.com/middle.htm - sy" xr:uid="{A7C23908-087F-4CD3-8BB1-07A084A7B1C2}"/>
-    <hyperlink ref="B216" r:id="rId196" location="ae" display="https://www.internetworldstats.com/middle.htm - ae" xr:uid="{7963DDBB-9E3E-4092-A1DF-7DBE25FF95BF}"/>
-    <hyperlink ref="B217" r:id="rId197" location="ye" display="https://www.internetworldstats.com/middle.htm - ye" xr:uid="{EADE240E-8F43-4991-A5C9-3F54FA83217A}"/>
-    <hyperlink ref="B219" r:id="rId198" display="https://www.internetworldstats.com/pacific.htm" xr:uid="{40A226CE-10EC-4ECC-AA04-E570EB95284F}"/>
-    <hyperlink ref="B221" r:id="rId199" location="au" display="https://www.internetworldstats.com/pacific.htm - au" xr:uid="{0EB4594E-6CA0-4766-BA8A-993AE3DE2ACA}"/>
-    <hyperlink ref="B222" r:id="rId200" location="fj" display="https://www.internetworldstats.com/pacific.htm - fj" xr:uid="{EF9ED20C-A368-4520-AB62-694EC1EA21C9}"/>
-    <hyperlink ref="B223" r:id="rId201" location="pf" display="https://www.internetworldstats.com/pacific.htm - pf" xr:uid="{2FAF19FB-5D47-45AA-9A29-32BC9E5252B3}"/>
-    <hyperlink ref="B224" r:id="rId202" location="gu" display="https://www.internetworldstats.com/pacific.htm - gu" xr:uid="{57D7CB23-2D86-4448-B087-DC8460567463}"/>
-    <hyperlink ref="B225" r:id="rId203" location="ki" display="https://www.internetworldstats.com/pacific.htm - ki" xr:uid="{A05ECBC3-54DC-4642-9FE7-C7AFF6174F33}"/>
-    <hyperlink ref="B226" r:id="rId204" location="mh" display="https://www.internetworldstats.com/pacific.htm - mh" xr:uid="{D5BDFD44-BFA3-4AD4-9545-6D28DBD02464}"/>
-    <hyperlink ref="B227" r:id="rId205" location="fm" display="https://www.internetworldstats.com/pacific.htm - fm" xr:uid="{E6D2FB9F-E720-4901-B163-4D35B9D92654}"/>
-    <hyperlink ref="B228" r:id="rId206" location="nc" display="https://www.internetworldstats.com/pacific.htm - nc" xr:uid="{CAE7B95F-93B2-471C-A9FB-73CF34604F63}"/>
-    <hyperlink ref="B229" r:id="rId207" location="nz" display="https://www.internetworldstats.com/pacific.htm - nz" xr:uid="{6420D844-9C54-4750-8771-BFE231282F5A}"/>
-    <hyperlink ref="B230" r:id="rId208" location="pg" display="https://www.internetworldstats.com/pacific.htm - pg" xr:uid="{74986C2A-2062-4922-A904-5064607613AC}"/>
-    <hyperlink ref="B231" r:id="rId209" location="ws" display="https://www.internetworldstats.com/pacific.htm - ws" xr:uid="{EA792B67-60AE-4DDA-BF13-10C4E8E46CF6}"/>
-    <hyperlink ref="B232" r:id="rId210" location="as" display="https://www.internetworldstats.com/pacific.htm - as" xr:uid="{ADF2C48F-D6C2-48EF-B9AC-4FCE237425D1}"/>
-    <hyperlink ref="B233" r:id="rId211" location="sb" display="https://www.internetworldstats.com/pacific.htm - sb" xr:uid="{A37E67D9-2BC6-42D7-B852-C14BB3B194D2}"/>
-    <hyperlink ref="B234" r:id="rId212" location="to" display="https://www.internetworldstats.com/pacific.htm - to" xr:uid="{B66CE532-DF28-4A6E-A6DC-9621258BC782}"/>
-    <hyperlink ref="B235" r:id="rId213" location="vu" display="https://www.internetworldstats.com/pacific.htm - vu" xr:uid="{54EF0259-1F8C-41E4-B6AA-85BA49E614CC}"/>
+    <hyperlink ref="D3" r:id="rId20" location="ao" display="https://www.internetworldstats.com/africa.htm - ao" xr:uid="{1291F04D-38C0-4C64-8F58-FC6C94367471}"/>
+    <hyperlink ref="D4" r:id="rId21" location="cm" display="https://www.internetworldstats.com/africa.htm - cm" xr:uid="{1ADC7402-9A00-417B-A69D-0BF60F4ECE6F}"/>
+    <hyperlink ref="D5" r:id="rId22" location="cf" display="https://www.internetworldstats.com/africa.htm - cf" xr:uid="{A28F7ABD-C76F-4957-A349-4CA3CE9B0D2D}"/>
+    <hyperlink ref="D6" r:id="rId23" location="td" display="https://www.internetworldstats.com/africa.htm - td" xr:uid="{3698945A-C8D2-4BAD-B625-3BD78B723709}"/>
+    <hyperlink ref="D7" r:id="rId24" location="cg" display="https://www.internetworldstats.com/africa.htm - cg" xr:uid="{08E7F656-73E6-45E9-9A5E-8623A8C6E179}"/>
+    <hyperlink ref="D8" r:id="rId25" location="cd" display="https://www.internetworldstats.com/africa.htm - cd" xr:uid="{E80387AF-8C2E-4EB0-8FAC-281211830231}"/>
+    <hyperlink ref="D9" r:id="rId26" location="gq" display="https://www.internetworldstats.com/africa.htm - gq" xr:uid="{B8703DE5-93B6-4E7A-B1E4-33B8762271E3}"/>
+    <hyperlink ref="D10" r:id="rId27" location="ga" display="https://www.internetworldstats.com/africa.htm - ga" xr:uid="{67F10795-C18F-4217-AD47-2B3174F081E4}"/>
+    <hyperlink ref="D11" r:id="rId28" location="st" display="https://www.internetworldstats.com/africa.htm - st" xr:uid="{A0F14105-E146-4A4F-863B-189E0ED8A5A3}"/>
+    <hyperlink ref="D14" r:id="rId29" location="dz" display="https://www.internetworldstats.com/africa.htm - dz" xr:uid="{247C432E-22AE-47E7-968C-73B3F7C623BC}"/>
+    <hyperlink ref="D15" r:id="rId30" location="eg" display="https://www.internetworldstats.com/africa.htm - eg" xr:uid="{3644A65C-B56F-4E51-91D5-884AFFA5E2EB}"/>
+    <hyperlink ref="D16" r:id="rId31" location="ly" display="https://www.internetworldstats.com/africa.htm - ly" xr:uid="{0276C5A7-7E4B-4334-A420-C9133F499ED3}"/>
+    <hyperlink ref="D17" r:id="rId32" location="ma" display="https://www.internetworldstats.com/africa.htm - ma" xr:uid="{181E21AC-D8AD-4BB5-9E51-820CCB4B83D9}"/>
+    <hyperlink ref="D18" r:id="rId33" location="ss" display="https://www.internetworldstats.com/africa.htm - ss" xr:uid="{5887410C-E622-4B8E-8F23-4CE5794B2C1C}"/>
+    <hyperlink ref="D19" r:id="rId34" location="sd" display="https://www.internetworldstats.com/africa.htm - sd" xr:uid="{CE4DFDD6-8C1A-4DDE-801C-5EC40EAA00EA}"/>
+    <hyperlink ref="D20" r:id="rId35" location="tn" display="https://www.internetworldstats.com/africa.htm - tn" xr:uid="{E4C447DD-87B5-4641-B9A3-CC2C83FD641A}"/>
+    <hyperlink ref="D21" r:id="rId36" location="st" display="https://www.internetworldstats.com/africa.htm - st" xr:uid="{E2CB0308-83EC-4C7F-9C42-AC9277481A1F}"/>
+    <hyperlink ref="F3" r:id="rId37" location="bw" display="https://www.internetworldstats.com/africa.htm - bw" xr:uid="{38542C75-4073-4F03-AB9A-44F9700B4B4F}"/>
+    <hyperlink ref="F4" r:id="rId38" location="sz" display="https://www.internetworldstats.com/africa.htm - sz" xr:uid="{76751FD6-CF7D-43F3-81B1-0920ED9B3639}"/>
+    <hyperlink ref="F5" r:id="rId39" location="ls" display="https://www.internetworldstats.com/africa.htm - ls" xr:uid="{0B060894-FAD3-47EA-A26A-29492AB81B8A}"/>
+    <hyperlink ref="F6" r:id="rId40" location="na" display="https://www.internetworldstats.com/africa.htm - na" xr:uid="{9D1BECBB-AF14-45D3-8E8C-F2A9CAD0DA6D}"/>
+    <hyperlink ref="F7" r:id="rId41" location="za" display="https://www.internetworldstats.com/africa.htm - za" xr:uid="{23FBB80D-6989-474F-8102-12CB0071A710}"/>
+    <hyperlink ref="F10" r:id="rId42" location="bj" display="https://www.internetworldstats.com/africa.htm - bj" xr:uid="{922017AC-4A49-46AC-A4CD-0E3F924B77AE}"/>
+    <hyperlink ref="F11" r:id="rId43" location="bf" display="https://www.internetworldstats.com/africa.htm - bf" xr:uid="{19DEB61B-5FA3-4FCA-B417-090DD528DC56}"/>
+    <hyperlink ref="F12" r:id="rId44" location="cv" display="https://www.internetworldstats.com/africa.htm - cv" xr:uid="{C4D5F3EF-082B-4F06-89CD-7B31A1BAD0A4}"/>
+    <hyperlink ref="F13" r:id="rId45" location="ci" display="https://www.internetworldstats.com/africa.htm - ci" xr:uid="{F5414C92-5662-4E04-808A-85963828A41E}"/>
+    <hyperlink ref="F14" r:id="rId46" location="gm" display="gm" xr:uid="{DF44FC4C-AA6A-4F8C-9A09-2C2C31CD40DC}"/>
+    <hyperlink ref="F15" r:id="rId47" location="gh" display="https://www.internetworldstats.com/africa.htm - gh" xr:uid="{7A51772E-37A2-444F-B863-6A9C041C75A4}"/>
+    <hyperlink ref="F16" r:id="rId48" location="gn" display="https://www.internetworldstats.com/africa.htm - gn" xr:uid="{A6931A7E-CDA2-4F4A-915C-D3ED1FDEE4BE}"/>
+    <hyperlink ref="F17" r:id="rId49" location="gw" display="https://www.internetworldstats.com/africa.htm - gw" xr:uid="{AC964607-87B1-4DEB-9184-F780206190F0}"/>
+    <hyperlink ref="F18" r:id="rId50" location="lr" display="https://www.internetworldstats.com/africa.htm - lr" xr:uid="{89031ED8-D4F5-4751-BE66-CFB107370E35}"/>
+    <hyperlink ref="F19" r:id="rId51" location="ml" display="https://www.internetworldstats.com/africa.htm - ml" xr:uid="{A85677F1-5FD9-4C35-9F55-41DA1493ED81}"/>
+    <hyperlink ref="F20" r:id="rId52" location="mr" display="https://www.internetworldstats.com/africa.htm - mr" xr:uid="{57CC7151-FEE4-4BA5-B5F6-8804220B9296}"/>
+    <hyperlink ref="F21" r:id="rId53" location="ne" display="https://www.internetworldstats.com/africa.htm - ne" xr:uid="{E6CCCF99-1B22-420C-99BE-532D667BEE2E}"/>
+    <hyperlink ref="F22" r:id="rId54" location="ng" display="https://www.internetworldstats.com/africa.htm - ng" xr:uid="{312C2869-DFEA-422B-B257-C221ED8FE4F3}"/>
+    <hyperlink ref="F23" r:id="rId55" location="sh" display="https://www.internetworldstats.com/africa.htm - sh" xr:uid="{913BC357-07D7-4C3D-A33D-BE05AED0AABB}"/>
+    <hyperlink ref="F24" r:id="rId56" location="sn" display="https://www.internetworldstats.com/africa.htm - sn" xr:uid="{C29769FA-7105-4A80-8E3C-5997A693B923}"/>
+    <hyperlink ref="F25" r:id="rId57" location="sl" display="https://www.internetworldstats.com/africa.htm - sl" xr:uid="{5FFAA694-9F99-4FAB-A2BB-A475A4F3B88D}"/>
+    <hyperlink ref="F26" r:id="rId58" location="tg" display="https://www.internetworldstats.com/africa.htm - tg" xr:uid="{47EEA0F9-74CF-4EE5-959A-DC5398C0A395}"/>
+    <hyperlink ref="B65" r:id="rId59" display="https://www.internetworldstats.com/carib.htm" xr:uid="{24CF38E7-ED3C-4E13-A44D-6F85CD176A40}"/>
+    <hyperlink ref="B66" r:id="rId60" location="ai" display="https://www.internetworldstats.com/carib.htm - ai" xr:uid="{33EEE538-AA40-4D0D-AE5D-209EC64A70F2}"/>
+    <hyperlink ref="B67" r:id="rId61" location="ag" display="https://www.internetworldstats.com/carib.htm - ag" xr:uid="{145B9AEE-EDD2-44AF-8BF0-BA3489B70A77}"/>
+    <hyperlink ref="B68" r:id="rId62" location="aw" display="https://www.internetworldstats.com/carib.htm - aw" xr:uid="{3B8D786C-B26A-4729-A3E4-F8B49F6E3911}"/>
+    <hyperlink ref="B69" r:id="rId63" location="bs" display="https://www.internetworldstats.com/carib.htm - bs" xr:uid="{C65E032E-C610-4421-AED0-C7D62F149D17}"/>
+    <hyperlink ref="B70" r:id="rId64" location="bb" display="https://www.internetworldstats.com/carib.htm - bb" xr:uid="{9EF0D533-5401-4686-8047-447A0CD75D5C}"/>
+    <hyperlink ref="B71" r:id="rId65" location="bq" display="https://www.internetworldstats.com/carib.htm - bq" xr:uid="{5FB4D105-702B-4EE4-A66A-EEA45325E729}"/>
+    <hyperlink ref="B72" r:id="rId66" location="vg" display="https://www.internetworldstats.com/carib.htm - vg" xr:uid="{35ADE0C4-931D-4668-8B82-5E9796984D18}"/>
+    <hyperlink ref="B73" r:id="rId67" location="ky" display="https://www.internetworldstats.com/carib.htm - ky" xr:uid="{93F4EFA5-9948-45D2-AE33-714942F88657}"/>
+    <hyperlink ref="B74" r:id="rId68" location="cu" display="https://www.internetworldstats.com/carib.htm - cu" xr:uid="{4877F3EB-B39F-4A61-873D-268F535453DA}"/>
+    <hyperlink ref="B75" r:id="rId69" location="cw" display="https://www.internetworldstats.com/carib.htm - cw" xr:uid="{A4AB14A6-9708-406C-9BF5-D9DDB624B4EC}"/>
+    <hyperlink ref="B76" r:id="rId70" location="dm" display="https://www.internetworldstats.com/carib.htm - dm" xr:uid="{D2A42072-1B93-4BEB-BC0A-06ECADF41207}"/>
+    <hyperlink ref="B77" r:id="rId71" location="do" display="https://www.internetworldstats.com/carib.htm - do" xr:uid="{7AADB110-74AD-4C0B-B45A-39256D4DA712}"/>
+    <hyperlink ref="B78" r:id="rId72" location="gd" display="https://www.internetworldstats.com/carib.htm - gd" xr:uid="{D3B1D2EE-9E0F-452C-B602-F33C9F6EC140}"/>
+    <hyperlink ref="B79" r:id="rId73" location="gp" display="https://www.internetworldstats.com/carib.htm - gp" xr:uid="{3921E611-22CC-4036-8AF3-1CA8EF2C3B10}"/>
+    <hyperlink ref="B80" r:id="rId74" location="ht" display="https://www.internetworldstats.com/carib.htm - ht" xr:uid="{5A5B1371-A1BA-46ED-9A14-7BD09C2497E9}"/>
+    <hyperlink ref="B81" r:id="rId75" location="jm" display="https://www.internetworldstats.com/carib.htm - jm" xr:uid="{85769EC3-8686-4C1B-B23F-27CF1FC363D5}"/>
+    <hyperlink ref="B82" r:id="rId76" location="mq" display="https://www.internetworldstats.com/carib.htm - mq" xr:uid="{661F2831-DF13-43F9-B685-6170F73F82F0}"/>
+    <hyperlink ref="B83" r:id="rId77" location="ms" display="https://www.internetworldstats.com/carib.htm - ms" xr:uid="{A866B65B-821F-4D84-8D8A-089DD944AF70}"/>
+    <hyperlink ref="B84" r:id="rId78" location="pr" display="https://www.internetworldstats.com/carib.htm - pr" xr:uid="{5E9D7FFA-2C12-4311-969F-37C889218DDF}"/>
+    <hyperlink ref="B85" r:id="rId79" location="bl" display="https://www.internetworldstats.com/carib.htm - bl" xr:uid="{36155238-5E99-441B-AC1D-5EDC01002C16}"/>
+    <hyperlink ref="B86" r:id="rId80" location="kn" display="https://www.internetworldstats.com/carib.htm - kn" xr:uid="{67EA7320-FC4A-4120-844A-8F1E45CE08E7}"/>
+    <hyperlink ref="B87" r:id="rId81" location="lc" display="https://www.internetworldstats.com/carib.htm - lc" xr:uid="{54303B4B-52AE-469A-A972-9F373AFEDB65}"/>
+    <hyperlink ref="B88" r:id="rId82" location="mf" display="https://www.internetworldstats.com/carib.htm - mf" xr:uid="{47E22C72-3A4F-4A14-A3D9-073153D95C10}"/>
+    <hyperlink ref="B89" r:id="rId83" location="vc" display="https://www.internetworldstats.com/carib.htm - vc" xr:uid="{5F6E2E8C-528B-45D8-A1B2-F08B742708A1}"/>
+    <hyperlink ref="B90" r:id="rId84" location="sx" display="https://www.internetworldstats.com/carib.htm - sx" xr:uid="{9FCF1908-D368-421A-939D-FC87EA338B22}"/>
+    <hyperlink ref="B91" r:id="rId85" location="tt" display="https://www.internetworldstats.com/carib.htm - tt" xr:uid="{20D32A03-9071-497C-9A97-C408E1621DDE}"/>
+    <hyperlink ref="B92" r:id="rId86" location="tc" display="https://www.internetworldstats.com/carib.htm - tc" xr:uid="{CE0D44F3-5AA1-46DA-BF00-E136D723C48E}"/>
+    <hyperlink ref="B93" r:id="rId87" location="vi" display="https://www.internetworldstats.com/carib.htm - vi" xr:uid="{7F4C0D09-C54D-4A1A-B97C-583EB42E72AA}"/>
+    <hyperlink ref="D65" r:id="rId88" display="https://www.internetworldstats.com/central.htm" xr:uid="{7511BF00-3DDE-4D97-85A7-E084A70D8D4F}"/>
+    <hyperlink ref="D66" r:id="rId89" location="bz" display="https://www.internetworldstats.com/central.htm - bz" xr:uid="{17C62BA5-F76A-485C-89F0-2000ABE06C0D}"/>
+    <hyperlink ref="D67" r:id="rId90" location="cr" display="https://www.internetworldstats.com/central.htm - cr" xr:uid="{B9F67ECB-3A4F-4BA0-9DB2-0CAD35992857}"/>
+    <hyperlink ref="D68" r:id="rId91" location="sv" display="https://www.internetworldstats.com/central.htm - sv" xr:uid="{24DB55D6-D6F9-4084-AC4E-6C88CE29E007}"/>
+    <hyperlink ref="D69" r:id="rId92" location="gt" display="https://www.internetworldstats.com/central.htm - gt" xr:uid="{DB08C1F7-5386-4A02-B2D0-BA016F2688F6}"/>
+    <hyperlink ref="D70" r:id="rId93" location="hn" display="https://www.internetworldstats.com/central.htm - hn" xr:uid="{21DB5BBE-9143-40D9-84CC-949DE6806A2A}"/>
+    <hyperlink ref="D71" r:id="rId94" location="mx" display="https://www.internetworldstats.com/central.htm - mx" xr:uid="{A2F36181-7E59-434F-BE59-75074EF55E97}"/>
+    <hyperlink ref="D72" r:id="rId95" location="ni" display="https://www.internetworldstats.com/central.htm - ni" xr:uid="{2C5F06AB-EED9-4F5C-B8EB-F44861ED8411}"/>
+    <hyperlink ref="D73" r:id="rId96" location="pa" display="https://www.internetworldstats.com/central.htm - pa" xr:uid="{81052F52-B6EB-43C8-8D2A-44C72573ADA2}"/>
+    <hyperlink ref="F65" r:id="rId97" display="https://www.internetworldstats.com/south.htm" xr:uid="{62C249C7-1577-49E4-A766-860829903E0A}"/>
+    <hyperlink ref="F66" r:id="rId98" location="ar" display="https://www.internetworldstats.com/south.htm - ar" xr:uid="{B937AB29-BADB-4ACE-B185-63290766296A}"/>
+    <hyperlink ref="F67" r:id="rId99" location="bo" display="https://www.internetworldstats.com/south.htm - bo" xr:uid="{816EBBA6-CB62-45B4-864D-1AFAC613D5A3}"/>
+    <hyperlink ref="F68" r:id="rId100" location="br" display="https://www.internetworldstats.com/south.htm - br" xr:uid="{AF376EDA-6856-4DC4-890D-9FFDA7BC9FF4}"/>
+    <hyperlink ref="F69" r:id="rId101" location="cl" display="https://www.internetworldstats.com/south.htm - cl" xr:uid="{F1374B4B-9B26-4AF2-8022-01F9D339DACA}"/>
+    <hyperlink ref="F70" r:id="rId102" location="co" display="https://www.internetworldstats.com/south.htm - co" xr:uid="{060A5783-EDE8-4C25-8CD2-E3DE27340F27}"/>
+    <hyperlink ref="F71" r:id="rId103" location="ec" display="https://www.internetworldstats.com/south.htm - ec" xr:uid="{312754B3-93BD-44EF-8B06-FC294A31343F}"/>
+    <hyperlink ref="F72" r:id="rId104" location="fk" display="https://www.internetworldstats.com/south.htm - fk" xr:uid="{22F1F8B0-27F8-4977-9C5C-1FEBDCFCF2B3}"/>
+    <hyperlink ref="F73" r:id="rId105" location="gf" display="https://www.internetworldstats.com/south.htm - gf" xr:uid="{730E9D07-B231-4979-9490-42CE519C6662}"/>
+    <hyperlink ref="F74" r:id="rId106" location="gy" display="https://www.internetworldstats.com/south.htm - gy" xr:uid="{DCEE9B95-5F0A-4D63-81E1-D0194AE43D97}"/>
+    <hyperlink ref="F75" r:id="rId107" location="py" display="https://www.internetworldstats.com/south.htm - py" xr:uid="{1325F67C-18DD-4A5F-93E5-75251111C8F4}"/>
+    <hyperlink ref="F76" r:id="rId108" location="pe" display="https://www.internetworldstats.com/south.htm - pe" xr:uid="{81A75AA6-6E70-4359-B8D2-7AF502A1E12E}"/>
+    <hyperlink ref="F77" r:id="rId109" location="sr" display="https://www.internetworldstats.com/south.htm - sr" xr:uid="{7E153AA7-AC10-4E38-96FC-A3A90F532C41}"/>
+    <hyperlink ref="F78" r:id="rId110" location="uy" display="https://www.internetworldstats.com/south.htm - uy" xr:uid="{D749E5E8-3055-4027-A11A-A7272BF9741E}"/>
+    <hyperlink ref="F79" r:id="rId111" location="ve" display="https://www.internetworldstats.com/south.htm - ve" xr:uid="{6EAE2A6C-5534-4CA3-8FAC-847C23AC2D3C}"/>
+    <hyperlink ref="B95" r:id="rId112" display="https://www.internetworldstats.com/america.htm" xr:uid="{AE66FD67-F98D-46FF-BA83-9B37809C9287}"/>
+    <hyperlink ref="B96" r:id="rId113" location="bm" display="https://www.internetworldstats.com/america.htm - bm" xr:uid="{694B0D6A-6284-46C2-8AC0-DE0B932A3662}"/>
+    <hyperlink ref="B97" r:id="rId114" location="ca" display="https://www.internetworldstats.com/america.htm - ca" xr:uid="{A4DD5869-FE15-496E-8730-A2A7F5FF883F}"/>
+    <hyperlink ref="B98" r:id="rId115" location="gl" display="https://www.internetworldstats.com/america.htm - gl" xr:uid="{7B337EE5-0830-4E88-84A5-71BF457704DF}"/>
+    <hyperlink ref="B99" r:id="rId116" location="sp" display="https://www.internetworldstats.com/america.htm - sp" xr:uid="{1F4623A3-C1BB-466C-B1C6-0402CE17A0DA}"/>
+    <hyperlink ref="B100" r:id="rId117" location="us" display="https://www.internetworldstats.com/america.htm - us" xr:uid="{F4D3A9CD-D99C-4E22-9EBB-BE36D7C0D9B6}"/>
+    <hyperlink ref="B28" r:id="rId118" display="https://www.internetworldstats.com/asia.htm" xr:uid="{C1A25423-E3D9-4255-8CD2-364F28036CDC}"/>
+    <hyperlink ref="B29" r:id="rId119" location="af" display="https://www.internetworldstats.com/asia.htm - af" xr:uid="{2C25B988-9801-4543-8907-89444D88FFAD}"/>
+    <hyperlink ref="B30" r:id="rId120" location="am" display="https://www.internetworldstats.com/asia.htm - am" xr:uid="{9120D148-DC80-46EB-8146-50A50869E0A2}"/>
+    <hyperlink ref="B31" r:id="rId121" location="az" display="https://www.internetworldstats.com/asia.htm - az" xr:uid="{C55D7ECF-92E9-4D8E-A6A9-6D9B4A9D7B6A}"/>
+    <hyperlink ref="B32" r:id="rId122" location="bd" display="https://www.internetworldstats.com/asia.htm - bd" xr:uid="{66C945BE-A76E-466A-BB3B-112D7B5795D7}"/>
+    <hyperlink ref="B33" r:id="rId123" location="bt" display="https://www.internetworldstats.com/asia.htm - bt" xr:uid="{08AE8E3A-323B-4C64-B9E7-9F9E34D6D303}"/>
+    <hyperlink ref="B34" r:id="rId124" location="bn" display="https://www.internetworldstats.com/asia.htm - bn" xr:uid="{F6C649B1-F299-45BC-AD7C-96EE7A531BA0}"/>
+    <hyperlink ref="B35" r:id="rId125" location="kh" display="https://www.internetworldstats.com/asia.htm - kh" xr:uid="{AB2A1CBD-F60D-4CDC-9A86-652F86B4F0BA}"/>
+    <hyperlink ref="B36" r:id="rId126" location="cn" display="https://www.internetworldstats.com/asia.htm - cn" xr:uid="{52349099-0868-4BED-BE74-6F6A8FAD56E6}"/>
+    <hyperlink ref="B37" r:id="rId127" location="ge" display="https://www.internetworldstats.com/asia.htm - ge" xr:uid="{F9CA7E5A-6A40-4FE0-AEFB-CD1BA40F42F1}"/>
+    <hyperlink ref="B38" r:id="rId128" location="hk" display="https://www.internetworldstats.com/asia.htm - hk" xr:uid="{AFAD08C3-26F2-4700-B9CE-F377B52F28F4}"/>
+    <hyperlink ref="B39" r:id="rId129" location="in" display="https://www.internetworldstats.com/asia.htm - in" xr:uid="{D3CA2176-A4FA-4D36-AF4B-7E36E164D814}"/>
+    <hyperlink ref="B40" r:id="rId130" location="id" display="https://www.internetworldstats.com/asia.htm - id" xr:uid="{433341A7-E7D3-44A6-8AEC-ABAC71027124}"/>
+    <hyperlink ref="B41" r:id="rId131" location="jp" display="https://www.internetworldstats.com/asia.htm - jp" xr:uid="{68920538-192A-42F8-B7C7-3238EE44CAD1}"/>
+    <hyperlink ref="B42" r:id="rId132" location="kz" display="https://www.internetworldstats.com/asia.htm - kz" xr:uid="{E6F4C035-B6AF-4C23-AEBC-3B7FB5928975}"/>
+    <hyperlink ref="B43" r:id="rId133" location="kp" display="https://www.internetworldstats.com/asia.htm - kp" xr:uid="{6EBAB7C5-DED4-49DF-966F-32B83D13ECBB}"/>
+    <hyperlink ref="B44" r:id="rId134" location="kr" display="https://www.internetworldstats.com/asia.htm - kr" xr:uid="{8684C6AD-1FE0-41F4-83B7-04AD32A67734}"/>
+    <hyperlink ref="B45" r:id="rId135" location="kg" display="https://www.internetworldstats.com/asia.htm - kg" xr:uid="{D488A38B-C473-4A28-88F1-BC24A8F434DC}"/>
+    <hyperlink ref="B46" r:id="rId136" location="la" display="https://www.internetworldstats.com/asia.htm - la" xr:uid="{1269E40A-D07B-431A-9A4E-2B2F33357BF4}"/>
+    <hyperlink ref="B47" r:id="rId137" location="mo" display="https://www.internetworldstats.com/asia.htm - mo" xr:uid="{07A3F09C-3150-4A97-B294-1CD7DF983359}"/>
+    <hyperlink ref="B48" r:id="rId138" location="my" display="https://www.internetworldstats.com/asia.htm - my" xr:uid="{35335DA2-9EBF-4A4E-AB1A-9D687114EA70}"/>
+    <hyperlink ref="B49" r:id="rId139" location="mv" display="https://www.internetworldstats.com/asia.htm - mv" xr:uid="{22BCA42F-5F75-4A90-8104-6A016CD6BC0F}"/>
+    <hyperlink ref="B50" r:id="rId140" location="mn" display="https://www.internetworldstats.com/asia.htm - mn" xr:uid="{30290F6C-E3AE-42C2-BCD1-4A680FA8BD6C}"/>
+    <hyperlink ref="B51" r:id="rId141" location="mm" display="https://www.internetworldstats.com/asia.htm - mm" xr:uid="{503D8444-CD95-4C8B-85F9-5DC321B490B7}"/>
+    <hyperlink ref="B52" r:id="rId142" location="np" display="https://www.internetworldstats.com/asia.htm - np" xr:uid="{88DD6818-4052-409E-9BC7-CDBE7892B43E}"/>
+    <hyperlink ref="B53" r:id="rId143" location="pk" display="https://www.internetworldstats.com/asia.htm - pk" xr:uid="{1958A985-EBF9-4831-9FFD-0642E6E92547}"/>
+    <hyperlink ref="B54" r:id="rId144" location="ph" display="https://www.internetworldstats.com/asia.htm - ph" xr:uid="{45F41183-E091-4359-8E5E-0AA4389186A1}"/>
+    <hyperlink ref="B55" r:id="rId145" location="sg" display="https://www.internetworldstats.com/asia.htm - sg" xr:uid="{DBA31724-FAFD-46DD-AD57-E30900A8F814}"/>
+    <hyperlink ref="B56" r:id="rId146" location="lk" display="https://www.internetworldstats.com/asia.htm - lk" xr:uid="{F5DBCC04-5C96-4A24-B68C-DF4F83CF417A}"/>
+    <hyperlink ref="B57" r:id="rId147" location="tw" display="https://www.internetworldstats.com/asia.htm - tw" xr:uid="{4B2309E2-391C-49D8-89A3-238C5809389D}"/>
+    <hyperlink ref="B58" r:id="rId148" location="tj" display="https://www.internetworldstats.com/asia.htm - tj" xr:uid="{6F4DB67F-A134-4DAF-8D56-0E55E04C1ABD}"/>
+    <hyperlink ref="B59" r:id="rId149" location="th" display="https://www.internetworldstats.com/asia.htm - th" xr:uid="{F884516E-7A20-441E-9DD2-FFE3204C75A3}"/>
+    <hyperlink ref="B60" r:id="rId150" location="tl" display="https://www.internetworldstats.com/asia.htm - tl" xr:uid="{1619BF8E-C8F7-4CD8-9760-E93FCE4278C1}"/>
+    <hyperlink ref="B61" r:id="rId151" location="tm" display="https://www.internetworldstats.com/asia.htm - tm" xr:uid="{C8FBB504-6CF4-4776-BCBF-8F0246DD944B}"/>
+    <hyperlink ref="B62" r:id="rId152" location="uz" display="https://www.internetworldstats.com/asia.htm - uz" xr:uid="{426F9C0D-2DA8-40D1-8041-F354B40C5CCC}"/>
+    <hyperlink ref="B63" r:id="rId153" location="vn" display="https://www.internetworldstats.com/asia.htm - vn" xr:uid="{1D937933-15B6-4805-BE67-0F7B1FD3E5C7}"/>
+    <hyperlink ref="D28" r:id="rId154" display="https://www.internetworldstats.com/europa2.htm" xr:uid="{324E6B64-BF2E-41F8-AEBE-01BA229EE507}"/>
+    <hyperlink ref="D30" r:id="rId155" location="al" display="https://www.internetworldstats.com/europa2.htm - al" xr:uid="{DBCAFD32-E319-4A56-A399-D6065402FA2A}"/>
+    <hyperlink ref="D31" r:id="rId156" location="ad" display="https://www.internetworldstats.com/europa2.htm - ad" xr:uid="{0C23B572-9ED0-4978-8F28-8E4C0A570AF2}"/>
+    <hyperlink ref="D32" r:id="rId157" location="by" display="https://www.internetworldstats.com/europa2.htm - by" xr:uid="{BD04C8E9-98D0-4721-A4C0-E56E6893A96A}"/>
+    <hyperlink ref="D33" r:id="rId158" location="ba" display="https://www.internetworldstats.com/europa2.htm - ba" xr:uid="{15BDE9FE-8030-49B6-8E36-A0C80DDAA61B}"/>
+    <hyperlink ref="D34" r:id="rId159" location="hr" display="https://www.internetworldstats.com/europa1.htm - hr" xr:uid="{459576E9-97F3-4153-8943-CB26F8C0CD18}"/>
+    <hyperlink ref="D35" r:id="rId160" display="https://www.internetworldstats.com/europa.htm" xr:uid="{9FCC5BC3-9F07-4AF3-97E1-F884FD56E5F6}"/>
+    <hyperlink ref="D36" r:id="rId161" location="fo" display="https://www.internetworldstats.com/europa2.htm - fo" xr:uid="{157DDEE4-F4F4-4E40-8A76-35E35C0B2C04}"/>
+    <hyperlink ref="D37" r:id="rId162" location="gi" display="https://www.internetworldstats.com/europa2.htm - gi" xr:uid="{FA2B1627-AFC8-4E82-A89B-4739C3B8DA3E}"/>
+    <hyperlink ref="D38" r:id="rId163" location="gg" display="https://www.internetworldstats.com/europa2.htm - gg" xr:uid="{CF94AD20-2F89-4EC2-B51F-BCC10ED6B29F}"/>
+    <hyperlink ref="D39" r:id="rId164" location="is" display="https://www.internetworldstats.com/europa2.htm - is" xr:uid="{DAD634B4-0B13-495C-BF3A-0E78F139288D}"/>
+    <hyperlink ref="D40" r:id="rId165" location="je" display="https://www.internetworldstats.com/europa2.htm - je" xr:uid="{AAA4C443-AC6E-48A0-9AC6-3A30B5BF0733}"/>
+    <hyperlink ref="D41" r:id="rId166" location="kv" display="https://www.internetworldstats.com/europa2.htm - kv" xr:uid="{CEF5469A-24EB-4DEE-A430-FA262A21AF91}"/>
+    <hyperlink ref="D42" r:id="rId167" location="li" display="https://www.internetworldstats.com/europa2.htm - li" xr:uid="{AE532CB7-F20F-4F4C-8A6A-D9E95176F4BD}"/>
+    <hyperlink ref="D43" r:id="rId168" display="https://www.internetworldstats.com/europa2.htm" xr:uid="{69238723-FFBF-4DCA-A4E9-70A6E8C4D7DE}"/>
+    <hyperlink ref="D44" r:id="rId169" location="md" display="https://www.internetworldstats.com/europa2.htm - md" xr:uid="{0A718CB7-E6C6-45F1-9812-34EC83324DBB}"/>
+    <hyperlink ref="D45" r:id="rId170" location="mc" display="https://www.internetworldstats.com/europa2.htm - mc" xr:uid="{DBCFD336-FA4B-4158-BBB3-9BB1CC3AF7AD}"/>
+    <hyperlink ref="D46" r:id="rId171" location="me" display="https://www.internetworldstats.com/europa2.htm - me" xr:uid="{A5EED805-B385-469E-B86F-811578E17A9A}"/>
+    <hyperlink ref="D47" r:id="rId172" location="mk" display="https://www.internetworldstats.com/europa2.htm - mk" xr:uid="{A209AD69-4B32-4D7F-8CC3-2458AC35F4F8}"/>
+    <hyperlink ref="D48" r:id="rId173" location="no" display="https://www.internetworldstats.com/europa2.htm - no" xr:uid="{9CB8888C-C72D-47BC-A7EA-DF4D531B7F32}"/>
+    <hyperlink ref="D49" r:id="rId174" location="ru" display="https://www.internetworldstats.com/europa2.htm - ru" xr:uid="{06425AF9-A6C2-4F72-A8FA-B317226B01C1}"/>
+    <hyperlink ref="D50" r:id="rId175" location="sm" display="https://www.internetworldstats.com/europa2.htm - sm" xr:uid="{5E5F8356-C37C-4FB6-9FFC-68B8976FA302}"/>
+    <hyperlink ref="D51" r:id="rId176" location="rs" display="https://www.internetworldstats.com/europa2.htm - rs" xr:uid="{074BD699-128B-4388-A30F-4E16389781D4}"/>
+    <hyperlink ref="D52" r:id="rId177" location="sj" display="https://www.internetworldstats.com/europa2.htm - sj" xr:uid="{2777F7AF-600C-4E57-B36A-018479FD0A7D}"/>
+    <hyperlink ref="D53" r:id="rId178" location="ch" display="https://www.internetworldstats.com/europa2.htm - ch" xr:uid="{A0EAABEB-E190-485F-B147-8F07FF3FD736}"/>
+    <hyperlink ref="D54" r:id="rId179" location="tr" display="https://www.internetworldstats.com/europa1.htm - tr" xr:uid="{C821B750-A704-4109-BEA3-A16931323D86}"/>
+    <hyperlink ref="D55" r:id="rId180" location="ua" display="https://www.internetworldstats.com/europa2.htm - ua" xr:uid="{48383F7F-5652-412C-B957-4AD3444519BE}"/>
+    <hyperlink ref="D56" r:id="rId181" location="uk" display="https://www.internetworldstats.com/europa2.htm - uk" xr:uid="{025253C4-6B9E-4A76-9C8B-D7329E4019D7}"/>
+    <hyperlink ref="D57" r:id="rId182" location="va" display="https://www.internetworldstats.com/europa2.htm - va" xr:uid="{1C01A439-4A6F-4D97-BA50-6E16D8ED8361}"/>
+    <hyperlink ref="D95" r:id="rId183" display="https://www.internetworldstats.com/middle.htm" xr:uid="{60B2C186-AF9D-4DEA-9B58-CEAC91435EF9}"/>
+    <hyperlink ref="D97" r:id="rId184" location="bh" display="https://www.internetworldstats.com/middle.htm - bh" xr:uid="{820FF52D-7BCB-4AF2-B181-D3DEBBB3E9C2}"/>
+    <hyperlink ref="D98" r:id="rId185" location="iq" display="https://www.internetworldstats.com/middle.htm - iq" xr:uid="{8AE15886-8773-42F8-A314-599F1569FD90}"/>
+    <hyperlink ref="D99" r:id="rId186" location="ir" display="https://www.internetworldstats.com/middle.htm - ir" xr:uid="{FF936BB4-2CDE-4FBA-BDA0-B1AD2B956999}"/>
+    <hyperlink ref="D100" r:id="rId187" location="il" display="https://www.internetworldstats.com/middle.htm - il" xr:uid="{694A39FA-F386-4076-B35F-44B93EA89AA0}"/>
+    <hyperlink ref="D101" r:id="rId188" location="jo" display="https://www.internetworldstats.com/middle.htm - jo" xr:uid="{251E5819-6569-4031-985F-6AF596CE9492}"/>
+    <hyperlink ref="D102" r:id="rId189" location="kw" display="https://www.internetworldstats.com/middle.htm - kw" xr:uid="{4571D135-D4A9-41DA-B146-2964433DD077}"/>
+    <hyperlink ref="D103" r:id="rId190" location="lb" display="https://www.internetworldstats.com/middle.htm - lb" xr:uid="{9F45FAAE-0125-449D-928B-8BA652E218DF}"/>
+    <hyperlink ref="D104" r:id="rId191" location="om" display="https://www.internetworldstats.com/middle.htm - om" xr:uid="{D3CE7777-4C29-4405-BEBA-26236A68D496}"/>
+    <hyperlink ref="D105" r:id="rId192" location="pl" display="https://www.internetworldstats.com/middle.htm - pl" xr:uid="{DC34E366-FC7A-45CF-8A6E-4A965DF33495}"/>
+    <hyperlink ref="D106" r:id="rId193" location="qa" display="https://www.internetworldstats.com/middle.htm - qa" xr:uid="{676D9174-09F3-473D-B546-346ABBC8201A}"/>
+    <hyperlink ref="D107" r:id="rId194" location="sa" display="https://www.internetworldstats.com/middle.htm - sa" xr:uid="{440E1530-E6A8-4AF4-9B15-3CD2255FAEBF}"/>
+    <hyperlink ref="D108" r:id="rId195" location="sy" display="https://www.internetworldstats.com/middle.htm - sy" xr:uid="{A7C23908-087F-4CD3-8BB1-07A084A7B1C2}"/>
+    <hyperlink ref="D109" r:id="rId196" location="ae" display="https://www.internetworldstats.com/middle.htm - ae" xr:uid="{7963DDBB-9E3E-4092-A1DF-7DBE25FF95BF}"/>
+    <hyperlink ref="D110" r:id="rId197" location="ye" display="https://www.internetworldstats.com/middle.htm - ye" xr:uid="{EADE240E-8F43-4991-A5C9-3F54FA83217A}"/>
+    <hyperlink ref="F95" r:id="rId198" display="https://www.internetworldstats.com/pacific.htm" xr:uid="{40A226CE-10EC-4ECC-AA04-E570EB95284F}"/>
+    <hyperlink ref="F97" r:id="rId199" location="au" display="https://www.internetworldstats.com/pacific.htm - au" xr:uid="{0EB4594E-6CA0-4766-BA8A-993AE3DE2ACA}"/>
+    <hyperlink ref="F98" r:id="rId200" location="fj" display="https://www.internetworldstats.com/pacific.htm - fj" xr:uid="{EF9ED20C-A368-4520-AB62-694EC1EA21C9}"/>
+    <hyperlink ref="F99" r:id="rId201" location="pf" display="https://www.internetworldstats.com/pacific.htm - pf" xr:uid="{2FAF19FB-5D47-45AA-9A29-32BC9E5252B3}"/>
+    <hyperlink ref="F100" r:id="rId202" location="gu" display="https://www.internetworldstats.com/pacific.htm - gu" xr:uid="{57D7CB23-2D86-4448-B087-DC8460567463}"/>
+    <hyperlink ref="F101" r:id="rId203" location="ki" display="https://www.internetworldstats.com/pacific.htm - ki" xr:uid="{A05ECBC3-54DC-4642-9FE7-C7AFF6174F33}"/>
+    <hyperlink ref="F102" r:id="rId204" location="mh" display="https://www.internetworldstats.com/pacific.htm - mh" xr:uid="{D5BDFD44-BFA3-4AD4-9545-6D28DBD02464}"/>
+    <hyperlink ref="F103" r:id="rId205" location="fm" display="https://www.internetworldstats.com/pacific.htm - fm" xr:uid="{E6D2FB9F-E720-4901-B163-4D35B9D92654}"/>
+    <hyperlink ref="F104" r:id="rId206" location="nc" display="https://www.internetworldstats.com/pacific.htm - nc" xr:uid="{CAE7B95F-93B2-471C-A9FB-73CF34604F63}"/>
+    <hyperlink ref="F105" r:id="rId207" location="nz" display="https://www.internetworldstats.com/pacific.htm - nz" xr:uid="{6420D844-9C54-4750-8771-BFE231282F5A}"/>
+    <hyperlink ref="F106" r:id="rId208" location="pg" display="https://www.internetworldstats.com/pacific.htm - pg" xr:uid="{74986C2A-2062-4922-A904-5064607613AC}"/>
+    <hyperlink ref="F107" r:id="rId209" location="ws" display="https://www.internetworldstats.com/pacific.htm - ws" xr:uid="{EA792B67-60AE-4DDA-BF13-10C4E8E46CF6}"/>
+    <hyperlink ref="F108" r:id="rId210" location="as" display="https://www.internetworldstats.com/pacific.htm - as" xr:uid="{ADF2C48F-D6C2-48EF-B9AC-4FCE237425D1}"/>
+    <hyperlink ref="F109" r:id="rId211" location="sb" display="https://www.internetworldstats.com/pacific.htm - sb" xr:uid="{A37E67D9-2BC6-42D7-B852-C14BB3B194D2}"/>
+    <hyperlink ref="F110" r:id="rId212" location="to" display="https://www.internetworldstats.com/pacific.htm - to" xr:uid="{B66CE532-DF28-4A6E-A6DC-9621258BC782}"/>
+    <hyperlink ref="F111" r:id="rId213" location="vu" display="https://www.internetworldstats.com/pacific.htm - vu" xr:uid="{54EF0259-1F8C-41E4-B6AA-85BA49E614CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId214"/>
@@ -2853,32 +2685,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A708DA21-2664-4892-9429-79ED4C6C115B}">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206:XFD223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
-    <col min="2" max="2" width="12.140625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="15"/>
-    <col min="4" max="4" width="48.28515625" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="12.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="12"/>
+    <col min="4" max="4" width="48.28515625" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" s="33" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A1" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="33" t="s">
         <v>266</v>
       </c>
     </row>
@@ -2906,216 +2738,216 @@
       <c r="C4" s="17">
         <v>0</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="19" customFormat="1" ht="15.75">
-      <c r="A5" s="19">
-        <v>2000</v>
-      </c>
-      <c r="B5" s="19">
+      <c r="D4" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="13" customFormat="1">
+      <c r="A5" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B5" s="13">
         <v>1004</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="19" customFormat="1" ht="15.75">
-      <c r="A6" s="19">
-        <v>2000</v>
-      </c>
-      <c r="B6" s="19">
+    <row r="6" spans="1:4" s="13" customFormat="1">
+      <c r="A6" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B6" s="13">
         <v>1004</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="19" customFormat="1" ht="15.75">
-      <c r="A7" s="19">
-        <v>2000</v>
-      </c>
-      <c r="B7" s="19">
+    <row r="7" spans="1:4" s="13" customFormat="1">
+      <c r="A7" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B7" s="13">
         <v>1004</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="19" customFormat="1" ht="15.75">
-      <c r="A8" s="19">
-        <v>2000</v>
-      </c>
-      <c r="B8" s="19">
+    <row r="8" spans="1:4" s="13" customFormat="1">
+      <c r="A8" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B8" s="13">
         <v>1004</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="19" customFormat="1" ht="15.75">
-      <c r="A9" s="19">
-        <v>2000</v>
-      </c>
-      <c r="B9" s="19">
+    <row r="9" spans="1:4" s="13" customFormat="1">
+      <c r="A9" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B9" s="13">
         <v>1004</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="19" customFormat="1" ht="15.75">
-      <c r="A10" s="19">
-        <v>2000</v>
-      </c>
-      <c r="B10" s="19">
+    <row r="10" spans="1:4" s="13" customFormat="1">
+      <c r="A10" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B10" s="13">
         <v>1004</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="19" customFormat="1" ht="15.75">
-      <c r="A11" s="19">
-        <v>2000</v>
-      </c>
-      <c r="B11" s="19">
+    <row r="11" spans="1:4" s="13" customFormat="1">
+      <c r="A11" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="13">
         <v>1004</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="19" customFormat="1" ht="15.75">
-      <c r="A12" s="19">
-        <v>2000</v>
-      </c>
-      <c r="B12" s="19">
+    <row r="12" spans="1:4" s="13" customFormat="1">
+      <c r="A12" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="13">
         <v>1004</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="19" customFormat="1" ht="15.75">
-      <c r="A13" s="19">
-        <v>2000</v>
-      </c>
-      <c r="B13" s="19">
+    <row r="13" spans="1:4" s="13" customFormat="1">
+      <c r="A13" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="13">
         <v>1004</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="19" customFormat="1" ht="15.75">
-      <c r="A14" s="19">
-        <v>2000</v>
-      </c>
-      <c r="B14" s="19">
+    <row r="14" spans="1:4" s="13" customFormat="1">
+      <c r="A14" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B14" s="13">
         <v>1004</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="19" customFormat="1" ht="15.75">
-      <c r="A15" s="19">
-        <v>2000</v>
-      </c>
-      <c r="B15" s="19">
+    <row r="15" spans="1:4" s="13" customFormat="1">
+      <c r="A15" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B15" s="13">
         <v>1004</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="19" customFormat="1" ht="15.75">
-      <c r="A16" s="19">
-        <v>2000</v>
-      </c>
-      <c r="B16" s="19">
+    <row r="16" spans="1:4" s="13" customFormat="1">
+      <c r="A16" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B16" s="13">
         <v>1004</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="19" customFormat="1" ht="15.75">
-      <c r="A17" s="19">
-        <v>2000</v>
-      </c>
-      <c r="B17" s="19">
+    <row r="17" spans="1:4" s="13" customFormat="1">
+      <c r="A17" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B17" s="13">
         <v>1004</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="19" customFormat="1" ht="15.75">
-      <c r="A18" s="19">
-        <v>2000</v>
-      </c>
-      <c r="B18" s="19">
+    <row r="18" spans="1:4" s="13" customFormat="1">
+      <c r="A18" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B18" s="13">
         <v>1004</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="19" customFormat="1" ht="15.75">
-      <c r="A19" s="19">
-        <v>2000</v>
-      </c>
-      <c r="B19" s="19">
+    <row r="19" spans="1:4" s="13" customFormat="1">
+      <c r="A19" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B19" s="13">
         <v>1004</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="19" customFormat="1" ht="15.75">
-      <c r="A20" s="19">
-        <v>2000</v>
-      </c>
-      <c r="B20" s="19">
+    <row r="20" spans="1:4" s="13" customFormat="1">
+      <c r="A20" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B20" s="13">
         <v>1004</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="19" customFormat="1" ht="15.75">
-      <c r="A21" s="19">
-        <v>2000</v>
-      </c>
-      <c r="B21" s="19">
+    <row r="21" spans="1:4" s="13" customFormat="1">
+      <c r="A21" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B21" s="13">
         <v>1004</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="19" customFormat="1" ht="15.75">
-      <c r="A22" s="19">
-        <v>2000</v>
-      </c>
-      <c r="B22" s="19">
+    <row r="22" spans="1:4" s="13" customFormat="1">
+      <c r="A22" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B22" s="13">
         <v>1004</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="19" customFormat="1" ht="15.75">
-      <c r="A23" s="19">
-        <v>2000</v>
-      </c>
-      <c r="B23" s="19">
+    <row r="23" spans="1:4" s="13" customFormat="1">
+      <c r="A23" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B23" s="13">
         <v>1004</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3129,398 +2961,2107 @@
       <c r="C24" s="17">
         <v>0</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="19" customFormat="1">
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26" spans="1:4" s="19" customFormat="1">
-      <c r="D26" s="20"/>
-    </row>
-    <row r="27" spans="1:4" s="19" customFormat="1">
-      <c r="D27" s="20"/>
-    </row>
-    <row r="28" spans="1:4" s="19" customFormat="1">
-      <c r="D28" s="20"/>
-    </row>
-    <row r="29" spans="1:4" s="19" customFormat="1">
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30" spans="1:4" s="19" customFormat="1">
-      <c r="D30" s="20"/>
-    </row>
-    <row r="31" spans="1:4" s="19" customFormat="1">
-      <c r="D31" s="20"/>
-    </row>
-    <row r="32" spans="1:4" s="19" customFormat="1">
-      <c r="D32" s="20"/>
-    </row>
-    <row r="33" spans="1:4" s="19" customFormat="1">
-      <c r="D33" s="20"/>
-    </row>
-    <row r="34" spans="1:4" s="19" customFormat="1">
-      <c r="D34" s="20"/>
-    </row>
-    <row r="35" spans="1:4" s="19" customFormat="1">
-      <c r="D35" s="20"/>
-    </row>
-    <row r="36" spans="1:4" s="19" customFormat="1">
-      <c r="D36" s="20"/>
-    </row>
-    <row r="37" spans="1:4" s="19" customFormat="1">
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" spans="1:4" s="19" customFormat="1">
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="1:4" s="19" customFormat="1">
-      <c r="D39" s="20"/>
-    </row>
-    <row r="40" spans="1:4" s="19" customFormat="1">
-      <c r="D40" s="20"/>
-    </row>
-    <row r="41" spans="1:4" s="19" customFormat="1">
-      <c r="D41" s="20"/>
-    </row>
-    <row r="42" spans="1:4" s="19" customFormat="1">
-      <c r="D42" s="20"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="D43" s="21"/>
-    </row>
-    <row r="44" spans="1:4" s="17" customFormat="1">
-      <c r="A44" s="17">
-        <v>2000</v>
-      </c>
-      <c r="B44" s="17">
+    <row r="25" spans="1:4" s="13" customFormat="1">
+      <c r="A25" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B25" s="13">
+        <v>1009</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="13" customFormat="1">
+      <c r="A26" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B26" s="13">
+        <v>1009</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="13" customFormat="1">
+      <c r="A27" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B27" s="13">
+        <v>1009</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="13" customFormat="1">
+      <c r="A28" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B28" s="13">
+        <v>1009</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="13" customFormat="1">
+      <c r="A29" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B29" s="13">
+        <v>1009</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="13" customFormat="1">
+      <c r="A30" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B30" s="13">
+        <v>1009</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="13" customFormat="1">
+      <c r="A31" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B31" s="13">
+        <v>1009</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="13" customFormat="1">
+      <c r="A32" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B32" s="13">
+        <v>1009</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="13" customFormat="1">
+      <c r="A33" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B33" s="13">
+        <v>1009</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="17" customFormat="1">
+      <c r="A34" s="17">
+        <v>2000</v>
+      </c>
+      <c r="B34" s="17">
         <v>1011</v>
       </c>
-      <c r="C44" s="17">
-        <v>0</v>
-      </c>
-      <c r="D44" s="18" t="s">
+      <c r="C34" s="17">
+        <v>0</v>
+      </c>
+      <c r="D34" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="17" customFormat="1">
-      <c r="A45" s="17">
-        <v>2000</v>
-      </c>
-      <c r="B45" s="17">
+    <row r="35" spans="1:4" s="13" customFormat="1">
+      <c r="A35" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1011</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="13" customFormat="1">
+      <c r="A36" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1011</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="13" customFormat="1">
+      <c r="A37" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1011</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="13" customFormat="1">
+      <c r="A38" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B38" s="13">
+        <v>1011</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="13" customFormat="1">
+      <c r="A39" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B39" s="13">
+        <v>1011</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="13" customFormat="1">
+      <c r="A40" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B40" s="13">
+        <v>1011</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="13" customFormat="1">
+      <c r="A41" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B41" s="13">
+        <v>1011</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="13" customFormat="1">
+      <c r="A42" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B42" s="13">
+        <v>1011</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="17" customFormat="1">
+      <c r="A43" s="17">
+        <v>2000</v>
+      </c>
+      <c r="B43" s="17">
         <v>1016</v>
       </c>
-      <c r="C45" s="17">
-        <v>0</v>
-      </c>
-      <c r="D45" s="18" t="s">
+      <c r="C43" s="17">
+        <v>0</v>
+      </c>
+      <c r="D43" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="17" customFormat="1">
-      <c r="A46" s="17">
-        <v>2000</v>
-      </c>
-      <c r="B46" s="17">
+    <row r="44" spans="1:4" s="13" customFormat="1">
+      <c r="A44" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1016</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="13" customFormat="1">
+      <c r="A45" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B45" s="13">
+        <v>1016</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="13" customFormat="1">
+      <c r="A46" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B46" s="13">
+        <v>1016</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="13" customFormat="1">
+      <c r="A47" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B47" s="13">
+        <v>1016</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="13" customFormat="1">
+      <c r="A48" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B48" s="13">
+        <v>1016</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="17" customFormat="1">
+      <c r="A49" s="17">
+        <v>2000</v>
+      </c>
+      <c r="B49" s="17">
         <v>1019</v>
       </c>
-      <c r="C46" s="17">
-        <v>0</v>
-      </c>
-      <c r="D46" s="18" t="s">
+      <c r="C49" s="17">
+        <v>0</v>
+      </c>
+      <c r="D49" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="15">
+    <row r="50" spans="1:4" s="13" customFormat="1">
+      <c r="A50" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B50" s="13">
+        <v>1019</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="13" customFormat="1">
+      <c r="A51" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B51" s="13">
+        <v>1019</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="13" customFormat="1">
+      <c r="A52" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B52" s="13">
+        <v>1019</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="13" customFormat="1">
+      <c r="A53" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1019</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="13" customFormat="1">
+      <c r="A54" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1019</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="13" customFormat="1">
+      <c r="A55" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1019</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="13" customFormat="1">
+      <c r="A56" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1019</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="13" customFormat="1">
+      <c r="A57" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B57" s="13">
+        <v>1019</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="13" customFormat="1">
+      <c r="A58" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B58" s="13">
+        <v>1019</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="13" customFormat="1">
+      <c r="A59" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B59" s="13">
+        <v>1019</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="13" customFormat="1">
+      <c r="A60" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B60" s="13">
+        <v>1019</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="13" customFormat="1">
+      <c r="A61" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B61" s="13">
+        <v>1019</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="13" customFormat="1">
+      <c r="A62" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B62" s="13">
+        <v>1019</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="13" customFormat="1">
+      <c r="A63" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B63" s="13">
+        <v>1019</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="13" customFormat="1">
+      <c r="A64" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B64" s="13">
+        <v>1019</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="13" customFormat="1">
+      <c r="A65" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B65" s="13">
+        <v>1019</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="13" customFormat="1">
+      <c r="A66" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B66" s="13">
+        <v>1019</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="15" customFormat="1">
+      <c r="A67" s="15">
         <v>2001</v>
       </c>
-      <c r="B48" s="15">
-        <v>0</v>
-      </c>
-      <c r="C48" s="15">
-        <v>0</v>
-      </c>
-      <c r="D48" s="15" t="s">
+      <c r="B67" s="15">
+        <v>0</v>
+      </c>
+      <c r="C67" s="15">
+        <v>0</v>
+      </c>
+      <c r="D67" s="15" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="15">
+    <row r="68" spans="1:4" s="18" customFormat="1">
+      <c r="A68" s="18">
         <v>2001</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B68" s="18">
         <v>1003</v>
       </c>
-      <c r="C49" s="15">
-        <v>0</v>
-      </c>
-      <c r="D49" s="21" t="s">
+      <c r="C68" s="18">
+        <v>0</v>
+      </c>
+      <c r="D68" s="23" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="15">
+    <row r="69" spans="1:4" s="13" customFormat="1">
+      <c r="A69" s="13">
         <v>2001</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B69" s="13">
+        <v>1003</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="13" customFormat="1">
+      <c r="A70" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B70" s="13">
+        <v>1003</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="13" customFormat="1">
+      <c r="A71" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B71" s="13">
+        <v>1003</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="13" customFormat="1">
+      <c r="A72" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B72" s="13">
+        <v>1003</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="13" customFormat="1">
+      <c r="A73" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B73" s="13">
+        <v>1003</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="13" customFormat="1">
+      <c r="A74" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B74" s="13">
+        <v>1003</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="13" customFormat="1">
+      <c r="A75" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B75" s="13">
+        <v>1003</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="13" customFormat="1">
+      <c r="A76" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B76" s="13">
+        <v>1003</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="13" customFormat="1">
+      <c r="A77" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B77" s="13">
+        <v>1003</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="13" customFormat="1">
+      <c r="A78" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B78" s="13">
+        <v>1003</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="13" customFormat="1">
+      <c r="A79" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B79" s="13">
+        <v>1003</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="13" customFormat="1">
+      <c r="A80" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B80" s="13">
+        <v>1003</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="13" customFormat="1">
+      <c r="A81" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B81" s="13">
+        <v>1003</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B82" s="13">
+        <v>1003</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="18" customFormat="1">
+      <c r="A83" s="18">
+        <v>2001</v>
+      </c>
+      <c r="B83" s="18">
         <v>1005</v>
       </c>
-      <c r="C50" s="15">
-        <v>0</v>
-      </c>
-      <c r="D50" s="21" t="s">
+      <c r="C83" s="18">
+        <v>0</v>
+      </c>
+      <c r="D83" s="23" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="15">
+    <row r="84" spans="1:4" s="13" customFormat="1">
+      <c r="A84" s="13">
         <v>2001</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B84" s="13">
+        <v>1005</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="13" customFormat="1">
+      <c r="A85" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B85" s="13">
+        <v>1005</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="13" customFormat="1">
+      <c r="A86" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B86" s="13">
+        <v>1005</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="13" customFormat="1">
+      <c r="A87" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B87" s="13">
+        <v>1005</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="13" customFormat="1">
+      <c r="A88" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B88" s="13">
+        <v>1005</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="13" customFormat="1">
+      <c r="A89" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B89" s="13">
+        <v>1005</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="13" customFormat="1">
+      <c r="A90" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B90" s="13">
+        <v>1005</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="13" customFormat="1">
+      <c r="A91" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B91" s="13">
+        <v>1005</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="18" customFormat="1">
+      <c r="A92" s="18">
+        <v>2001</v>
+      </c>
+      <c r="B92" s="18">
         <v>1015</v>
       </c>
-      <c r="C51" s="15">
-        <v>0</v>
-      </c>
-      <c r="D51" s="21" t="s">
+      <c r="C92" s="18">
+        <v>0</v>
+      </c>
+      <c r="D92" s="23" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="15">
+    <row r="93" spans="1:4" s="13" customFormat="1">
+      <c r="A93" s="13">
         <v>2001</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B93" s="13">
+        <v>1015</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="13" customFormat="1">
+      <c r="A94" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B94" s="13">
+        <v>1015</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="13" customFormat="1">
+      <c r="A95" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B95" s="13">
+        <v>1015</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="13" customFormat="1">
+      <c r="A96" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B96" s="13">
+        <v>1015</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="13" customFormat="1">
+      <c r="A97" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B97" s="13">
+        <v>1015</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="13" customFormat="1">
+      <c r="A98" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B98" s="13">
+        <v>1015</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="13" customFormat="1">
+      <c r="A99" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B99" s="13">
+        <v>1015</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" s="13" customFormat="1">
+      <c r="A100" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B100" s="13">
+        <v>1015</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="13" customFormat="1">
+      <c r="A101" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B101" s="13">
+        <v>1015</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="13" customFormat="1">
+      <c r="A102" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B102" s="13">
+        <v>1015</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="13" customFormat="1">
+      <c r="A103" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B103" s="13">
+        <v>1015</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" s="18" customFormat="1">
+      <c r="A104" s="18">
+        <v>2001</v>
+      </c>
+      <c r="B104" s="18">
         <v>1017</v>
       </c>
-      <c r="C52" s="15">
-        <v>0</v>
-      </c>
-      <c r="D52" s="21" t="s">
+      <c r="C104" s="18">
+        <v>0</v>
+      </c>
+      <c r="D104" s="23" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="15">
+    <row r="105" spans="1:4" s="13" customFormat="1">
+      <c r="A105" s="13">
         <v>2001</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B105" s="13">
+        <v>1017</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" s="13" customFormat="1">
+      <c r="A106" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B106" s="13">
+        <v>1017</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" s="13" customFormat="1">
+      <c r="A107" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B107" s="13">
+        <v>1017</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="13" customFormat="1">
+      <c r="A108" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B108" s="13">
+        <v>1017</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="13" customFormat="1">
+      <c r="A109" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B109" s="13">
+        <v>1017</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" s="18" customFormat="1">
+      <c r="A110" s="18">
+        <v>2001</v>
+      </c>
+      <c r="B110" s="18">
         <v>1020</v>
       </c>
-      <c r="C53" s="15">
-        <v>0</v>
-      </c>
-      <c r="D53" s="21" t="s">
+      <c r="C110" s="18">
+        <v>0</v>
+      </c>
+      <c r="D110" s="23" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="15">
+    <row r="112" spans="1:4" s="19" customFormat="1">
+      <c r="A112" s="19">
         <v>2002</v>
       </c>
-      <c r="B55" s="15">
-        <v>0</v>
-      </c>
-      <c r="C55" s="15">
-        <v>0</v>
-      </c>
-      <c r="D55" s="15" t="s">
+      <c r="B112" s="19">
+        <v>0</v>
+      </c>
+      <c r="C112" s="19">
+        <v>0</v>
+      </c>
+      <c r="D112" s="19" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="15">
+    <row r="113" spans="1:4">
+      <c r="A113" s="12">
         <v>2002</v>
       </c>
-      <c r="B56" s="15">
+      <c r="B113" s="12">
+        <v>0</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B114" s="12">
+        <v>0</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B115" s="12">
+        <v>0</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B116" s="12">
+        <v>0</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B117" s="12">
+        <v>0</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B118" s="12">
+        <v>0</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B119" s="12">
+        <v>0</v>
+      </c>
+      <c r="D119" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B120" s="12">
+        <v>0</v>
+      </c>
+      <c r="D120" s="22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B121" s="12">
+        <v>0</v>
+      </c>
+      <c r="D121" s="22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B122" s="12">
+        <v>0</v>
+      </c>
+      <c r="D122" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B123" s="12">
+        <v>0</v>
+      </c>
+      <c r="D123" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B124" s="12">
+        <v>0</v>
+      </c>
+      <c r="D124" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B125" s="12">
+        <v>0</v>
+      </c>
+      <c r="D125" s="22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B126" s="12">
+        <v>0</v>
+      </c>
+      <c r="D126" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B127" s="12">
+        <v>0</v>
+      </c>
+      <c r="D127" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B128" s="12">
+        <v>0</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B129" s="12">
+        <v>0</v>
+      </c>
+      <c r="D129" s="22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B130" s="12">
+        <v>0</v>
+      </c>
+      <c r="D130" s="22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B131" s="12">
+        <v>0</v>
+      </c>
+      <c r="D131" s="22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B132" s="12">
+        <v>0</v>
+      </c>
+      <c r="D132" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B133" s="12">
+        <v>0</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B134" s="12">
+        <v>0</v>
+      </c>
+      <c r="D134" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B135" s="12">
+        <v>0</v>
+      </c>
+      <c r="D135" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B136" s="12">
+        <v>0</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B137" s="12">
+        <v>0</v>
+      </c>
+      <c r="D137" s="22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B138" s="12">
+        <v>0</v>
+      </c>
+      <c r="D138" s="22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B139" s="12">
+        <v>0</v>
+      </c>
+      <c r="D139" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B140" s="12">
+        <v>0</v>
+      </c>
+      <c r="D140" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" s="20" customFormat="1">
+      <c r="A141" s="20">
+        <v>2002</v>
+      </c>
+      <c r="B141" s="20">
         <v>1006</v>
       </c>
-      <c r="C56" s="15">
-        <v>0</v>
-      </c>
-      <c r="D56" s="21" t="s">
+      <c r="C141" s="20">
+        <v>0</v>
+      </c>
+      <c r="D141" s="24" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="15">
+    <row r="142" spans="1:4" s="20" customFormat="1">
+      <c r="A142" s="20">
         <v>2002</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B142" s="20">
         <v>1012</v>
       </c>
-      <c r="C57" s="15">
-        <v>0</v>
-      </c>
-      <c r="D57" s="21" t="s">
+      <c r="C142" s="20">
+        <v>0</v>
+      </c>
+      <c r="D142" s="24" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="15">
+    <row r="143" spans="1:4" s="20" customFormat="1">
+      <c r="A143" s="20">
         <v>2002</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B143" s="20">
         <v>1018</v>
       </c>
-      <c r="C58" s="15">
-        <v>0</v>
-      </c>
-      <c r="D58" s="21" t="s">
+      <c r="C143" s="20">
+        <v>0</v>
+      </c>
+      <c r="D143" s="24" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="15">
+    <row r="144" spans="1:4" s="20" customFormat="1">
+      <c r="A144" s="20">
         <v>2002</v>
       </c>
-      <c r="B59" s="15">
+      <c r="B144" s="20">
         <v>1021</v>
       </c>
-      <c r="C59" s="15">
-        <v>0</v>
-      </c>
-      <c r="D59" s="21" t="s">
+      <c r="C144" s="20">
+        <v>0</v>
+      </c>
+      <c r="D144" s="24" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="15">
-        <v>2003</v>
-      </c>
-      <c r="B61" s="15">
-        <v>0</v>
-      </c>
-      <c r="C61" s="15">
-        <v>0</v>
-      </c>
-      <c r="D61" s="21" t="s">
+    <row r="146" spans="1:4" s="29" customFormat="1">
+      <c r="A146" s="29">
+        <v>2003</v>
+      </c>
+      <c r="B146" s="29">
+        <v>0</v>
+      </c>
+      <c r="C146" s="29">
+        <v>0</v>
+      </c>
+      <c r="D146" s="30" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="15">
-        <v>2003</v>
-      </c>
-      <c r="B62" s="15">
+    <row r="147" spans="1:4" s="31" customFormat="1">
+      <c r="A147" s="31">
+        <v>2003</v>
+      </c>
+      <c r="B147" s="31">
         <v>1001</v>
       </c>
-      <c r="C62" s="15">
-        <v>0</v>
-      </c>
-      <c r="D62" s="21" t="s">
+      <c r="C147" s="31">
+        <v>0</v>
+      </c>
+      <c r="D147" s="32" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="15">
-        <v>2003</v>
-      </c>
-      <c r="B63" s="15">
+    <row r="148" spans="1:4">
+      <c r="A148" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B148" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D148" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B149" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D149" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B150" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D150" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B151" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D151" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B152" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D152" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B153" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D153" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B154" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D154" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B155" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D155" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B156" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D156" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B157" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D157" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B158" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D158" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B159" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D159" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B160" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D160" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B161" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D161" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B162" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D162" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B163" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D163" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B164" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D164" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B165" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D165" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B166" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D166" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B167" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D167" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B168" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D168" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B169" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D169" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B170" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D170" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B171" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D171" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B172" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D172" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B173" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D173" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B174" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D174" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B175" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D175" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" s="31" customFormat="1">
+      <c r="A176" s="31">
+        <v>2003</v>
+      </c>
+      <c r="B176" s="31">
         <v>1002</v>
       </c>
-      <c r="C63" s="15">
-        <v>0</v>
-      </c>
-      <c r="D63" s="21" t="s">
+      <c r="C176" s="31">
+        <v>0</v>
+      </c>
+      <c r="D176" s="32" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="15">
-        <v>2003</v>
-      </c>
-      <c r="B64" s="15">
+    <row r="177" spans="1:4">
+      <c r="A177" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B177" s="12">
+        <v>1002</v>
+      </c>
+      <c r="D177" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B178" s="12">
+        <v>1002</v>
+      </c>
+      <c r="D178" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B179" s="12">
+        <v>1002</v>
+      </c>
+      <c r="D179" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B180" s="12">
+        <v>1002</v>
+      </c>
+      <c r="D180" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B181" s="12">
+        <v>1002</v>
+      </c>
+      <c r="D181" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B182" s="12">
+        <v>1002</v>
+      </c>
+      <c r="D182" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B183" s="12">
+        <v>1002</v>
+      </c>
+      <c r="D183" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B184" s="12">
+        <v>1002</v>
+      </c>
+      <c r="D184" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" s="31" customFormat="1">
+      <c r="A185" s="31">
+        <v>2003</v>
+      </c>
+      <c r="B185" s="31">
         <v>1014</v>
       </c>
-      <c r="C64" s="15">
-        <v>0</v>
-      </c>
-      <c r="D64" s="21" t="s">
+      <c r="C185" s="31">
+        <v>0</v>
+      </c>
+      <c r="D185" s="32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="15">
+    <row r="186" spans="1:4">
+      <c r="A186" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B186" s="12">
+        <v>1014</v>
+      </c>
+      <c r="D186" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B187" s="12">
+        <v>1014</v>
+      </c>
+      <c r="D187" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B188" s="12">
+        <v>1014</v>
+      </c>
+      <c r="D188" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B189" s="12">
+        <v>1014</v>
+      </c>
+      <c r="D189" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B190" s="12">
+        <v>1014</v>
+      </c>
+      <c r="D190" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B191" s="12">
+        <v>1014</v>
+      </c>
+      <c r="D191" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B192" s="12">
+        <v>1014</v>
+      </c>
+      <c r="D192" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B193" s="12">
+        <v>1014</v>
+      </c>
+      <c r="D193" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B194" s="12">
+        <v>1014</v>
+      </c>
+      <c r="D194" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B195" s="12">
+        <v>1014</v>
+      </c>
+      <c r="D195" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B196" s="12">
+        <v>1014</v>
+      </c>
+      <c r="D196" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B197" s="12">
+        <v>1014</v>
+      </c>
+      <c r="D197" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B198" s="12">
+        <v>1014</v>
+      </c>
+      <c r="D198" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B199" s="12">
+        <v>1014</v>
+      </c>
+      <c r="D199" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" s="15" customFormat="1">
+      <c r="A200" s="15">
         <v>2004</v>
       </c>
-      <c r="B66" s="15">
-        <v>0</v>
-      </c>
-      <c r="C66" s="15">
-        <v>0</v>
-      </c>
-      <c r="D66" s="21" t="s">
+      <c r="B200" s="15">
+        <v>0</v>
+      </c>
+      <c r="C200" s="15">
+        <v>0</v>
+      </c>
+      <c r="D200" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="H66" s="21"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="H67" s="21"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="15">
+      <c r="H200" s="34"/>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="12">
+        <v>2004</v>
+      </c>
+      <c r="B201" s="12">
+        <v>0</v>
+      </c>
+      <c r="D201" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="12">
+        <v>2004</v>
+      </c>
+      <c r="B202" s="12">
+        <v>0</v>
+      </c>
+      <c r="D202" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="12">
+        <v>2004</v>
+      </c>
+      <c r="B203" s="12">
+        <v>0</v>
+      </c>
+      <c r="D203" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="12">
+        <v>2004</v>
+      </c>
+      <c r="B204" s="12">
+        <v>0</v>
+      </c>
+      <c r="D204" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="12">
+        <v>2004</v>
+      </c>
+      <c r="B205" s="12">
+        <v>0</v>
+      </c>
+      <c r="D205" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="H206" s="25"/>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="H216" s="25"/>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="H223" s="25"/>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="12">
         <v>2005</v>
       </c>
-      <c r="B68" s="15">
-        <v>0</v>
-      </c>
-      <c r="C68" s="15">
-        <v>0</v>
-      </c>
-      <c r="D68" s="21" t="s">
+      <c r="B224" s="12">
+        <v>0</v>
+      </c>
+      <c r="C224" s="12">
+        <v>0</v>
+      </c>
+      <c r="D224" s="25" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="15">
+    <row r="225" spans="1:8">
+      <c r="A225" s="12">
         <v>2005</v>
       </c>
-      <c r="B69" s="15">
+      <c r="B225" s="12">
         <v>1000</v>
       </c>
-      <c r="C69" s="15">
-        <v>0</v>
-      </c>
-      <c r="D69" s="22" t="s">
+      <c r="C225" s="12">
+        <v>0</v>
+      </c>
+      <c r="D225" s="26" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="15">
+    <row r="226" spans="1:8">
+      <c r="A226" s="12">
         <v>2005</v>
       </c>
-      <c r="B70" s="15">
+      <c r="B226" s="12">
         <v>1007</v>
       </c>
-      <c r="C70" s="15">
-        <v>0</v>
-      </c>
-      <c r="D70" s="21" t="s">
+      <c r="C226" s="12">
+        <v>0</v>
+      </c>
+      <c r="D226" s="25" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
-      <c r="H71" s="21"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="15">
+    <row r="227" spans="1:8">
+      <c r="H227" s="25"/>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="12">
         <v>5001</v>
       </c>
-      <c r="B72" s="15">
-        <v>0</v>
-      </c>
-      <c r="C72" s="15">
-        <v>0</v>
-      </c>
-      <c r="D72" s="15" t="s">
+      <c r="B228" s="12">
+        <v>0</v>
+      </c>
+      <c r="C228" s="12">
+        <v>0</v>
+      </c>
+      <c r="D228" s="12" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="H73" s="21"/>
+    <row r="229" spans="1:8">
+      <c r="H229" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3543,7 +5084,165 @@
     <hyperlink ref="D21" r:id="rId17" location="ug" display="https://www.internetworldstats.com/africa.htm - ug" xr:uid="{D0D8C1AB-4A74-49A7-BC76-CED3F0A01BF9}"/>
     <hyperlink ref="D22" r:id="rId18" location="zm" display="https://www.internetworldstats.com/africa.htm - zm" xr:uid="{D34A1292-2E16-4302-9146-5E281BA66B85}"/>
     <hyperlink ref="D23" r:id="rId19" location="zw" display="https://www.internetworldstats.com/africa.htm - zw" xr:uid="{134D1064-69B5-4819-9E78-1638DA302071}"/>
+    <hyperlink ref="D25" r:id="rId20" location="ao" display="https://www.internetworldstats.com/africa.htm - ao" xr:uid="{9BC0D912-9E13-4593-BD47-4245AB96C5A5}"/>
+    <hyperlink ref="D26" r:id="rId21" location="cm" display="https://www.internetworldstats.com/africa.htm - cm" xr:uid="{6B0D633B-963E-457C-B9CA-28F02CA1C978}"/>
+    <hyperlink ref="D27" r:id="rId22" location="cf" display="https://www.internetworldstats.com/africa.htm - cf" xr:uid="{5A3D0697-FD6D-4300-95BE-D6F648112338}"/>
+    <hyperlink ref="D28" r:id="rId23" location="td" display="https://www.internetworldstats.com/africa.htm - td" xr:uid="{772F8D54-5B50-4754-B7B6-0A1CA3CBBBF7}"/>
+    <hyperlink ref="D29" r:id="rId24" location="cg" display="https://www.internetworldstats.com/africa.htm - cg" xr:uid="{02786CC7-BDF6-465C-B3FC-977E77D50571}"/>
+    <hyperlink ref="D30" r:id="rId25" location="cd" display="https://www.internetworldstats.com/africa.htm - cd" xr:uid="{102809E9-95C8-4B3B-BDF7-A38B67555263}"/>
+    <hyperlink ref="D31" r:id="rId26" location="gq" display="https://www.internetworldstats.com/africa.htm - gq" xr:uid="{C4A36EF1-CC1E-46D4-BFAF-EA9E04103A40}"/>
+    <hyperlink ref="D32" r:id="rId27" location="ga" display="https://www.internetworldstats.com/africa.htm - ga" xr:uid="{A9D5A751-1762-4FCD-8F86-F8FACA2BE59D}"/>
+    <hyperlink ref="D33" r:id="rId28" location="st" display="https://www.internetworldstats.com/africa.htm - st" xr:uid="{3BAC5E67-3E89-478E-BEF3-9400CF7DC44E}"/>
+    <hyperlink ref="D35" r:id="rId29" location="dz" display="https://www.internetworldstats.com/africa.htm - dz" xr:uid="{A70B1D97-FCC5-4E79-A8F1-2D24DC054510}"/>
+    <hyperlink ref="D36" r:id="rId30" location="eg" display="https://www.internetworldstats.com/africa.htm - eg" xr:uid="{E8A7E864-A9EE-4942-BAED-9681B1ECAAE7}"/>
+    <hyperlink ref="D37" r:id="rId31" location="ly" display="https://www.internetworldstats.com/africa.htm - ly" xr:uid="{DE73E9E8-220D-49C1-A4F2-FB3134E1437D}"/>
+    <hyperlink ref="D38" r:id="rId32" location="ma" display="https://www.internetworldstats.com/africa.htm - ma" xr:uid="{6269D5C6-6EFE-4F71-A7A9-4AB0614E2CD4}"/>
+    <hyperlink ref="D39" r:id="rId33" location="ss" display="https://www.internetworldstats.com/africa.htm - ss" xr:uid="{3725FE31-2A9F-4259-84CC-EF3D392EF08F}"/>
+    <hyperlink ref="D40" r:id="rId34" location="sd" display="https://www.internetworldstats.com/africa.htm - sd" xr:uid="{FB177883-174E-406B-AB18-D7428902D0B1}"/>
+    <hyperlink ref="D41" r:id="rId35" location="tn" display="https://www.internetworldstats.com/africa.htm - tn" xr:uid="{40E1F430-EC76-4FB8-B993-5F77E98837E0}"/>
+    <hyperlink ref="D42" r:id="rId36" location="st" display="https://www.internetworldstats.com/africa.htm - st" xr:uid="{6D04BBD0-B46A-4722-9CFD-28E8E476675D}"/>
+    <hyperlink ref="D44" r:id="rId37" location="bw" display="https://www.internetworldstats.com/africa.htm - bw" xr:uid="{2BFADFAE-7F2A-4FC8-BB90-EABE3562650C}"/>
+    <hyperlink ref="D45" r:id="rId38" location="sz" display="https://www.internetworldstats.com/africa.htm - sz" xr:uid="{062855F3-5264-4812-9301-ABE8D892BAEA}"/>
+    <hyperlink ref="D46" r:id="rId39" location="ls" display="https://www.internetworldstats.com/africa.htm - ls" xr:uid="{56975518-DFF5-46A5-81EF-1F63537F2781}"/>
+    <hyperlink ref="D47" r:id="rId40" location="na" display="https://www.internetworldstats.com/africa.htm - na" xr:uid="{DCEFE7E9-E7C0-445C-9E3E-E0631A643796}"/>
+    <hyperlink ref="D48" r:id="rId41" location="za" display="https://www.internetworldstats.com/africa.htm - za" xr:uid="{08A5E96B-BC24-442D-859C-DCB394C806B5}"/>
+    <hyperlink ref="D50" r:id="rId42" location="bj" display="https://www.internetworldstats.com/africa.htm - bj" xr:uid="{8FA0A128-73B2-4B0E-BFBF-EA93206E3D2B}"/>
+    <hyperlink ref="D51" r:id="rId43" location="bf" display="https://www.internetworldstats.com/africa.htm - bf" xr:uid="{02FD9E96-00DA-4910-82E9-C8A9397364DF}"/>
+    <hyperlink ref="D52" r:id="rId44" location="cv" display="https://www.internetworldstats.com/africa.htm - cv" xr:uid="{6FCEEE7E-C99A-4DA5-95AD-13B790C2CA09}"/>
+    <hyperlink ref="D53" r:id="rId45" location="ci" display="https://www.internetworldstats.com/africa.htm - ci" xr:uid="{237142D9-36A8-45AA-A389-12F22B491917}"/>
+    <hyperlink ref="D54" r:id="rId46" location="gm" display="gm" xr:uid="{A1EB8F09-CE86-4A60-B231-A011E59DBA14}"/>
+    <hyperlink ref="D55" r:id="rId47" location="gh" display="https://www.internetworldstats.com/africa.htm - gh" xr:uid="{269DD979-8278-428B-B373-3C208F9B902B}"/>
+    <hyperlink ref="D56" r:id="rId48" location="gn" display="https://www.internetworldstats.com/africa.htm - gn" xr:uid="{D89110EC-9018-41D7-95A3-A84BC90A1781}"/>
+    <hyperlink ref="D57" r:id="rId49" location="gw" display="https://www.internetworldstats.com/africa.htm - gw" xr:uid="{2687BDCA-03C6-4EBF-8837-708D2AAD2B5E}"/>
+    <hyperlink ref="D58" r:id="rId50" location="lr" display="https://www.internetworldstats.com/africa.htm - lr" xr:uid="{131F20C2-B623-48A9-A441-8D506F41A514}"/>
+    <hyperlink ref="D59" r:id="rId51" location="ml" display="https://www.internetworldstats.com/africa.htm - ml" xr:uid="{F8093828-1613-4BCB-820F-098245906199}"/>
+    <hyperlink ref="D60" r:id="rId52" location="mr" display="https://www.internetworldstats.com/africa.htm - mr" xr:uid="{2CE1608F-A94A-433F-BDDD-C526F2C9996F}"/>
+    <hyperlink ref="D61" r:id="rId53" location="ne" display="https://www.internetworldstats.com/africa.htm - ne" xr:uid="{50030839-F8C5-47E2-BABC-7485594FC60A}"/>
+    <hyperlink ref="D62" r:id="rId54" location="ng" display="https://www.internetworldstats.com/africa.htm - ng" xr:uid="{1D603AA4-60AC-4BD8-905B-4F6B9ECF4AC8}"/>
+    <hyperlink ref="D63" r:id="rId55" location="sh" display="https://www.internetworldstats.com/africa.htm - sh" xr:uid="{1A3E5F1F-4B03-4031-89B5-821749D7C7EC}"/>
+    <hyperlink ref="D64" r:id="rId56" location="sn" display="https://www.internetworldstats.com/africa.htm - sn" xr:uid="{46754A26-1A25-4838-8B46-3D0197B69F58}"/>
+    <hyperlink ref="D65" r:id="rId57" location="sl" display="https://www.internetworldstats.com/africa.htm - sl" xr:uid="{47ACA486-7FD7-4646-A0E7-FCC7ADFAFA51}"/>
+    <hyperlink ref="D66" r:id="rId58" location="tg" display="https://www.internetworldstats.com/africa.htm - tg" xr:uid="{FBD2E22C-4715-45CF-991C-80BEDF11D1D2}"/>
+    <hyperlink ref="D105" r:id="rId59" location="am" display="https://www.internetworldstats.com/asia.htm - am" xr:uid="{2A967096-86B0-434B-ACAF-F62C8BB9ADCF}"/>
+    <hyperlink ref="D106" r:id="rId60" location="az" display="https://www.internetworldstats.com/asia.htm - az" xr:uid="{284CEB4F-6C8A-4C16-BF13-90AB39DC894C}"/>
+    <hyperlink ref="D71" r:id="rId61" location="bt" display="https://www.internetworldstats.com/asia.htm - bt" xr:uid="{8B5D1018-CA0C-4CA4-ADAC-72E5A2A81E13}"/>
+    <hyperlink ref="D93" r:id="rId62" location="bn" display="https://www.internetworldstats.com/asia.htm - bn" xr:uid="{809A7A4D-089C-44BD-8002-9763025F4BE3}"/>
+    <hyperlink ref="D94" r:id="rId63" location="kh" display="https://www.internetworldstats.com/asia.htm - kh" xr:uid="{AF875255-3D9A-4C2C-A3D2-0247E75F00D4}"/>
+    <hyperlink ref="D84" r:id="rId64" location="cn" display="https://www.internetworldstats.com/asia.htm - cn" xr:uid="{6EE98F9D-F05F-49EE-8EEC-A898E9CF594A}"/>
+    <hyperlink ref="D109" r:id="rId65" location="ge" display="https://www.internetworldstats.com/asia.htm - ge" xr:uid="{71FEA844-8098-40A9-8BCA-48D840312E83}"/>
+    <hyperlink ref="D85" r:id="rId66" location="hk" display="https://www.internetworldstats.com/asia.htm - hk" xr:uid="{0715680B-B27B-40EC-8471-C047ED01336D}"/>
+    <hyperlink ref="D72" r:id="rId67" location="in" display="https://www.internetworldstats.com/asia.htm - in" xr:uid="{A579CD7D-D607-4DBA-82F8-6C1C4662060F}"/>
+    <hyperlink ref="D95" r:id="rId68" location="id" display="https://www.internetworldstats.com/asia.htm - id" xr:uid="{A58F3814-B39D-494D-AB99-5C18673BB845}"/>
+    <hyperlink ref="D86" r:id="rId69" location="jp" display="https://www.internetworldstats.com/asia.htm - jp" xr:uid="{93D434DE-C8D3-437A-B423-8D6B591C922B}"/>
+    <hyperlink ref="D74" r:id="rId70" location="kz" display="https://www.internetworldstats.com/asia.htm - kz" xr:uid="{712BF150-1CF6-442F-9584-ADA8DF9195E1}"/>
+    <hyperlink ref="D87" r:id="rId71" location="kp" display="https://www.internetworldstats.com/asia.htm - kp" xr:uid="{D8E947F8-4F35-48DA-B09A-B2FF7A6A5A26}"/>
+    <hyperlink ref="D88" r:id="rId72" location="kr" display="https://www.internetworldstats.com/asia.htm - kr" xr:uid="{89D830EA-DA1F-4BD5-99AF-E53AB61EDF36}"/>
+    <hyperlink ref="D75" r:id="rId73" location="kg" display="https://www.internetworldstats.com/asia.htm - kg" xr:uid="{F3E105AD-67FF-4490-986E-7E69A0B2D965}"/>
+    <hyperlink ref="D96" r:id="rId74" location="la" display="https://www.internetworldstats.com/asia.htm - la" xr:uid="{F59A2C3A-32B2-4F18-8C4E-A11CB8E9A67D}"/>
+    <hyperlink ref="D89" r:id="rId75" location="mo" display="https://www.internetworldstats.com/asia.htm - mo" xr:uid="{CE7974ED-5DB9-4EF8-A221-327F23DC8F5D}"/>
+    <hyperlink ref="D97" r:id="rId76" location="my" display="https://www.internetworldstats.com/asia.htm - my" xr:uid="{F84152EC-4AEB-413A-8A85-5A0CBE8C0B94}"/>
+    <hyperlink ref="D76" r:id="rId77" location="mv" display="https://www.internetworldstats.com/asia.htm - mv" xr:uid="{315084CA-008A-4A4B-9F4D-C37D2A7E316D}"/>
+    <hyperlink ref="D90" r:id="rId78" location="mn" display="https://www.internetworldstats.com/asia.htm - mn" xr:uid="{37312786-F844-488E-9EA8-EBED3ED98F13}"/>
+    <hyperlink ref="D98" r:id="rId79" location="mm" display="https://www.internetworldstats.com/asia.htm - mm" xr:uid="{90C89612-C114-4CDC-A091-1973B03A2604}"/>
+    <hyperlink ref="D77" r:id="rId80" location="np" display="https://www.internetworldstats.com/asia.htm - np" xr:uid="{C9BFAB25-F10F-4C97-9CD3-3C36A8498DE0}"/>
+    <hyperlink ref="D78" r:id="rId81" location="pk" display="https://www.internetworldstats.com/asia.htm - pk" xr:uid="{7926B499-D88F-4CEA-BB9B-A46F1CAE8FF3}"/>
+    <hyperlink ref="D99" r:id="rId82" location="ph" display="https://www.internetworldstats.com/asia.htm - ph" xr:uid="{67ED5A7C-2383-4D75-B8C0-92BD2226AEB9}"/>
+    <hyperlink ref="D100" r:id="rId83" location="sg" display="https://www.internetworldstats.com/asia.htm - sg" xr:uid="{6AD947CA-3615-480C-8AB8-B3A514FB3D7A}"/>
+    <hyperlink ref="D79" r:id="rId84" location="lk" display="https://www.internetworldstats.com/asia.htm - lk" xr:uid="{61C8D108-97CC-4481-805C-F02B94516A53}"/>
+    <hyperlink ref="D91" r:id="rId85" location="tw" display="https://www.internetworldstats.com/asia.htm - tw" xr:uid="{E4575809-B4EB-4A52-BC76-9562E3983433}"/>
+    <hyperlink ref="D80" r:id="rId86" location="tj" display="https://www.internetworldstats.com/asia.htm - tj" xr:uid="{67E096DC-E317-4165-9BD1-E4883315D68C}"/>
+    <hyperlink ref="D101" r:id="rId87" location="th" display="https://www.internetworldstats.com/asia.htm - th" xr:uid="{AC2C0906-1AEC-4FFE-8643-6029247152EB}"/>
+    <hyperlink ref="D102" r:id="rId88" location="tl" display="https://www.internetworldstats.com/asia.htm - tl" xr:uid="{C907BE3D-C1BE-49FD-A157-3A4573239ED6}"/>
+    <hyperlink ref="D81" r:id="rId89" location="tm" display="https://www.internetworldstats.com/asia.htm - tm" xr:uid="{BE25F285-A2AE-436E-A5BD-6DB78CA8C1A4}"/>
+    <hyperlink ref="D82" r:id="rId90" location="uz" display="https://www.internetworldstats.com/asia.htm - uz" xr:uid="{5FFCAF81-2B17-4BFF-B349-8408E7708EF3}"/>
+    <hyperlink ref="D103" r:id="rId91" location="vn" display="https://www.internetworldstats.com/asia.htm - vn" xr:uid="{506F4260-A585-4312-AB20-ACBA86F288AA}"/>
+    <hyperlink ref="D69" r:id="rId92" location="af" display="https://www.internetworldstats.com/asia.htm - af" xr:uid="{02B2F1AF-BD54-445F-B937-D3D9A5D37C7F}"/>
+    <hyperlink ref="D70" r:id="rId93" location="bd" display="https://www.internetworldstats.com/asia.htm - bd" xr:uid="{B6E346D1-36AF-4E50-99C8-409CF3A9EE05}"/>
+    <hyperlink ref="D113" r:id="rId94" location="al" display="https://www.internetworldstats.com/europa2.htm - al" xr:uid="{56607A9E-C370-48B9-8E08-D3E687322304}"/>
+    <hyperlink ref="D114" r:id="rId95" location="ad" display="https://www.internetworldstats.com/europa2.htm - ad" xr:uid="{87DF94BF-D6BE-4C40-A181-E82219AF25B4}"/>
+    <hyperlink ref="D115" r:id="rId96" location="by" display="https://www.internetworldstats.com/europa2.htm - by" xr:uid="{4A2AE9B4-9B9B-4F13-B5B5-6496CC9E4245}"/>
+    <hyperlink ref="D116" r:id="rId97" location="ba" display="https://www.internetworldstats.com/europa2.htm - ba" xr:uid="{6F80FAF1-D1C9-41D0-A8B6-FF598ED6D7BD}"/>
+    <hyperlink ref="D117" r:id="rId98" location="hr" display="https://www.internetworldstats.com/europa1.htm - hr" xr:uid="{52426356-2E63-4DD6-8E2A-F30A58F378AD}"/>
+    <hyperlink ref="D118" r:id="rId99" display="https://www.internetworldstats.com/europa.htm" xr:uid="{F997C197-3877-4AD9-A634-2809BAF30AC8}"/>
+    <hyperlink ref="D119" r:id="rId100" location="fo" display="https://www.internetworldstats.com/europa2.htm - fo" xr:uid="{A09BBD12-5FE3-4682-AEEA-80380CEF86D6}"/>
+    <hyperlink ref="D120" r:id="rId101" location="gi" display="https://www.internetworldstats.com/europa2.htm - gi" xr:uid="{49FE9A32-C82C-4A7C-803A-415744D94F34}"/>
+    <hyperlink ref="D121" r:id="rId102" location="gg" display="https://www.internetworldstats.com/europa2.htm - gg" xr:uid="{9F0E5633-6A17-42AE-91CA-93B27CAAE822}"/>
+    <hyperlink ref="D122" r:id="rId103" location="is" display="https://www.internetworldstats.com/europa2.htm - is" xr:uid="{5741B06C-B7B9-4F49-9288-C0FB05F3BD96}"/>
+    <hyperlink ref="D123" r:id="rId104" location="je" display="https://www.internetworldstats.com/europa2.htm - je" xr:uid="{1530C8C4-7D60-4127-BEE3-AB263884FFCB}"/>
+    <hyperlink ref="D124" r:id="rId105" location="kv" display="https://www.internetworldstats.com/europa2.htm - kv" xr:uid="{5D1C26AE-F3AD-4A28-86CE-994D63625633}"/>
+    <hyperlink ref="D125" r:id="rId106" location="li" display="https://www.internetworldstats.com/europa2.htm - li" xr:uid="{F24AE904-FE42-436A-9814-7F345E424E3A}"/>
+    <hyperlink ref="D126" r:id="rId107" display="https://www.internetworldstats.com/europa2.htm" xr:uid="{525279E4-B191-4B59-ACFF-03FD6BCDB689}"/>
+    <hyperlink ref="D127" r:id="rId108" location="md" display="https://www.internetworldstats.com/europa2.htm - md" xr:uid="{6648FD9A-BA3F-4BBD-ADA3-97F99CAD08BD}"/>
+    <hyperlink ref="D128" r:id="rId109" location="mc" display="https://www.internetworldstats.com/europa2.htm - mc" xr:uid="{DC797F93-0952-4D90-9FBA-2E643984B587}"/>
+    <hyperlink ref="D129" r:id="rId110" location="me" display="https://www.internetworldstats.com/europa2.htm - me" xr:uid="{2BA1A1E0-3008-43BF-80E3-50EA94C26D4F}"/>
+    <hyperlink ref="D130" r:id="rId111" location="mk" display="https://www.internetworldstats.com/europa2.htm - mk" xr:uid="{D53B03B1-4BA0-4AE8-B8B4-A3C58E870299}"/>
+    <hyperlink ref="D131" r:id="rId112" location="no" display="https://www.internetworldstats.com/europa2.htm - no" xr:uid="{36751F2A-2C22-46CA-AE2B-1AF5D4348CE6}"/>
+    <hyperlink ref="D132" r:id="rId113" location="ru" display="https://www.internetworldstats.com/europa2.htm - ru" xr:uid="{121C4DB9-0BF3-4F65-BB4C-8CA3039A6338}"/>
+    <hyperlink ref="D133" r:id="rId114" location="sm" display="https://www.internetworldstats.com/europa2.htm - sm" xr:uid="{05828714-52F5-4879-9718-7EFB957CAA1B}"/>
+    <hyperlink ref="D134" r:id="rId115" location="rs" display="https://www.internetworldstats.com/europa2.htm - rs" xr:uid="{42D00088-BBA3-4DCC-93DB-75D1B360BFAD}"/>
+    <hyperlink ref="D135" r:id="rId116" location="sj" display="https://www.internetworldstats.com/europa2.htm - sj" xr:uid="{A848A151-DF33-4A57-970E-3F06EA3CB02E}"/>
+    <hyperlink ref="D136" r:id="rId117" location="ch" display="https://www.internetworldstats.com/europa2.htm - ch" xr:uid="{0393FDA0-F48C-4E49-BC2F-0B54E868638F}"/>
+    <hyperlink ref="D137" r:id="rId118" location="tr" display="https://www.internetworldstats.com/europa1.htm - tr" xr:uid="{80642F44-1766-410B-966C-4F44B018DBFE}"/>
+    <hyperlink ref="D138" r:id="rId119" location="ua" display="https://www.internetworldstats.com/europa2.htm - ua" xr:uid="{ECC7050E-36A4-4A2C-B37D-AF8E1D6C5749}"/>
+    <hyperlink ref="D139" r:id="rId120" location="uk" display="https://www.internetworldstats.com/europa2.htm - uk" xr:uid="{8BD58DE6-157E-40EC-B1DB-A58F7B4D6F0B}"/>
+    <hyperlink ref="D140" r:id="rId121" location="va" display="https://www.internetworldstats.com/europa2.htm - va" xr:uid="{2D202EF9-BF43-486C-9E19-406BB277F0BD}"/>
+    <hyperlink ref="D148" r:id="rId122" location="ai" display="https://www.internetworldstats.com/carib.htm - ai" xr:uid="{02FA7CC9-DFD8-454B-9B3F-1A899239DD4B}"/>
+    <hyperlink ref="D149" r:id="rId123" location="ag" display="https://www.internetworldstats.com/carib.htm - ag" xr:uid="{5DD3BFE1-EF2E-4178-AA1C-EB93A8291034}"/>
+    <hyperlink ref="D150" r:id="rId124" location="aw" display="https://www.internetworldstats.com/carib.htm - aw" xr:uid="{71513E54-E637-458E-BE3E-63C4959E4B19}"/>
+    <hyperlink ref="D151" r:id="rId125" location="bs" display="https://www.internetworldstats.com/carib.htm - bs" xr:uid="{B4268BEB-4B38-4131-901D-EDC0CF20995F}"/>
+    <hyperlink ref="D152" r:id="rId126" location="bb" display="https://www.internetworldstats.com/carib.htm - bb" xr:uid="{BD7930CF-E53C-4A5F-9C03-91C79A8EEAC5}"/>
+    <hyperlink ref="D153" r:id="rId127" location="bq" display="https://www.internetworldstats.com/carib.htm - bq" xr:uid="{D9C22708-6A43-4AA7-A2D0-28614A33EB93}"/>
+    <hyperlink ref="D154" r:id="rId128" location="vg" display="https://www.internetworldstats.com/carib.htm - vg" xr:uid="{290A5987-FEB8-4D10-BDE4-2C002B8F7672}"/>
+    <hyperlink ref="D155" r:id="rId129" location="ky" display="https://www.internetworldstats.com/carib.htm - ky" xr:uid="{1713C990-4BDD-4053-9C18-0FC9E2271AD8}"/>
+    <hyperlink ref="D156" r:id="rId130" location="cu" display="https://www.internetworldstats.com/carib.htm - cu" xr:uid="{C942271C-D564-4723-B40B-2F9341A7FFC3}"/>
+    <hyperlink ref="D157" r:id="rId131" location="cw" display="https://www.internetworldstats.com/carib.htm - cw" xr:uid="{F22D886F-5769-435B-B684-486A9AC4D73C}"/>
+    <hyperlink ref="D158" r:id="rId132" location="dm" display="https://www.internetworldstats.com/carib.htm - dm" xr:uid="{831039DB-7BBF-4AD3-B43E-D15E85287B77}"/>
+    <hyperlink ref="D159" r:id="rId133" location="do" display="https://www.internetworldstats.com/carib.htm - do" xr:uid="{8A4D33C3-9471-4039-BC34-54C689F515F9}"/>
+    <hyperlink ref="D160" r:id="rId134" location="gd" display="https://www.internetworldstats.com/carib.htm - gd" xr:uid="{17D6C221-C5D1-4EDA-BF13-71E8F2D58756}"/>
+    <hyperlink ref="D161" r:id="rId135" location="gp" display="https://www.internetworldstats.com/carib.htm - gp" xr:uid="{BC280C3C-8F9A-4766-905B-95C69244D605}"/>
+    <hyperlink ref="D162" r:id="rId136" location="ht" display="https://www.internetworldstats.com/carib.htm - ht" xr:uid="{B3B33497-7449-4EE5-89DA-87566C4A6A6A}"/>
+    <hyperlink ref="D163" r:id="rId137" location="jm" display="https://www.internetworldstats.com/carib.htm - jm" xr:uid="{3F3FB230-11CC-4367-8733-5C2C8E6CE8CE}"/>
+    <hyperlink ref="D164" r:id="rId138" location="mq" display="https://www.internetworldstats.com/carib.htm - mq" xr:uid="{4461A80A-9C13-49E7-92B8-FD0D28041615}"/>
+    <hyperlink ref="D165" r:id="rId139" location="ms" display="https://www.internetworldstats.com/carib.htm - ms" xr:uid="{B189DBB0-C48A-40AE-BFC6-0831893366B1}"/>
+    <hyperlink ref="D166" r:id="rId140" location="pr" display="https://www.internetworldstats.com/carib.htm - pr" xr:uid="{8410AD01-7537-4D30-9E47-20BE71A320EC}"/>
+    <hyperlink ref="D167" r:id="rId141" location="bl" display="https://www.internetworldstats.com/carib.htm - bl" xr:uid="{FE3AC07A-CF9E-46E0-9253-287CB58C6230}"/>
+    <hyperlink ref="D168" r:id="rId142" location="kn" display="https://www.internetworldstats.com/carib.htm - kn" xr:uid="{14187E58-537A-401D-878A-12FDF6794B12}"/>
+    <hyperlink ref="D169" r:id="rId143" location="lc" display="https://www.internetworldstats.com/carib.htm - lc" xr:uid="{21A64A79-6339-4C00-B2E6-61565CF490F8}"/>
+    <hyperlink ref="D170" r:id="rId144" location="mf" display="https://www.internetworldstats.com/carib.htm - mf" xr:uid="{8B03724F-BC1E-43E1-B360-E74B56985E8F}"/>
+    <hyperlink ref="D171" r:id="rId145" location="vc" display="https://www.internetworldstats.com/carib.htm - vc" xr:uid="{19518350-4970-4262-A5AD-7D0198B85BA9}"/>
+    <hyperlink ref="D172" r:id="rId146" location="sx" display="https://www.internetworldstats.com/carib.htm - sx" xr:uid="{603824CB-F6B6-4AE8-9B58-0CD751DA4BA0}"/>
+    <hyperlink ref="D173" r:id="rId147" location="tt" display="https://www.internetworldstats.com/carib.htm - tt" xr:uid="{2D5D74BA-7819-4A66-8F72-890BFF0945E8}"/>
+    <hyperlink ref="D174" r:id="rId148" location="tc" display="https://www.internetworldstats.com/carib.htm - tc" xr:uid="{CA8C7885-BD04-4336-B5A1-04E8EB605B69}"/>
+    <hyperlink ref="D175" r:id="rId149" location="vi" display="https://www.internetworldstats.com/carib.htm - vi" xr:uid="{F33D1DF8-7472-4143-B763-B929449EE18B}"/>
+    <hyperlink ref="D177" r:id="rId150" location="bz" display="https://www.internetworldstats.com/central.htm - bz" xr:uid="{E509B30D-DC71-4285-9D66-865C6934E931}"/>
+    <hyperlink ref="D178" r:id="rId151" location="cr" display="https://www.internetworldstats.com/central.htm - cr" xr:uid="{97F5EB10-1BE6-487E-826E-894825D10014}"/>
+    <hyperlink ref="D179" r:id="rId152" location="sv" display="https://www.internetworldstats.com/central.htm - sv" xr:uid="{5D74C54A-9CA7-4BFC-991A-A028D925098F}"/>
+    <hyperlink ref="D180" r:id="rId153" location="gt" display="https://www.internetworldstats.com/central.htm - gt" xr:uid="{13507CCA-D03D-43B5-815C-D9A956445FEC}"/>
+    <hyperlink ref="D181" r:id="rId154" location="hn" display="https://www.internetworldstats.com/central.htm - hn" xr:uid="{389A1DBA-A735-49D4-B761-B0CC8A4169A7}"/>
+    <hyperlink ref="D182" r:id="rId155" location="mx" display="https://www.internetworldstats.com/central.htm - mx" xr:uid="{22E2FAB5-6D1D-4F86-B17D-A2D45637D1FD}"/>
+    <hyperlink ref="D183" r:id="rId156" location="ni" display="https://www.internetworldstats.com/central.htm - ni" xr:uid="{94D919B0-50B5-46A2-8A05-AF8E17417697}"/>
+    <hyperlink ref="D184" r:id="rId157" location="pa" display="https://www.internetworldstats.com/central.htm - pa" xr:uid="{5C8DCDB9-E510-4922-B26B-77E3D8D0B1EE}"/>
+    <hyperlink ref="D186" r:id="rId158" location="ar" display="https://www.internetworldstats.com/south.htm - ar" xr:uid="{571B80D9-947B-420A-BDF5-F99889AC8142}"/>
+    <hyperlink ref="D187" r:id="rId159" location="bo" display="https://www.internetworldstats.com/south.htm - bo" xr:uid="{6146DCD6-2723-44D6-B0C1-9FE069EB031B}"/>
+    <hyperlink ref="D188" r:id="rId160" location="br" display="https://www.internetworldstats.com/south.htm - br" xr:uid="{941D379A-6B7A-44A1-88A3-144C106ACA37}"/>
+    <hyperlink ref="D189" r:id="rId161" location="cl" display="https://www.internetworldstats.com/south.htm - cl" xr:uid="{029B22C9-9386-4FEC-90F2-0810001D363A}"/>
+    <hyperlink ref="D190" r:id="rId162" location="co" display="https://www.internetworldstats.com/south.htm - co" xr:uid="{1AF2DE2A-9FF5-402F-9B1C-C907A43E3027}"/>
+    <hyperlink ref="D191" r:id="rId163" location="ec" display="https://www.internetworldstats.com/south.htm - ec" xr:uid="{797A3599-8679-4FBC-8967-A66BC7ED61F4}"/>
+    <hyperlink ref="D192" r:id="rId164" location="fk" display="https://www.internetworldstats.com/south.htm - fk" xr:uid="{F84382EC-CB35-4C0F-AA89-8B208CF23AEE}"/>
+    <hyperlink ref="D193" r:id="rId165" location="gf" display="https://www.internetworldstats.com/south.htm - gf" xr:uid="{4EDC55A2-0EB2-4FD6-BC9E-6E1AB0CAD7AD}"/>
+    <hyperlink ref="D194" r:id="rId166" location="gy" display="https://www.internetworldstats.com/south.htm - gy" xr:uid="{BB53EEDA-E87D-4AD7-8968-727D2393A6D5}"/>
+    <hyperlink ref="D195" r:id="rId167" location="py" display="https://www.internetworldstats.com/south.htm - py" xr:uid="{F24B5B81-CC43-4343-AF50-8EF21F822097}"/>
+    <hyperlink ref="D196" r:id="rId168" location="pe" display="https://www.internetworldstats.com/south.htm - pe" xr:uid="{1730F502-1841-416C-973A-D69491823677}"/>
+    <hyperlink ref="D197" r:id="rId169" location="sr" display="https://www.internetworldstats.com/south.htm - sr" xr:uid="{FC4D41A4-9055-4A26-A36D-C9236A2298EE}"/>
+    <hyperlink ref="D198" r:id="rId170" location="uy" display="https://www.internetworldstats.com/south.htm - uy" xr:uid="{F7DD6C1A-9E25-4DFF-AA26-2B2EE65D0C5F}"/>
+    <hyperlink ref="D199" r:id="rId171" location="ve" display="https://www.internetworldstats.com/south.htm - ve" xr:uid="{130DC781-2873-4C37-A969-28E48446FFDD}"/>
+    <hyperlink ref="D201" r:id="rId172" location="bm" display="https://www.internetworldstats.com/america.htm - bm" xr:uid="{487A2FB3-2610-407C-B834-F0E3C6AD3E62}"/>
+    <hyperlink ref="D202" r:id="rId173" location="ca" display="https://www.internetworldstats.com/america.htm - ca" xr:uid="{EC75C998-0FE1-46A5-9F9D-41DA9FDF6382}"/>
+    <hyperlink ref="D203" r:id="rId174" location="gl" display="https://www.internetworldstats.com/america.htm - gl" xr:uid="{5F791DD7-73F9-49B2-B368-D41726E4E1E8}"/>
+    <hyperlink ref="D204" r:id="rId175" location="sp" display="https://www.internetworldstats.com/america.htm - sp" xr:uid="{72C535CD-56D8-4B12-A859-4B75660C13AB}"/>
+    <hyperlink ref="D205" r:id="rId176" location="us" display="https://www.internetworldstats.com/america.htm - us" xr:uid="{3BA1C02C-D861-4A46-A608-7CAAF20096F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId177"/>
 </worksheet>
 </file>
--- a/data/region/regionmap.xlsx
+++ b/data/region/regionmap.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ieu\surfmachine\globalfootprint\data\region\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79047CBA-99E4-436F-85D9-277ECFB9265D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BC862F-BC98-411D-A4F8-0893E5E6B758}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1260" windowWidth="24510" windowHeight="18840" activeTab="2" xr2:uid="{F4140DF5-CA1D-41C2-B634-398879465469}"/>
+    <workbookView xWindow="2730" yWindow="1260" windowWidth="24510" windowHeight="18840" activeTab="3" xr2:uid="{F4140DF5-CA1D-41C2-B634-398879465469}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="footprint regions" sheetId="2" r:id="rId1"/>
+    <sheet name="uno regions" sheetId="1" r:id="rId2"/>
+    <sheet name="subregions" sheetId="3" r:id="rId3"/>
+    <sheet name="regions" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="CA" localSheetId="1">Sheet1!#REF!</definedName>
-    <definedName name="NA" localSheetId="1">Sheet1!#REF!</definedName>
-    <definedName name="SA" localSheetId="1">Sheet1!#REF!</definedName>
+    <definedName name="CA" localSheetId="1">'uno regions'!#REF!</definedName>
+    <definedName name="NA" localSheetId="1">'uno regions'!#REF!</definedName>
+    <definedName name="SA" localSheetId="1">'uno regions'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="271">
   <si>
     <t>Eastern Africa</t>
   </si>
@@ -851,6 +852,9 @@
   </si>
   <si>
     <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Region &amp; Countries per Region</t>
   </si>
 </sst>
 </file>
@@ -923,7 +927,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -996,6 +1000,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1025,7 +1035,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1084,9 +1094,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1105,6 +1112,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1571,7 +1582,7 @@
   <dimension ref="B2:F121"/>
   <sheetViews>
     <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="O106" sqref="O106"/>
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1834,262 +1845,262 @@
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="28"/>
+      <c r="D29" s="27"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="26" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="26" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="26" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="26" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="26" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="26" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="26" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="26" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="26" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="26" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="26" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="26" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="26" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="26" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="26" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="26" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="26" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="26" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="26" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="26" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="26" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="26" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="D52" s="27" t="s">
+      <c r="D52" s="26" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="53" spans="2:4">
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="26" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="26" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="26" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="D56" s="27" t="s">
+      <c r="D56" s="26" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="26" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="26" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="26" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="26" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="26" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="26" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="63" spans="2:4">
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="26" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2105,208 +2116,208 @@
       </c>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D66" s="27" t="s">
+      <c r="D66" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F66" s="27" t="s">
+      <c r="F66" s="26" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D67" s="27" t="s">
+      <c r="D67" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F67" s="27" t="s">
+      <c r="F67" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D68" s="27" t="s">
+      <c r="D68" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F68" s="27" t="s">
+      <c r="F68" s="26" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D69" s="27" t="s">
+      <c r="D69" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="F69" s="27" t="s">
+      <c r="F69" s="26" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="27" t="s">
+      <c r="B70" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D70" s="27" t="s">
+      <c r="D70" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="F70" s="27" t="s">
+      <c r="F70" s="26" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D71" s="27" t="s">
+      <c r="D71" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="F71" s="27" t="s">
+      <c r="F71" s="26" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="27" t="s">
+      <c r="B72" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D72" s="27" t="s">
+      <c r="D72" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F72" s="27" t="s">
+      <c r="F72" s="26" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="27" t="s">
+      <c r="B73" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D73" s="27" t="s">
+      <c r="D73" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F73" s="27" t="s">
+      <c r="F73" s="26" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="27" t="s">
+      <c r="B74" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="F74" s="27" t="s">
+      <c r="F74" s="26" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F75" s="27" t="s">
+      <c r="F75" s="26" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="27" t="s">
+      <c r="B76" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F76" s="27" t="s">
+      <c r="F76" s="26" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F77" s="27" t="s">
+      <c r="F77" s="26" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F78" s="27" t="s">
+      <c r="F78" s="26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F79" s="27" t="s">
+      <c r="F79" s="26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="27" t="s">
+      <c r="B80" s="26" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="27" t="s">
+      <c r="B81" s="26" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="26" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="27" t="s">
+      <c r="B83" s="26" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="26" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="27" t="s">
+      <c r="B85" s="26" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="26" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="26" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="27" t="s">
+      <c r="B88" s="26" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="26" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="27" t="s">
+      <c r="B90" s="26" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="91" spans="2:6">
-      <c r="B91" s="27" t="s">
+      <c r="B91" s="26" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="92" spans="2:6">
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="26" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="27" t="s">
+      <c r="B93" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2322,14 +2333,14 @@
       </c>
     </row>
     <row r="96" spans="2:6">
-      <c r="B96" s="27" t="s">
+      <c r="B96" s="26" t="s">
         <v>117</v>
       </c>
       <c r="D96" s="1"/>
       <c r="F96" s="7"/>
     </row>
     <row r="97" spans="2:6">
-      <c r="B97" s="27" t="s">
+      <c r="B97" s="26" t="s">
         <v>118</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -2340,7 +2351,7 @@
       </c>
     </row>
     <row r="98" spans="2:6">
-      <c r="B98" s="27" t="s">
+      <c r="B98" s="26" t="s">
         <v>119</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -2351,7 +2362,7 @@
       </c>
     </row>
     <row r="99" spans="2:6">
-      <c r="B99" s="27" t="s">
+      <c r="B99" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -2362,7 +2373,7 @@
       </c>
     </row>
     <row r="100" spans="2:6">
-      <c r="B100" s="27" t="s">
+      <c r="B100" s="26" t="s">
         <v>121</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -2685,10 +2696,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A708DA21-2664-4892-9429-79ED4C6C115B}">
-  <dimension ref="A1:H229"/>
+  <dimension ref="A1:H226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A206" sqref="A206:XFD223"/>
+    <sheetView topLeftCell="A176" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="C236" sqref="C236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2700,17 +2711,17 @@
     <col min="5" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="33" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:4" s="32" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A1" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>266</v>
       </c>
     </row>
@@ -4316,31 +4327,31 @@
         <v>257</v>
       </c>
     </row>
-    <row r="146" spans="1:4" s="29" customFormat="1">
-      <c r="A146" s="29">
-        <v>2003</v>
-      </c>
-      <c r="B146" s="29">
-        <v>0</v>
-      </c>
-      <c r="C146" s="29">
-        <v>0</v>
-      </c>
-      <c r="D146" s="30" t="s">
+    <row r="146" spans="1:4" s="28" customFormat="1">
+      <c r="A146" s="28">
+        <v>2003</v>
+      </c>
+      <c r="B146" s="28">
+        <v>0</v>
+      </c>
+      <c r="C146" s="28">
+        <v>0</v>
+      </c>
+      <c r="D146" s="29" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="147" spans="1:4" s="31" customFormat="1">
-      <c r="A147" s="31">
-        <v>2003</v>
-      </c>
-      <c r="B147" s="31">
+    <row r="147" spans="1:4" s="30" customFormat="1">
+      <c r="A147" s="30">
+        <v>2003</v>
+      </c>
+      <c r="B147" s="30">
         <v>1001</v>
       </c>
-      <c r="C147" s="31">
-        <v>0</v>
-      </c>
-      <c r="D147" s="32" t="s">
+      <c r="C147" s="30">
+        <v>0</v>
+      </c>
+      <c r="D147" s="31" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4652,17 +4663,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="176" spans="1:4" s="31" customFormat="1">
-      <c r="A176" s="31">
-        <v>2003</v>
-      </c>
-      <c r="B176" s="31">
+    <row r="176" spans="1:4" s="30" customFormat="1">
+      <c r="A176" s="30">
+        <v>2003</v>
+      </c>
+      <c r="B176" s="30">
         <v>1002</v>
       </c>
-      <c r="C176" s="31">
-        <v>0</v>
-      </c>
-      <c r="D176" s="32" t="s">
+      <c r="C176" s="30">
+        <v>0</v>
+      </c>
+      <c r="D176" s="31" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4754,17 +4765,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:4" s="31" customFormat="1">
-      <c r="A185" s="31">
-        <v>2003</v>
-      </c>
-      <c r="B185" s="31">
+    <row r="185" spans="1:4" s="30" customFormat="1">
+      <c r="A185" s="30">
+        <v>2003</v>
+      </c>
+      <c r="B185" s="30">
         <v>1014</v>
       </c>
-      <c r="C185" s="31">
-        <v>0</v>
-      </c>
-      <c r="D185" s="32" t="s">
+      <c r="C185" s="30">
+        <v>0</v>
+      </c>
+      <c r="D185" s="31" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4932,10 +4943,10 @@
       <c r="C200" s="15">
         <v>0</v>
       </c>
-      <c r="D200" s="34" t="s">
+      <c r="D200" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="H200" s="34"/>
+      <c r="H200" s="33"/>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="12">
@@ -4992,76 +5003,205 @@
         <v>121</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
-      <c r="H206" s="25"/>
-    </row>
-    <row r="216" spans="1:8">
-      <c r="H216" s="25"/>
-    </row>
-    <row r="223" spans="1:8">
-      <c r="H223" s="25"/>
+    <row r="206" spans="1:8" s="34" customFormat="1">
+      <c r="A206" s="34">
+        <v>2005</v>
+      </c>
+      <c r="B206" s="34">
+        <v>0</v>
+      </c>
+      <c r="C206" s="34">
+        <v>0</v>
+      </c>
+      <c r="D206" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="12">
+        <v>2005</v>
+      </c>
+      <c r="D207" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="12">
+        <v>2005</v>
+      </c>
+      <c r="D208" s="22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="12">
+        <v>2005</v>
+      </c>
+      <c r="D209" s="22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="12">
+        <v>2005</v>
+      </c>
+      <c r="D210" s="22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="12">
+        <v>2005</v>
+      </c>
+      <c r="D211" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="12">
+        <v>2005</v>
+      </c>
+      <c r="D212" s="22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="12">
+        <v>2005</v>
+      </c>
+      <c r="D213" s="22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="12">
+        <v>2005</v>
+      </c>
+      <c r="D214" s="22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="12">
+        <v>2005</v>
+      </c>
+      <c r="D215" s="22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" s="17" customFormat="1">
+      <c r="A216" s="17">
+        <v>2005</v>
+      </c>
+      <c r="B216" s="17">
+        <v>1000</v>
+      </c>
+      <c r="C216" s="17">
+        <v>0</v>
+      </c>
+      <c r="D216" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="12">
+        <v>2005</v>
+      </c>
+      <c r="B217" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D217" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="12">
+        <v>2005</v>
+      </c>
+      <c r="B218" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D218" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" s="17" customFormat="1">
+      <c r="A219" s="17">
+        <v>2005</v>
+      </c>
+      <c r="B219" s="17">
+        <v>1007</v>
+      </c>
+      <c r="C219" s="17">
+        <v>0</v>
+      </c>
+      <c r="D219" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" s="13" customFormat="1">
+      <c r="A220" s="13">
+        <v>2005</v>
+      </c>
+      <c r="B220" s="13">
+        <v>1007</v>
+      </c>
+      <c r="D220" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" s="13" customFormat="1">
+      <c r="A221" s="13">
+        <v>2005</v>
+      </c>
+      <c r="B221" s="13">
+        <v>1007</v>
+      </c>
+      <c r="D221" s="22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" s="13" customFormat="1">
+      <c r="A222" s="13">
+        <v>2005</v>
+      </c>
+      <c r="B222" s="13">
+        <v>1007</v>
+      </c>
+      <c r="D222" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" s="13" customFormat="1">
+      <c r="A223" s="13">
+        <v>2005</v>
+      </c>
+      <c r="B223" s="13">
+        <v>1007</v>
+      </c>
+      <c r="D223" s="22" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="224" spans="1:8">
-      <c r="A224" s="12">
-        <v>2005</v>
-      </c>
-      <c r="B224" s="12">
-        <v>0</v>
-      </c>
-      <c r="C224" s="12">
-        <v>0</v>
-      </c>
-      <c r="D224" s="25" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="A225" s="12">
-        <v>2005</v>
-      </c>
-      <c r="B225" s="12">
-        <v>1000</v>
-      </c>
-      <c r="C225" s="12">
-        <v>0</v>
-      </c>
-      <c r="D225" s="26" t="s">
-        <v>262</v>
+      <c r="H224" s="25"/>
+    </row>
+    <row r="225" spans="1:8" s="28" customFormat="1">
+      <c r="A225" s="28">
+        <v>5001</v>
+      </c>
+      <c r="B225" s="28">
+        <v>0</v>
+      </c>
+      <c r="C225" s="28">
+        <v>0</v>
+      </c>
+      <c r="D225" s="28" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="12">
-        <v>2005</v>
-      </c>
-      <c r="B226" s="12">
-        <v>1007</v>
-      </c>
-      <c r="C226" s="12">
-        <v>0</v>
-      </c>
-      <c r="D226" s="25" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
-      <c r="H227" s="25"/>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="A228" s="12">
-        <v>5001</v>
-      </c>
-      <c r="B228" s="12">
-        <v>0</v>
-      </c>
-      <c r="C228" s="12">
-        <v>0</v>
-      </c>
-      <c r="D228" s="12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
-      <c r="H229" s="25"/>
+      <c r="H226" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5241,8 +5381,1884 @@
     <hyperlink ref="D203" r:id="rId174" location="gl" display="https://www.internetworldstats.com/america.htm - gl" xr:uid="{5F791DD7-73F9-49B2-B368-D41726E4E1E8}"/>
     <hyperlink ref="D204" r:id="rId175" location="sp" display="https://www.internetworldstats.com/america.htm - sp" xr:uid="{72C535CD-56D8-4B12-A859-4B75660C13AB}"/>
     <hyperlink ref="D205" r:id="rId176" location="us" display="https://www.internetworldstats.com/america.htm - us" xr:uid="{3BA1C02C-D861-4A46-A608-7CAAF20096F5}"/>
+    <hyperlink ref="D217" r:id="rId177" location="au" display="https://www.internetworldstats.com/pacific.htm - au" xr:uid="{F24424AF-8B41-4453-90F5-BF192B02B16B}"/>
+    <hyperlink ref="D220" r:id="rId178" location="fj" display="https://www.internetworldstats.com/pacific.htm - fj" xr:uid="{086D6D5A-ABC0-46D8-B9D6-FA1FF1247053}"/>
+    <hyperlink ref="D207" r:id="rId179" location="pf" display="https://www.internetworldstats.com/pacific.htm - pf" xr:uid="{2D6AC491-D8EE-4BAF-8AFB-B401EC33B37B}"/>
+    <hyperlink ref="D208" r:id="rId180" location="gu" display="https://www.internetworldstats.com/pacific.htm - gu" xr:uid="{4BE03481-5C25-48DE-B58A-12E6EF8FBB1B}"/>
+    <hyperlink ref="D209" r:id="rId181" location="ki" display="https://www.internetworldstats.com/pacific.htm - ki" xr:uid="{B25BC25D-F93E-473F-A1FE-A6F96E6F5DB9}"/>
+    <hyperlink ref="D210" r:id="rId182" location="mh" display="https://www.internetworldstats.com/pacific.htm - mh" xr:uid="{379754F1-8ADB-4D99-A2FE-971BDC8FCD1E}"/>
+    <hyperlink ref="D211" r:id="rId183" location="fm" display="https://www.internetworldstats.com/pacific.htm - fm" xr:uid="{454B7108-A227-435F-80BF-C843FE96B84B}"/>
+    <hyperlink ref="D221" r:id="rId184" location="nc" display="https://www.internetworldstats.com/pacific.htm - nc" xr:uid="{B4DC8708-FAB0-4843-A799-6E8376A2C5F6}"/>
+    <hyperlink ref="D218" r:id="rId185" location="nz" display="https://www.internetworldstats.com/pacific.htm - nz" xr:uid="{62D0ED02-FA3D-417F-915A-8220D50A41A5}"/>
+    <hyperlink ref="D222" r:id="rId186" location="pg" display="https://www.internetworldstats.com/pacific.htm - pg" xr:uid="{D8FB7816-2431-415C-AB21-333B25D78A15}"/>
+    <hyperlink ref="D212" r:id="rId187" location="ws" display="https://www.internetworldstats.com/pacific.htm - ws" xr:uid="{4E15A52D-6C2D-4718-9769-B3D2421E4CFE}"/>
+    <hyperlink ref="D213" r:id="rId188" location="as" display="https://www.internetworldstats.com/pacific.htm - as" xr:uid="{D4ECEA62-1AD7-4D9C-A3F3-9336D1DAE1A9}"/>
+    <hyperlink ref="D214" r:id="rId189" location="sb" display="https://www.internetworldstats.com/pacific.htm - sb" xr:uid="{2850435E-3B90-4950-91AF-8C71947873A4}"/>
+    <hyperlink ref="D215" r:id="rId190" location="to" display="https://www.internetworldstats.com/pacific.htm - to" xr:uid="{C4FEDA17-E2AF-4423-A4B5-A1FE8599B23D}"/>
+    <hyperlink ref="D223" r:id="rId191" location="vu" display="https://www.internetworldstats.com/pacific.htm - vu" xr:uid="{AAC32432-A380-4069-9403-78187DD1EE4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId177"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId192"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692B961F-42E7-4AF3-B321-3A175F923A89}">
+  <dimension ref="A1:G206"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="12"/>
+    <col min="3" max="3" width="48.28515625" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="32" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A1" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="28" customFormat="1">
+      <c r="A2" s="28">
+        <v>5001</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="16" customFormat="1">
+      <c r="A3" s="16">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="13" customFormat="1">
+      <c r="A4" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="13" customFormat="1">
+      <c r="A5" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="13" customFormat="1">
+      <c r="A6" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="13" customFormat="1">
+      <c r="A7" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="13" customFormat="1">
+      <c r="A8" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="13" customFormat="1">
+      <c r="A9" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="13" customFormat="1">
+      <c r="A10" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="13" customFormat="1">
+      <c r="A11" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="13" customFormat="1">
+      <c r="A12" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="13" customFormat="1">
+      <c r="A13" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="13" customFormat="1">
+      <c r="A14" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="13" customFormat="1">
+      <c r="A15" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="13" customFormat="1">
+      <c r="A16" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="13" customFormat="1">
+      <c r="A17" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="13" customFormat="1">
+      <c r="A18" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="13" customFormat="1">
+      <c r="A19" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="13" customFormat="1">
+      <c r="A20" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="13" customFormat="1">
+      <c r="A21" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="13" customFormat="1">
+      <c r="A22" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="13" customFormat="1">
+      <c r="A23" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="13" customFormat="1">
+      <c r="A24" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="13" customFormat="1">
+      <c r="A25" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="13" customFormat="1">
+      <c r="A26" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="13" customFormat="1">
+      <c r="A27" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="13" customFormat="1">
+      <c r="A28" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="13" customFormat="1">
+      <c r="A29" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="13" customFormat="1">
+      <c r="A30" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="13" customFormat="1">
+      <c r="A31" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="13" customFormat="1">
+      <c r="A32" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="13" customFormat="1">
+      <c r="A33" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="13" customFormat="1">
+      <c r="A34" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="13" customFormat="1">
+      <c r="A35" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="13" customFormat="1">
+      <c r="A36" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="13" customFormat="1">
+      <c r="A37" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="13" customFormat="1">
+      <c r="A38" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="13" customFormat="1">
+      <c r="A39" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="13" customFormat="1">
+      <c r="A40" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="13" customFormat="1">
+      <c r="A41" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="13" customFormat="1">
+      <c r="A42" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="13" customFormat="1">
+      <c r="A43" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="13" customFormat="1">
+      <c r="A44" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="13" customFormat="1">
+      <c r="A45" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="13" customFormat="1">
+      <c r="A46" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="13" customFormat="1">
+      <c r="A47" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="13" customFormat="1">
+      <c r="A48" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="13" customFormat="1">
+      <c r="A49" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="13" customFormat="1">
+      <c r="A50" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="13" customFormat="1">
+      <c r="A51" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="13" customFormat="1">
+      <c r="A52" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="13" customFormat="1">
+      <c r="A53" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="13" customFormat="1">
+      <c r="A54" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="13" customFormat="1">
+      <c r="A55" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="13" customFormat="1">
+      <c r="A56" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="13" customFormat="1">
+      <c r="A57" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="13" customFormat="1">
+      <c r="A58" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="13" customFormat="1">
+      <c r="A59" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="13" customFormat="1">
+      <c r="A60" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="13" customFormat="1">
+      <c r="A61" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="15" customFormat="1">
+      <c r="A62" s="15">
+        <v>2001</v>
+      </c>
+      <c r="B62" s="15">
+        <v>0</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="13" customFormat="1">
+      <c r="A63" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="13" customFormat="1">
+      <c r="A64" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="13" customFormat="1">
+      <c r="A65" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="13" customFormat="1">
+      <c r="A66" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="13" customFormat="1">
+      <c r="A67" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="13" customFormat="1">
+      <c r="A68" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="13" customFormat="1">
+      <c r="A69" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="13" customFormat="1">
+      <c r="A70" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="13" customFormat="1">
+      <c r="A71" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="13" customFormat="1">
+      <c r="A72" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="13" customFormat="1">
+      <c r="A73" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="13" customFormat="1">
+      <c r="A74" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="13" customFormat="1">
+      <c r="A75" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="13" customFormat="1">
+      <c r="A77" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="13" customFormat="1">
+      <c r="A78" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="13" customFormat="1">
+      <c r="A79" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="13" customFormat="1">
+      <c r="A80" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="13" customFormat="1">
+      <c r="A81" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="13" customFormat="1">
+      <c r="A82" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" s="13" customFormat="1">
+      <c r="A83" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="13" customFormat="1">
+      <c r="A84" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="13" customFormat="1">
+      <c r="A85" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="13" customFormat="1">
+      <c r="A86" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="13" customFormat="1">
+      <c r="A87" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="13" customFormat="1">
+      <c r="A88" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="13" customFormat="1">
+      <c r="A89" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="13" customFormat="1">
+      <c r="A90" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="13" customFormat="1">
+      <c r="A91" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="13" customFormat="1">
+      <c r="A92" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="13" customFormat="1">
+      <c r="A93" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="13" customFormat="1">
+      <c r="A94" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" s="13" customFormat="1">
+      <c r="A95" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="13" customFormat="1">
+      <c r="A96" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="13" customFormat="1">
+      <c r="A97" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="13" customFormat="1">
+      <c r="A98" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="13" customFormat="1">
+      <c r="A99" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="13" customFormat="1">
+      <c r="A100" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="19" customFormat="1">
+      <c r="A102" s="19">
+        <v>2002</v>
+      </c>
+      <c r="B102" s="19">
+        <v>0</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C120" s="22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C121" s="22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C128" s="22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" s="28" customFormat="1">
+      <c r="A131" s="28">
+        <v>2003</v>
+      </c>
+      <c r="B131" s="28">
+        <v>0</v>
+      </c>
+      <c r="C131" s="29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C134" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C136" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C138" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C139" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C140" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C141" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C142" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C143" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C144" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C145" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C146" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C147" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C148" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C149" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C150" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C151" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C152" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C153" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C154" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C155" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C156" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C157" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C158" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C159" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C160" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C161" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C162" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C163" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C164" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C165" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C166" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C167" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C168" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C169" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C170" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C171" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C172" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C173" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C174" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C175" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C176" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C177" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C178" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C179" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C180" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C181" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" s="15" customFormat="1">
+      <c r="A182" s="15">
+        <v>2004</v>
+      </c>
+      <c r="B182" s="15">
+        <v>0</v>
+      </c>
+      <c r="C182" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="G182" s="33"/>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="12">
+        <v>2004</v>
+      </c>
+      <c r="C183" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="12">
+        <v>2004</v>
+      </c>
+      <c r="C184" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="12">
+        <v>2004</v>
+      </c>
+      <c r="C185" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="12">
+        <v>2004</v>
+      </c>
+      <c r="C186" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="12">
+        <v>2004</v>
+      </c>
+      <c r="C187" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" s="34" customFormat="1">
+      <c r="A188" s="34">
+        <v>2005</v>
+      </c>
+      <c r="B188" s="34">
+        <v>0</v>
+      </c>
+      <c r="C188" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C189" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C190" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C191" s="22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C192" s="22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C193" s="22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C194" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C195" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C196" s="22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C197" s="22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C198" s="22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C199" s="22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" s="13" customFormat="1">
+      <c r="A200" s="13">
+        <v>2005</v>
+      </c>
+      <c r="C200" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" s="13" customFormat="1">
+      <c r="A201" s="13">
+        <v>2005</v>
+      </c>
+      <c r="C201" s="22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" s="13" customFormat="1">
+      <c r="A202" s="13">
+        <v>2005</v>
+      </c>
+      <c r="C202" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" s="13" customFormat="1">
+      <c r="A203" s="13">
+        <v>2005</v>
+      </c>
+      <c r="C203" s="22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="G204" s="25"/>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="G206" s="25"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" location="bi" display="bi" xr:uid="{BABC1E17-EE1C-4F40-A81B-A67D11E1E58E}"/>
+    <hyperlink ref="C5" r:id="rId2" location="km" display="https://www.internetworldstats.com/africa.htm - km" xr:uid="{7D9C33B7-37D7-44D4-BF85-17F8E40703E3}"/>
+    <hyperlink ref="C6" r:id="rId3" location="dj" display="https://www.internetworldstats.com/africa.htm - dj" xr:uid="{F508DCC8-21C5-4030-A8EA-F0FF513858FC}"/>
+    <hyperlink ref="C7" r:id="rId4" location="er" display="https://www.internetworldstats.com/africa.htm - er" xr:uid="{C7292C68-E28D-4911-8E34-70C6F470A131}"/>
+    <hyperlink ref="C8" r:id="rId5" location="et" display="https://www.internetworldstats.com/africa.htm - et" xr:uid="{7D0833DF-A115-42B3-B3A7-84A8825D7C1E}"/>
+    <hyperlink ref="C9" r:id="rId6" location="ke" display="https://www.internetworldstats.com/africa.htm - ke" xr:uid="{3376C38D-0D07-40AE-9B87-76444A12D1CD}"/>
+    <hyperlink ref="C10" r:id="rId7" location="mg" display="https://www.internetworldstats.com/africa.htm - mg" xr:uid="{23F22B82-ED1F-430B-AA1D-6FC434614EE6}"/>
+    <hyperlink ref="C11" r:id="rId8" location="mw" display="https://www.internetworldstats.com/africa.htm - mw" xr:uid="{C745FBAE-FD55-44B7-B6BE-730A11C87922}"/>
+    <hyperlink ref="C12" r:id="rId9" location="mu" display="https://www.internetworldstats.com/africa.htm - mu" xr:uid="{AD93A047-E344-48CE-85E0-903764AEB4DE}"/>
+    <hyperlink ref="C13" r:id="rId10" location="yt" display="https://www.internetworldstats.com/africa.htm - yt" xr:uid="{E3BB5889-8702-4BCE-A60E-F6DACB3FB106}"/>
+    <hyperlink ref="C14" r:id="rId11" location="mz" display="https://www.internetworldstats.com/africa.htm - mz" xr:uid="{7DF464BB-E5A5-4A82-BEFF-D8E0FE81040F}"/>
+    <hyperlink ref="C15" r:id="rId12" location="re" display="https://www.internetworldstats.com/africa.htm - re" xr:uid="{040E3044-ECEE-4E8B-BEBF-82C64A8A53C4}"/>
+    <hyperlink ref="C16" r:id="rId13" location="rw" display="https://www.internetworldstats.com/africa.htm - rw" xr:uid="{245C52B3-4F12-4B72-A46F-E38C0E3A3716}"/>
+    <hyperlink ref="C17" r:id="rId14" location="sc" display="https://www.internetworldstats.com/africa.htm - sc" xr:uid="{DF4043EE-6C7B-4EB6-B678-88E93467A282}"/>
+    <hyperlink ref="C18" r:id="rId15" location="so" display="https://www.internetworldstats.com/africa.htm - so" xr:uid="{8B4F053F-31B5-4FB5-90E7-D96BEB063F30}"/>
+    <hyperlink ref="C19" r:id="rId16" location="tz" display="https://www.internetworldstats.com/africa.htm - tz" xr:uid="{67C1D454-70F0-4B1C-8FFC-A55408E6DEDA}"/>
+    <hyperlink ref="C20" r:id="rId17" location="ug" display="https://www.internetworldstats.com/africa.htm - ug" xr:uid="{1645E0D6-D71B-4651-BD6D-F6234DA741EC}"/>
+    <hyperlink ref="C21" r:id="rId18" location="zm" display="https://www.internetworldstats.com/africa.htm - zm" xr:uid="{4C349B6F-D397-44EB-A88B-2793AEE360A2}"/>
+    <hyperlink ref="C22" r:id="rId19" location="zw" display="https://www.internetworldstats.com/africa.htm - zw" xr:uid="{504DA1A6-6EEF-4C2D-8353-CC61355B469E}"/>
+    <hyperlink ref="C23" r:id="rId20" location="ao" display="https://www.internetworldstats.com/africa.htm - ao" xr:uid="{6876F028-90BA-4A1E-8F97-26E2340D41A9}"/>
+    <hyperlink ref="C24" r:id="rId21" location="cm" display="https://www.internetworldstats.com/africa.htm - cm" xr:uid="{14B230B8-8C59-4838-8CD6-51BABEBA1E4F}"/>
+    <hyperlink ref="C25" r:id="rId22" location="cf" display="https://www.internetworldstats.com/africa.htm - cf" xr:uid="{F773DF09-808D-45A4-BE9C-1A1A5D238E66}"/>
+    <hyperlink ref="C26" r:id="rId23" location="td" display="https://www.internetworldstats.com/africa.htm - td" xr:uid="{927C4D6B-AAD5-4BFF-A981-6A1B8CEE2B89}"/>
+    <hyperlink ref="C27" r:id="rId24" location="cg" display="https://www.internetworldstats.com/africa.htm - cg" xr:uid="{0FEA4CFE-49E8-4D4B-8267-4442DC3C82BC}"/>
+    <hyperlink ref="C28" r:id="rId25" location="cd" display="https://www.internetworldstats.com/africa.htm - cd" xr:uid="{D93205F3-6A2C-4CB2-952A-BF7693B655C6}"/>
+    <hyperlink ref="C29" r:id="rId26" location="gq" display="https://www.internetworldstats.com/africa.htm - gq" xr:uid="{F7AD3F8C-1B49-45CE-A8FF-6031CE5337F2}"/>
+    <hyperlink ref="C30" r:id="rId27" location="ga" display="https://www.internetworldstats.com/africa.htm - ga" xr:uid="{1479C478-91E4-4053-9955-28A1054F8195}"/>
+    <hyperlink ref="C31" r:id="rId28" location="st" display="https://www.internetworldstats.com/africa.htm - st" xr:uid="{7E9D7C16-F6EE-4A7E-9089-3304A5B6479F}"/>
+    <hyperlink ref="C32" r:id="rId29" location="dz" display="https://www.internetworldstats.com/africa.htm - dz" xr:uid="{FDCFBE39-FAD6-48F8-A9E9-9C8851498FEA}"/>
+    <hyperlink ref="C33" r:id="rId30" location="eg" display="https://www.internetworldstats.com/africa.htm - eg" xr:uid="{FBFF0CAD-5FF7-4ED8-B327-4BCB51D85F00}"/>
+    <hyperlink ref="C34" r:id="rId31" location="ly" display="https://www.internetworldstats.com/africa.htm - ly" xr:uid="{113F9DEF-2ED3-4382-B736-7513BEAEE7A3}"/>
+    <hyperlink ref="C35" r:id="rId32" location="ma" display="https://www.internetworldstats.com/africa.htm - ma" xr:uid="{90E7A41C-CB59-493B-A677-28ED73B798B4}"/>
+    <hyperlink ref="C36" r:id="rId33" location="ss" display="https://www.internetworldstats.com/africa.htm - ss" xr:uid="{8BF79AA7-044D-4EED-8F12-782DB99EF592}"/>
+    <hyperlink ref="C37" r:id="rId34" location="sd" display="https://www.internetworldstats.com/africa.htm - sd" xr:uid="{B71FC1FD-F7E6-443A-937B-33A7763B3237}"/>
+    <hyperlink ref="C38" r:id="rId35" location="tn" display="https://www.internetworldstats.com/africa.htm - tn" xr:uid="{DF715543-C352-4A7B-9717-7E12D976DD3C}"/>
+    <hyperlink ref="C39" r:id="rId36" location="st" display="https://www.internetworldstats.com/africa.htm - st" xr:uid="{E2A6DC44-E169-43DB-91D4-5975EB90FE16}"/>
+    <hyperlink ref="C40" r:id="rId37" location="bw" display="https://www.internetworldstats.com/africa.htm - bw" xr:uid="{300C6A95-0AE4-49C9-9E76-68AE5CEA84BA}"/>
+    <hyperlink ref="C41" r:id="rId38" location="sz" display="https://www.internetworldstats.com/africa.htm - sz" xr:uid="{960DCEBF-ED98-47EA-875D-7603FB5CA5A7}"/>
+    <hyperlink ref="C42" r:id="rId39" location="ls" display="https://www.internetworldstats.com/africa.htm - ls" xr:uid="{6E0BEA38-778C-493E-A15D-8DEDFC8C2694}"/>
+    <hyperlink ref="C43" r:id="rId40" location="na" display="https://www.internetworldstats.com/africa.htm - na" xr:uid="{38760EEE-613F-4613-B0F7-582CA6A103A8}"/>
+    <hyperlink ref="C44" r:id="rId41" location="za" display="https://www.internetworldstats.com/africa.htm - za" xr:uid="{DF07E74C-3D10-4F89-99B2-3BBB3F32DD92}"/>
+    <hyperlink ref="C45" r:id="rId42" location="bj" display="https://www.internetworldstats.com/africa.htm - bj" xr:uid="{24B75A85-3DAD-4DBE-BD71-495E9244EFC5}"/>
+    <hyperlink ref="C46" r:id="rId43" location="bf" display="https://www.internetworldstats.com/africa.htm - bf" xr:uid="{1988188B-4859-435F-9214-504D3109DAFB}"/>
+    <hyperlink ref="C47" r:id="rId44" location="cv" display="https://www.internetworldstats.com/africa.htm - cv" xr:uid="{8E0287AC-CB4C-4B91-B044-89A7DFAAB7B8}"/>
+    <hyperlink ref="C48" r:id="rId45" location="ci" display="https://www.internetworldstats.com/africa.htm - ci" xr:uid="{70DEB09C-7FCA-4DE9-85E8-E8BD50AC81B1}"/>
+    <hyperlink ref="C49" r:id="rId46" location="gm" display="gm" xr:uid="{27688B10-15EB-4A80-8661-3B11A45A6E0E}"/>
+    <hyperlink ref="C50" r:id="rId47" location="gh" display="https://www.internetworldstats.com/africa.htm - gh" xr:uid="{A52FF825-F4D0-4FC4-A48E-7D29DEFBB6D3}"/>
+    <hyperlink ref="C51" r:id="rId48" location="gn" display="https://www.internetworldstats.com/africa.htm - gn" xr:uid="{F8CB6567-831D-4F60-B822-0396C7A2DA08}"/>
+    <hyperlink ref="C52" r:id="rId49" location="gw" display="https://www.internetworldstats.com/africa.htm - gw" xr:uid="{202EC057-428D-472F-B7AE-D68CD8966E92}"/>
+    <hyperlink ref="C53" r:id="rId50" location="lr" display="https://www.internetworldstats.com/africa.htm - lr" xr:uid="{A63BE2BE-3F1A-4F87-A1E5-8CB4D93EA271}"/>
+    <hyperlink ref="C54" r:id="rId51" location="ml" display="https://www.internetworldstats.com/africa.htm - ml" xr:uid="{E57F40C5-84F8-4EA0-B729-A6FF7118A166}"/>
+    <hyperlink ref="C55" r:id="rId52" location="mr" display="https://www.internetworldstats.com/africa.htm - mr" xr:uid="{B3BFD67C-42D8-4F08-85A2-39FBDC54F687}"/>
+    <hyperlink ref="C56" r:id="rId53" location="ne" display="https://www.internetworldstats.com/africa.htm - ne" xr:uid="{B28392D2-1329-48D2-9DC6-90EBCD6004B0}"/>
+    <hyperlink ref="C57" r:id="rId54" location="ng" display="https://www.internetworldstats.com/africa.htm - ng" xr:uid="{DBC7E1F7-1A74-4B76-AB4C-FE2DA69267AB}"/>
+    <hyperlink ref="C58" r:id="rId55" location="sh" display="https://www.internetworldstats.com/africa.htm - sh" xr:uid="{61A23F6C-7350-47E5-B15E-DC1C291BF920}"/>
+    <hyperlink ref="C59" r:id="rId56" location="sn" display="https://www.internetworldstats.com/africa.htm - sn" xr:uid="{61DF9310-2996-4525-86ED-D4DFFC269D03}"/>
+    <hyperlink ref="C60" r:id="rId57" location="sl" display="https://www.internetworldstats.com/africa.htm - sl" xr:uid="{F07D8924-0544-44F5-BB53-AFC38E312E19}"/>
+    <hyperlink ref="C61" r:id="rId58" location="tg" display="https://www.internetworldstats.com/africa.htm - tg" xr:uid="{0CAD2C3B-0A61-4504-B89E-1E40B48C790F}"/>
+    <hyperlink ref="C96" r:id="rId59" location="am" display="https://www.internetworldstats.com/asia.htm - am" xr:uid="{F770424F-0BF4-49AB-A8AC-8FDC2E420093}"/>
+    <hyperlink ref="C97" r:id="rId60" location="az" display="https://www.internetworldstats.com/asia.htm - az" xr:uid="{115B3A81-39D0-4BD9-B16F-C37C9CF118AB}"/>
+    <hyperlink ref="C65" r:id="rId61" location="bt" display="https://www.internetworldstats.com/asia.htm - bt" xr:uid="{ACC3F2CA-B062-40FD-880F-38ADCCC71957}"/>
+    <hyperlink ref="C85" r:id="rId62" location="bn" display="https://www.internetworldstats.com/asia.htm - bn" xr:uid="{A88F6E79-ABEC-4680-A528-57167B3F741F}"/>
+    <hyperlink ref="C86" r:id="rId63" location="kh" display="https://www.internetworldstats.com/asia.htm - kh" xr:uid="{531EFB26-CDD7-4246-B91E-FFD71E24ED3B}"/>
+    <hyperlink ref="C77" r:id="rId64" location="cn" display="https://www.internetworldstats.com/asia.htm - cn" xr:uid="{18A1A2D7-D4B7-4FEE-B8A7-20EFD59CC556}"/>
+    <hyperlink ref="C100" r:id="rId65" location="ge" display="https://www.internetworldstats.com/asia.htm - ge" xr:uid="{7F164D09-A27C-4496-88CF-E4E37DBDCB38}"/>
+    <hyperlink ref="C78" r:id="rId66" location="hk" display="https://www.internetworldstats.com/asia.htm - hk" xr:uid="{2D0F4255-F11C-4055-AB30-E23944676280}"/>
+    <hyperlink ref="C66" r:id="rId67" location="in" display="https://www.internetworldstats.com/asia.htm - in" xr:uid="{39970B56-1674-4A01-B294-FAFF5194241F}"/>
+    <hyperlink ref="C87" r:id="rId68" location="id" display="https://www.internetworldstats.com/asia.htm - id" xr:uid="{4560A6E5-1221-46AC-8F15-BBA2884770E9}"/>
+    <hyperlink ref="C79" r:id="rId69" location="jp" display="https://www.internetworldstats.com/asia.htm - jp" xr:uid="{E82855F7-C4B8-48FF-8600-CE009786C359}"/>
+    <hyperlink ref="C68" r:id="rId70" location="kz" display="https://www.internetworldstats.com/asia.htm - kz" xr:uid="{5C363626-49B3-4991-B26A-175C0717324A}"/>
+    <hyperlink ref="C80" r:id="rId71" location="kp" display="https://www.internetworldstats.com/asia.htm - kp" xr:uid="{2EC74BD9-707D-4B1B-9449-96152A1FAAEE}"/>
+    <hyperlink ref="C81" r:id="rId72" location="kr" display="https://www.internetworldstats.com/asia.htm - kr" xr:uid="{9155F3E1-7D7E-4B01-BDFF-72D2C533F7DF}"/>
+    <hyperlink ref="C69" r:id="rId73" location="kg" display="https://www.internetworldstats.com/asia.htm - kg" xr:uid="{AEB5B50F-5E23-4C53-A258-913760EFCD6A}"/>
+    <hyperlink ref="C88" r:id="rId74" location="la" display="https://www.internetworldstats.com/asia.htm - la" xr:uid="{7B2A2A72-650F-4232-9113-E46457EEB8F3}"/>
+    <hyperlink ref="C82" r:id="rId75" location="mo" display="https://www.internetworldstats.com/asia.htm - mo" xr:uid="{36BDD0D7-708E-40EE-8C5E-C0B634D44AE4}"/>
+    <hyperlink ref="C89" r:id="rId76" location="my" display="https://www.internetworldstats.com/asia.htm - my" xr:uid="{1F33F2BF-63C4-4635-B0C0-9B9045B3813F}"/>
+    <hyperlink ref="C70" r:id="rId77" location="mv" display="https://www.internetworldstats.com/asia.htm - mv" xr:uid="{56321E6C-C57C-439A-BC38-CA2A39A5CA29}"/>
+    <hyperlink ref="C83" r:id="rId78" location="mn" display="https://www.internetworldstats.com/asia.htm - mn" xr:uid="{9431BCB2-4DB8-4289-94AF-42CA7AECB538}"/>
+    <hyperlink ref="C90" r:id="rId79" location="mm" display="https://www.internetworldstats.com/asia.htm - mm" xr:uid="{D52F470F-EE63-4E53-A4BD-2357C7F0800E}"/>
+    <hyperlink ref="C71" r:id="rId80" location="np" display="https://www.internetworldstats.com/asia.htm - np" xr:uid="{48E4FDB0-FDA3-4F85-A3DF-2DCECFF985B1}"/>
+    <hyperlink ref="C72" r:id="rId81" location="pk" display="https://www.internetworldstats.com/asia.htm - pk" xr:uid="{70D9F5DB-2855-4CF3-A6BC-F9EBE9D31A9B}"/>
+    <hyperlink ref="C91" r:id="rId82" location="ph" display="https://www.internetworldstats.com/asia.htm - ph" xr:uid="{7773186C-CD8F-47F2-A11B-15B091EF0330}"/>
+    <hyperlink ref="C92" r:id="rId83" location="sg" display="https://www.internetworldstats.com/asia.htm - sg" xr:uid="{A10A09B5-89BD-41F7-8B61-5A324381B983}"/>
+    <hyperlink ref="C73" r:id="rId84" location="lk" display="https://www.internetworldstats.com/asia.htm - lk" xr:uid="{ECCA86BA-9720-49C9-8F08-D074738FD100}"/>
+    <hyperlink ref="C84" r:id="rId85" location="tw" display="https://www.internetworldstats.com/asia.htm - tw" xr:uid="{3A293983-4BB0-4172-9A5E-5DA19E8B7F4D}"/>
+    <hyperlink ref="C74" r:id="rId86" location="tj" display="https://www.internetworldstats.com/asia.htm - tj" xr:uid="{F6A4B091-5088-4628-A2AD-5B4746A23002}"/>
+    <hyperlink ref="C93" r:id="rId87" location="th" display="https://www.internetworldstats.com/asia.htm - th" xr:uid="{870D1F3C-6A75-4171-AD33-917E62F373C5}"/>
+    <hyperlink ref="C94" r:id="rId88" location="tl" display="https://www.internetworldstats.com/asia.htm - tl" xr:uid="{2F9007D0-A3B4-421F-9BCD-A45EABBD17C3}"/>
+    <hyperlink ref="C75" r:id="rId89" location="tm" display="https://www.internetworldstats.com/asia.htm - tm" xr:uid="{E87E59D2-5CA1-4572-8B0F-1D1F38DAB1C2}"/>
+    <hyperlink ref="C76" r:id="rId90" location="uz" display="https://www.internetworldstats.com/asia.htm - uz" xr:uid="{96A7DBB9-AB5C-4855-A9A7-E554C625FC52}"/>
+    <hyperlink ref="C95" r:id="rId91" location="vn" display="https://www.internetworldstats.com/asia.htm - vn" xr:uid="{75C99AE0-9A0C-4711-8B07-3F1377B8E474}"/>
+    <hyperlink ref="C63" r:id="rId92" location="af" display="https://www.internetworldstats.com/asia.htm - af" xr:uid="{92BC515D-68A5-4646-BA3F-44A769EEA4B6}"/>
+    <hyperlink ref="C64" r:id="rId93" location="bd" display="https://www.internetworldstats.com/asia.htm - bd" xr:uid="{7EB58D4C-E246-4960-BF73-980687FBA987}"/>
+    <hyperlink ref="C103" r:id="rId94" location="al" display="https://www.internetworldstats.com/europa2.htm - al" xr:uid="{DB5E26C6-6DB0-440C-B5D5-8F6CFAEB37DF}"/>
+    <hyperlink ref="C104" r:id="rId95" location="ad" display="https://www.internetworldstats.com/europa2.htm - ad" xr:uid="{B4D59FA1-066C-41A6-A50B-FE5AF0F8A6B6}"/>
+    <hyperlink ref="C105" r:id="rId96" location="by" display="https://www.internetworldstats.com/europa2.htm - by" xr:uid="{EA89F209-E274-45CB-9FFF-66AF669625B8}"/>
+    <hyperlink ref="C106" r:id="rId97" location="ba" display="https://www.internetworldstats.com/europa2.htm - ba" xr:uid="{1C8D5AC1-1C9E-461A-B88C-EAC77E5B7187}"/>
+    <hyperlink ref="C107" r:id="rId98" location="hr" display="https://www.internetworldstats.com/europa1.htm - hr" xr:uid="{9977ED11-4294-48F4-AF2B-348613ABE00B}"/>
+    <hyperlink ref="C108" r:id="rId99" display="https://www.internetworldstats.com/europa.htm" xr:uid="{FD4187A3-3413-4D03-BEC7-E1EA8CE0F114}"/>
+    <hyperlink ref="C109" r:id="rId100" location="fo" display="https://www.internetworldstats.com/europa2.htm - fo" xr:uid="{62E50065-6A00-4A85-BFDB-B63339897D31}"/>
+    <hyperlink ref="C110" r:id="rId101" location="gi" display="https://www.internetworldstats.com/europa2.htm - gi" xr:uid="{134DB8F5-AFE8-42EE-8137-2541BADD0605}"/>
+    <hyperlink ref="C111" r:id="rId102" location="gg" display="https://www.internetworldstats.com/europa2.htm - gg" xr:uid="{9A513AD6-FC12-4B64-A8BB-DFDE32F530AF}"/>
+    <hyperlink ref="C112" r:id="rId103" location="is" display="https://www.internetworldstats.com/europa2.htm - is" xr:uid="{1B7887BC-C084-4E8B-B533-706CF7C46AC5}"/>
+    <hyperlink ref="C113" r:id="rId104" location="je" display="https://www.internetworldstats.com/europa2.htm - je" xr:uid="{1FD6969D-95BB-4582-A2DE-2A6BC0D25604}"/>
+    <hyperlink ref="C114" r:id="rId105" location="kv" display="https://www.internetworldstats.com/europa2.htm - kv" xr:uid="{3CC6A200-DEAC-4AA7-A0BA-68A94B882BBC}"/>
+    <hyperlink ref="C115" r:id="rId106" location="li" display="https://www.internetworldstats.com/europa2.htm - li" xr:uid="{82E8C1B4-3C36-4236-9F06-40CF859952F3}"/>
+    <hyperlink ref="C116" r:id="rId107" display="https://www.internetworldstats.com/europa2.htm" xr:uid="{CFB50494-88D0-4FC1-A859-7E1D173B914A}"/>
+    <hyperlink ref="C117" r:id="rId108" location="md" display="https://www.internetworldstats.com/europa2.htm - md" xr:uid="{8FB1FA33-A347-4A32-96CF-32360F1AC5AC}"/>
+    <hyperlink ref="C118" r:id="rId109" location="mc" display="https://www.internetworldstats.com/europa2.htm - mc" xr:uid="{44D991B8-C2E4-4384-BBE8-C0E5CDF5F448}"/>
+    <hyperlink ref="C119" r:id="rId110" location="me" display="https://www.internetworldstats.com/europa2.htm - me" xr:uid="{6BAF6B80-744B-4745-AD17-C56C47EF6400}"/>
+    <hyperlink ref="C120" r:id="rId111" location="mk" display="https://www.internetworldstats.com/europa2.htm - mk" xr:uid="{9CF4BDB1-ED3F-48F0-8F7F-653D5970A95D}"/>
+    <hyperlink ref="C121" r:id="rId112" location="no" display="https://www.internetworldstats.com/europa2.htm - no" xr:uid="{8E0931C0-38E4-4784-AAC1-A5148E6E7003}"/>
+    <hyperlink ref="C122" r:id="rId113" location="ru" display="https://www.internetworldstats.com/europa2.htm - ru" xr:uid="{3833320C-2535-4F00-83C6-C237CF7418A1}"/>
+    <hyperlink ref="C123" r:id="rId114" location="sm" display="https://www.internetworldstats.com/europa2.htm - sm" xr:uid="{7041428F-7A10-490A-AEE6-B33C35484DE4}"/>
+    <hyperlink ref="C124" r:id="rId115" location="rs" display="https://www.internetworldstats.com/europa2.htm - rs" xr:uid="{28EC4582-AC2D-4EEA-B8E7-D57EABF029CB}"/>
+    <hyperlink ref="C125" r:id="rId116" location="sj" display="https://www.internetworldstats.com/europa2.htm - sj" xr:uid="{DCAB57A7-E9BD-449A-9246-D189631A844C}"/>
+    <hyperlink ref="C126" r:id="rId117" location="ch" display="https://www.internetworldstats.com/europa2.htm - ch" xr:uid="{9F64BFF8-9EF3-4484-B76C-32FE75967845}"/>
+    <hyperlink ref="C127" r:id="rId118" location="tr" display="https://www.internetworldstats.com/europa1.htm - tr" xr:uid="{7384FF62-A4C2-4C8F-8AB7-23E8B8D00B76}"/>
+    <hyperlink ref="C128" r:id="rId119" location="ua" display="https://www.internetworldstats.com/europa2.htm - ua" xr:uid="{4C09450C-B570-4015-B23C-5BF2058753FC}"/>
+    <hyperlink ref="C129" r:id="rId120" location="uk" display="https://www.internetworldstats.com/europa2.htm - uk" xr:uid="{46903C08-C2CF-4CC1-9DFC-98DA56056C43}"/>
+    <hyperlink ref="C130" r:id="rId121" location="va" display="https://www.internetworldstats.com/europa2.htm - va" xr:uid="{8558856F-EBD6-44E5-BB53-7E0EEDA9BA12}"/>
+    <hyperlink ref="C132" r:id="rId122" location="ai" display="https://www.internetworldstats.com/carib.htm - ai" xr:uid="{73AA11B4-9CEA-409F-A606-FF53C9CE0202}"/>
+    <hyperlink ref="C133" r:id="rId123" location="ag" display="https://www.internetworldstats.com/carib.htm - ag" xr:uid="{076EFBC6-1840-444C-9731-54BCD37295AE}"/>
+    <hyperlink ref="C134" r:id="rId124" location="aw" display="https://www.internetworldstats.com/carib.htm - aw" xr:uid="{D818E5DF-2931-43DB-A8C3-F61E8729EE3C}"/>
+    <hyperlink ref="C135" r:id="rId125" location="bs" display="https://www.internetworldstats.com/carib.htm - bs" xr:uid="{E7F1A26F-C940-4A56-AD7C-15DC4B2B61A3}"/>
+    <hyperlink ref="C136" r:id="rId126" location="bb" display="https://www.internetworldstats.com/carib.htm - bb" xr:uid="{C6584A04-1E59-41D3-8519-418D9769C2AA}"/>
+    <hyperlink ref="C137" r:id="rId127" location="bq" display="https://www.internetworldstats.com/carib.htm - bq" xr:uid="{E8C31C0E-5014-4457-87D2-3326DF7C5E9C}"/>
+    <hyperlink ref="C138" r:id="rId128" location="vg" display="https://www.internetworldstats.com/carib.htm - vg" xr:uid="{8458FE30-286A-42CF-8EF2-F9383C7F399C}"/>
+    <hyperlink ref="C139" r:id="rId129" location="ky" display="https://www.internetworldstats.com/carib.htm - ky" xr:uid="{2976FD26-E91F-4AEF-8837-DAB7ADA1AAC1}"/>
+    <hyperlink ref="C140" r:id="rId130" location="cu" display="https://www.internetworldstats.com/carib.htm - cu" xr:uid="{EF2B030F-2230-4267-9B1F-73E32EDE823C}"/>
+    <hyperlink ref="C141" r:id="rId131" location="cw" display="https://www.internetworldstats.com/carib.htm - cw" xr:uid="{2E4E72A1-28EB-4AA6-8133-E7F10C9ED910}"/>
+    <hyperlink ref="C142" r:id="rId132" location="dm" display="https://www.internetworldstats.com/carib.htm - dm" xr:uid="{AAF48F51-2854-4B7A-BD01-D61241510B64}"/>
+    <hyperlink ref="C143" r:id="rId133" location="do" display="https://www.internetworldstats.com/carib.htm - do" xr:uid="{F123FEA7-AD85-44B2-BF00-033E19EAA3BE}"/>
+    <hyperlink ref="C144" r:id="rId134" location="gd" display="https://www.internetworldstats.com/carib.htm - gd" xr:uid="{09376A3D-AAC5-496C-87CC-8AFCCDDDE091}"/>
+    <hyperlink ref="C145" r:id="rId135" location="gp" display="https://www.internetworldstats.com/carib.htm - gp" xr:uid="{3B75A723-1C99-4E06-A4AB-4FA42B518867}"/>
+    <hyperlink ref="C146" r:id="rId136" location="ht" display="https://www.internetworldstats.com/carib.htm - ht" xr:uid="{F804B389-DFFC-4885-A29A-31488C60499E}"/>
+    <hyperlink ref="C147" r:id="rId137" location="jm" display="https://www.internetworldstats.com/carib.htm - jm" xr:uid="{EC67799A-2045-477C-BC9C-A496B6810346}"/>
+    <hyperlink ref="C148" r:id="rId138" location="mq" display="https://www.internetworldstats.com/carib.htm - mq" xr:uid="{E1D1D9AD-7217-42D4-A075-7028012B8611}"/>
+    <hyperlink ref="C149" r:id="rId139" location="ms" display="https://www.internetworldstats.com/carib.htm - ms" xr:uid="{29CAC481-42A1-4E5A-AB6C-3D9C4B304E15}"/>
+    <hyperlink ref="C150" r:id="rId140" location="pr" display="https://www.internetworldstats.com/carib.htm - pr" xr:uid="{8CF83556-3EF7-4295-88BA-FED3CF478D83}"/>
+    <hyperlink ref="C151" r:id="rId141" location="bl" display="https://www.internetworldstats.com/carib.htm - bl" xr:uid="{8EA911C2-8BB9-40F5-A20D-B458F3BEEDC7}"/>
+    <hyperlink ref="C152" r:id="rId142" location="kn" display="https://www.internetworldstats.com/carib.htm - kn" xr:uid="{91A6CF08-3397-4717-8AD1-71D95F360C6F}"/>
+    <hyperlink ref="C153" r:id="rId143" location="lc" display="https://www.internetworldstats.com/carib.htm - lc" xr:uid="{E73BF4A1-9491-4511-B520-BB5D575B86FD}"/>
+    <hyperlink ref="C154" r:id="rId144" location="mf" display="https://www.internetworldstats.com/carib.htm - mf" xr:uid="{B22E02CD-43CA-49B7-8CC3-ECF02DF78574}"/>
+    <hyperlink ref="C155" r:id="rId145" location="vc" display="https://www.internetworldstats.com/carib.htm - vc" xr:uid="{5D9EC28E-356A-4328-8992-1B6C1E4BAB71}"/>
+    <hyperlink ref="C156" r:id="rId146" location="sx" display="https://www.internetworldstats.com/carib.htm - sx" xr:uid="{C863C08C-AD96-4A04-A16E-1C31B1DCA287}"/>
+    <hyperlink ref="C157" r:id="rId147" location="tt" display="https://www.internetworldstats.com/carib.htm - tt" xr:uid="{3E7D1350-72B9-4F27-BB1C-C4EFD712E43C}"/>
+    <hyperlink ref="C158" r:id="rId148" location="tc" display="https://www.internetworldstats.com/carib.htm - tc" xr:uid="{A8C00767-D5F9-4E61-BF91-502A9EA95246}"/>
+    <hyperlink ref="C159" r:id="rId149" location="vi" display="https://www.internetworldstats.com/carib.htm - vi" xr:uid="{16D21544-D387-45F4-8A34-1BF8AFD62E7C}"/>
+    <hyperlink ref="C160" r:id="rId150" location="bz" display="https://www.internetworldstats.com/central.htm - bz" xr:uid="{78036B9F-23D4-4E53-B4A9-7F14CF373CC3}"/>
+    <hyperlink ref="C161" r:id="rId151" location="cr" display="https://www.internetworldstats.com/central.htm - cr" xr:uid="{FDD8373E-36B6-4892-8629-1A75E3600D1B}"/>
+    <hyperlink ref="C162" r:id="rId152" location="sv" display="https://www.internetworldstats.com/central.htm - sv" xr:uid="{A58D7F48-4341-4B44-B597-126C5194B0F0}"/>
+    <hyperlink ref="C163" r:id="rId153" location="gt" display="https://www.internetworldstats.com/central.htm - gt" xr:uid="{C3F89B7E-56C5-4027-A710-E5EC37C69A69}"/>
+    <hyperlink ref="C164" r:id="rId154" location="hn" display="https://www.internetworldstats.com/central.htm - hn" xr:uid="{C1F3AF75-2E35-4B21-9533-81E0F5001D89}"/>
+    <hyperlink ref="C165" r:id="rId155" location="mx" display="https://www.internetworldstats.com/central.htm - mx" xr:uid="{15C4F4A2-4188-4FD7-8D63-4130FBDB4032}"/>
+    <hyperlink ref="C166" r:id="rId156" location="ni" display="https://www.internetworldstats.com/central.htm - ni" xr:uid="{BD4C17CD-4E77-4A1D-ACE6-30FA5DB55C24}"/>
+    <hyperlink ref="C167" r:id="rId157" location="pa" display="https://www.internetworldstats.com/central.htm - pa" xr:uid="{FFDD6128-460D-411A-A5D0-36478F533FB8}"/>
+    <hyperlink ref="C168" r:id="rId158" location="ar" display="https://www.internetworldstats.com/south.htm - ar" xr:uid="{DDEA2E5B-20A9-44CA-B9FB-CA8952DEDAA2}"/>
+    <hyperlink ref="C169" r:id="rId159" location="bo" display="https://www.internetworldstats.com/south.htm - bo" xr:uid="{EC3F88AF-C29D-4309-A128-1382F4F06918}"/>
+    <hyperlink ref="C170" r:id="rId160" location="br" display="https://www.internetworldstats.com/south.htm - br" xr:uid="{48AF529C-3504-443D-88B9-F0F021F72E22}"/>
+    <hyperlink ref="C171" r:id="rId161" location="cl" display="https://www.internetworldstats.com/south.htm - cl" xr:uid="{E7FD1B90-EBB1-4B23-8F61-C719443710D1}"/>
+    <hyperlink ref="C172" r:id="rId162" location="co" display="https://www.internetworldstats.com/south.htm - co" xr:uid="{03BC451C-4E6B-4226-81DE-91D020211E5B}"/>
+    <hyperlink ref="C173" r:id="rId163" location="ec" display="https://www.internetworldstats.com/south.htm - ec" xr:uid="{EC8F167A-CDB8-46F0-BD78-A7067890C552}"/>
+    <hyperlink ref="C174" r:id="rId164" location="fk" display="https://www.internetworldstats.com/south.htm - fk" xr:uid="{C22CFC53-9F0E-4FB9-8587-F1F13E872F78}"/>
+    <hyperlink ref="C175" r:id="rId165" location="gf" display="https://www.internetworldstats.com/south.htm - gf" xr:uid="{7984146A-6EE4-4631-8550-0AF8D699B797}"/>
+    <hyperlink ref="C176" r:id="rId166" location="gy" display="https://www.internetworldstats.com/south.htm - gy" xr:uid="{399F3D73-451A-4BD6-90BB-F430390777F4}"/>
+    <hyperlink ref="C177" r:id="rId167" location="py" display="https://www.internetworldstats.com/south.htm - py" xr:uid="{1BEEF65E-8E1A-48C2-92EC-9FA7261601C3}"/>
+    <hyperlink ref="C178" r:id="rId168" location="pe" display="https://www.internetworldstats.com/south.htm - pe" xr:uid="{D089775B-A152-41B5-A7A9-13249F751547}"/>
+    <hyperlink ref="C179" r:id="rId169" location="sr" display="https://www.internetworldstats.com/south.htm - sr" xr:uid="{459600FD-73EC-42F6-97A1-B9031ACBCEEA}"/>
+    <hyperlink ref="C180" r:id="rId170" location="uy" display="https://www.internetworldstats.com/south.htm - uy" xr:uid="{3ED5B46F-7440-48C1-99F9-2C903E11C9E8}"/>
+    <hyperlink ref="C181" r:id="rId171" location="ve" display="https://www.internetworldstats.com/south.htm - ve" xr:uid="{95DF07C7-A6DF-4F1C-8D45-FE7B1A8F2CE4}"/>
+    <hyperlink ref="C183" r:id="rId172" location="bm" display="https://www.internetworldstats.com/america.htm - bm" xr:uid="{1927EE60-1877-4E5A-9D61-8EF728458252}"/>
+    <hyperlink ref="C184" r:id="rId173" location="ca" display="https://www.internetworldstats.com/america.htm - ca" xr:uid="{03DAE126-C4F5-406E-A1D3-6DDE72B16F39}"/>
+    <hyperlink ref="C185" r:id="rId174" location="gl" display="https://www.internetworldstats.com/america.htm - gl" xr:uid="{48EF07EE-320B-44D6-9913-8722ACFDBC45}"/>
+    <hyperlink ref="C186" r:id="rId175" location="sp" display="https://www.internetworldstats.com/america.htm - sp" xr:uid="{4A2F7857-37B8-499C-BC1F-D0A590F56897}"/>
+    <hyperlink ref="C187" r:id="rId176" location="us" display="https://www.internetworldstats.com/america.htm - us" xr:uid="{CFF3F48A-59C5-4AD1-841B-8BBC6206E5C7}"/>
+    <hyperlink ref="C189" r:id="rId177" location="au" display="https://www.internetworldstats.com/pacific.htm - au" xr:uid="{DAE889FB-5839-4183-87B1-9558AD6E2AA6}"/>
+    <hyperlink ref="C200" r:id="rId178" location="fj" display="https://www.internetworldstats.com/pacific.htm - fj" xr:uid="{5C474700-87B1-4B26-A156-1382EEFA912F}"/>
+    <hyperlink ref="C190" r:id="rId179" location="pf" display="https://www.internetworldstats.com/pacific.htm - pf" xr:uid="{EC6BAFE5-2D41-4C0B-AAFC-396AD6DA5A0D}"/>
+    <hyperlink ref="C191" r:id="rId180" location="gu" display="https://www.internetworldstats.com/pacific.htm - gu" xr:uid="{72843FE2-5B14-4850-9353-5B6389E122DE}"/>
+    <hyperlink ref="C192" r:id="rId181" location="ki" display="https://www.internetworldstats.com/pacific.htm - ki" xr:uid="{4B4C1B50-2D1C-4B0A-8B7D-0F9F3FE29EFC}"/>
+    <hyperlink ref="C193" r:id="rId182" location="mh" display="https://www.internetworldstats.com/pacific.htm - mh" xr:uid="{02B5211F-62B4-4BDD-AAD4-EA2D2D6CC780}"/>
+    <hyperlink ref="C194" r:id="rId183" location="fm" display="https://www.internetworldstats.com/pacific.htm - fm" xr:uid="{B313A3B9-33E3-48B4-9580-170052CC474B}"/>
+    <hyperlink ref="C201" r:id="rId184" location="nc" display="https://www.internetworldstats.com/pacific.htm - nc" xr:uid="{7F359C34-AB57-478E-807F-745F2024021A}"/>
+    <hyperlink ref="C202" r:id="rId185" location="pg" display="https://www.internetworldstats.com/pacific.htm - pg" xr:uid="{FA53BC60-7E35-420C-9856-1BCE44632333}"/>
+    <hyperlink ref="C196" r:id="rId186" location="ws" display="https://www.internetworldstats.com/pacific.htm - ws" xr:uid="{854E6A94-F340-4199-87E7-E5479B78461F}"/>
+    <hyperlink ref="C197" r:id="rId187" location="as" display="https://www.internetworldstats.com/pacific.htm - as" xr:uid="{4CA78EFA-C411-4DD8-8F05-34CA04E6AB24}"/>
+    <hyperlink ref="C198" r:id="rId188" location="sb" display="https://www.internetworldstats.com/pacific.htm - sb" xr:uid="{64EFED3B-484E-490F-B1C3-C2C33DA6BB29}"/>
+    <hyperlink ref="C199" r:id="rId189" location="to" display="https://www.internetworldstats.com/pacific.htm - to" xr:uid="{EF6E26C0-2C9F-4FAC-8774-4B789863D4FD}"/>
+    <hyperlink ref="C203" r:id="rId190" location="vu" display="https://www.internetworldstats.com/pacific.htm - vu" xr:uid="{6609B09D-12A1-4821-B485-F8D9BE0F046C}"/>
+    <hyperlink ref="C195" r:id="rId191" location="nz" display="https://www.internetworldstats.com/pacific.htm - nz" xr:uid="{9A960A45-686A-4EF6-852E-A2A989BA9314}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId192"/>
 </worksheet>
 </file>
--- a/data/region/regionmap.xlsx
+++ b/data/region/regionmap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ieu\surfmachine\globalfootprint\data\region\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\surfmachine\globalfootprint\data\region\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BC862F-BC98-411D-A4F8-0893E5E6B758}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B773DFE2-621C-4994-97E2-6F7A8D4E4841}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1260" windowWidth="24510" windowHeight="18840" activeTab="3" xr2:uid="{F4140DF5-CA1D-41C2-B634-398879465469}"/>
+    <workbookView xWindow="19410" yWindow="4875" windowWidth="13185" windowHeight="14145" firstSheet="1" activeTab="3" xr2:uid="{F4140DF5-CA1D-41C2-B634-398879465469}"/>
   </bookViews>
   <sheets>
     <sheet name="footprint regions" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="328">
   <si>
     <t>Eastern Africa</t>
   </si>
@@ -854,7 +854,178 @@
     <t>Cyprus</t>
   </si>
   <si>
-    <t>Region &amp; Countries per Region</t>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Cent. African Rep.</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Dominican Rep.</t>
+  </si>
+  <si>
+    <t>Equat. Guinea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Bosnia Herzegovina</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Irak</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>St. Lucia</t>
+  </si>
+  <si>
+    <t>St. Vincent and Grenadines</t>
+  </si>
+  <si>
+    <t>Sao Tome Principe</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Trinidad Tobago</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Arab Emirates</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Congo DR</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1030,12 +1201,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1118,6 +1300,7 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2698,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A708DA21-2664-4892-9429-79ED4C6C115B}">
   <dimension ref="A1:H226"/>
   <sheetViews>
-    <sheetView topLeftCell="A176" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="C236" sqref="C236"/>
+    <sheetView topLeftCell="A134" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141:XFD144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5404,1861 +5587,2428 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692B961F-42E7-4AF3-B321-3A175F923A89}">
-  <dimension ref="A1:G206"/>
+  <dimension ref="A1:F278"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="12"/>
-    <col min="3" max="3" width="48.28515625" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="48.28515625" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="32" customFormat="1" ht="35.25" customHeight="1">
+    <row r="1" spans="1:2" s="32" customFormat="1" ht="35.25" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="28" customFormat="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="28" customFormat="1">
       <c r="A2" s="28">
         <v>5001</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="28" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="16" customFormat="1">
+      <c r="A3" s="16">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" customFormat="1">
+      <c r="A4" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" customFormat="1">
+      <c r="A5" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" customFormat="1">
+      <c r="A6" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" customFormat="1">
+      <c r="A7" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" customFormat="1">
+      <c r="A8" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="16" customFormat="1">
-      <c r="A3" s="16">
-        <v>2000</v>
-      </c>
-      <c r="B3" s="16">
-        <v>0</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="13" customFormat="1">
-      <c r="A4" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C4" s="22" t="s">
+    </row>
+    <row r="9" spans="1:2" s="13" customFormat="1">
+      <c r="A9" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="13" customFormat="1">
-      <c r="A5" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C5" s="22" t="s">
+    <row r="10" spans="1:2" s="13" customFormat="1">
+      <c r="A10" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="13" customFormat="1">
-      <c r="A6" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C6" s="22" t="s">
+    <row r="11" spans="1:2" s="13" customFormat="1">
+      <c r="A11" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="13" customFormat="1">
-      <c r="A7" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C7" s="22" t="s">
+    <row r="12" spans="1:2" s="13" customFormat="1">
+      <c r="A12" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="13" customFormat="1">
-      <c r="A8" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C8" s="22" t="s">
+    <row r="13" spans="1:2" s="13" customFormat="1">
+      <c r="A13" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="13" customFormat="1">
-      <c r="A9" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C9" s="22" t="s">
+    <row r="14" spans="1:2" s="13" customFormat="1">
+      <c r="A14" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="13" customFormat="1">
-      <c r="A10" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C10" s="22" t="s">
+    <row r="15" spans="1:2" s="13" customFormat="1">
+      <c r="A15" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="13" customFormat="1">
+      <c r="A16" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="13" customFormat="1">
-      <c r="A11" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C11" s="22" t="s">
+    <row r="17" spans="1:2" s="13" customFormat="1">
+      <c r="A17" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B17" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="13" customFormat="1">
-      <c r="A12" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C12" s="22" t="s">
+    <row r="18" spans="1:2" s="13" customFormat="1">
+      <c r="A18" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="13" customFormat="1">
-      <c r="A13" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C13" s="22" t="s">
+    <row r="19" spans="1:2" s="13" customFormat="1">
+      <c r="A19" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="13" customFormat="1">
-      <c r="A14" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C14" s="22" t="s">
+    <row r="20" spans="1:2" s="13" customFormat="1">
+      <c r="A20" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B20" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="13" customFormat="1">
-      <c r="A15" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C15" s="22" t="s">
+    <row r="21" spans="1:2" s="13" customFormat="1">
+      <c r="A21" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="13" customFormat="1">
-      <c r="A16" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C16" s="22" t="s">
+    <row r="22" spans="1:2" s="13" customFormat="1">
+      <c r="A22" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="13" customFormat="1">
-      <c r="A17" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C17" s="22" t="s">
+    <row r="23" spans="1:2" s="13" customFormat="1">
+      <c r="A23" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B23" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="13" customFormat="1">
-      <c r="A18" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C18" s="22" t="s">
+    <row r="24" spans="1:2" s="13" customFormat="1">
+      <c r="A24" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B24" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="13" customFormat="1">
-      <c r="A19" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C19" s="22" t="s">
+    <row r="25" spans="1:2" s="13" customFormat="1">
+      <c r="A25" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="13" customFormat="1">
-      <c r="A20" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C20" s="22" t="s">
+    <row r="26" spans="1:2" s="13" customFormat="1">
+      <c r="A26" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="13" customFormat="1">
-      <c r="A21" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C21" s="22" t="s">
+    <row r="27" spans="1:2" s="13" customFormat="1">
+      <c r="A27" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="13" customFormat="1">
-      <c r="A22" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C22" s="22" t="s">
+    <row r="28" spans="1:2" s="13" customFormat="1">
+      <c r="A28" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="13" customFormat="1">
-      <c r="A23" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C23" s="22" t="s">
+    <row r="29" spans="1:2" s="13" customFormat="1">
+      <c r="A29" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="13" customFormat="1">
-      <c r="A24" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C24" s="22" t="s">
+    <row r="30" spans="1:2" s="13" customFormat="1">
+      <c r="A30" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="13" customFormat="1">
+      <c r="A31" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="13" customFormat="1">
-      <c r="A25" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="13" customFormat="1">
-      <c r="A26" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C26" s="22" t="s">
+    <row r="32" spans="1:2" s="13" customFormat="1">
+      <c r="A32" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="13" customFormat="1">
+      <c r="A33" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="13" customFormat="1">
-      <c r="A27" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="13" customFormat="1">
-      <c r="A28" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C28" s="22" t="s">
+    <row r="34" spans="1:2" s="13" customFormat="1">
+      <c r="A34" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="13" customFormat="1">
+      <c r="A35" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="13" customFormat="1">
+      <c r="A36" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B36" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="13" customFormat="1">
-      <c r="A29" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="13" customFormat="1">
-      <c r="A30" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C30" s="22" t="s">
+    <row r="37" spans="1:2" s="13" customFormat="1">
+      <c r="A37" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="13" customFormat="1">
+      <c r="A38" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B38" s="22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="13" customFormat="1">
-      <c r="A31" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C31" s="22" t="s">
+    <row r="39" spans="1:2" s="13" customFormat="1">
+      <c r="A39" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="13" customFormat="1">
+      <c r="A40" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B40" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="13" customFormat="1">
-      <c r="A32" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C32" s="22" t="s">
+    <row r="41" spans="1:2" s="13" customFormat="1">
+      <c r="A41" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B41" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="13" customFormat="1">
-      <c r="A33" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C33" s="22" t="s">
+    <row r="42" spans="1:2" s="13" customFormat="1">
+      <c r="A42" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B42" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="13" customFormat="1">
-      <c r="A34" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C34" s="22" t="s">
+    <row r="43" spans="1:2" s="13" customFormat="1">
+      <c r="A43" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B43" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="13" customFormat="1">
-      <c r="A35" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C35" s="22" t="s">
+    <row r="44" spans="1:2" s="13" customFormat="1">
+      <c r="A44" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B44" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="13" customFormat="1">
-      <c r="A36" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C36" s="22" t="s">
+    <row r="45" spans="1:2" s="13" customFormat="1">
+      <c r="A45" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B45" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="13" customFormat="1">
-      <c r="A37" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C37" s="22" t="s">
+    <row r="46" spans="1:2" s="13" customFormat="1">
+      <c r="A46" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" s="13" customFormat="1">
+      <c r="A47" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B47" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="13" customFormat="1">
-      <c r="A38" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C38" s="22" t="s">
+    <row r="48" spans="1:2" s="13" customFormat="1">
+      <c r="A48" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B48" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="13" customFormat="1">
-      <c r="A39" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C39" s="22" t="s">
+    <row r="49" spans="1:2" s="13" customFormat="1">
+      <c r="A49" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B49" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="13" customFormat="1">
-      <c r="A40" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C40" s="22" t="s">
+    <row r="50" spans="1:2" s="13" customFormat="1">
+      <c r="A50" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B50" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="13" customFormat="1">
-      <c r="A41" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C41" s="22" t="s">
+    <row r="51" spans="1:2" s="13" customFormat="1">
+      <c r="A51" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B51" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="13" customFormat="1">
-      <c r="A42" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C42" s="22" t="s">
+    <row r="52" spans="1:2" s="13" customFormat="1">
+      <c r="A52" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B52" s="22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="13" customFormat="1">
-      <c r="A43" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C43" s="22" t="s">
+    <row r="53" spans="1:2" s="13" customFormat="1">
+      <c r="A53" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B53" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="13" customFormat="1">
-      <c r="A44" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C44" s="22" t="s">
+    <row r="54" spans="1:2" s="13" customFormat="1">
+      <c r="A54" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="13" customFormat="1">
+      <c r="A55" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B55" s="22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="13" customFormat="1">
-      <c r="A45" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C45" s="22" t="s">
+    <row r="56" spans="1:2" s="13" customFormat="1">
+      <c r="A56" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B56" s="22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="13" customFormat="1">
-      <c r="A46" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C46" s="22" t="s">
+    <row r="57" spans="1:2" s="13" customFormat="1">
+      <c r="A57" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="13" customFormat="1">
+      <c r="A58" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B58" s="22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="13" customFormat="1">
-      <c r="A47" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="13" customFormat="1">
-      <c r="A48" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C48" s="22" t="s">
+    <row r="59" spans="1:2" s="13" customFormat="1">
+      <c r="A59" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="13" customFormat="1">
+      <c r="A60" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B60" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="13" customFormat="1">
-      <c r="A49" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C49" s="22" t="s">
+    <row r="61" spans="1:2" s="13" customFormat="1">
+      <c r="A61" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B61" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="13" customFormat="1">
-      <c r="A50" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C50" s="22" t="s">
+    <row r="62" spans="1:2" s="13" customFormat="1">
+      <c r="A62" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B62" s="22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="13" customFormat="1">
-      <c r="A51" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C51" s="22" t="s">
+    <row r="63" spans="1:2" s="13" customFormat="1">
+      <c r="A63" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B63" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="13" customFormat="1">
-      <c r="A52" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C52" s="22" t="s">
+    <row r="64" spans="1:2" s="13" customFormat="1">
+      <c r="A64" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B64" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="13" customFormat="1">
-      <c r="A53" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C53" s="22" t="s">
+    <row r="65" spans="1:2" s="13" customFormat="1">
+      <c r="A65" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B65" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="13" customFormat="1">
-      <c r="A54" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C54" s="22" t="s">
+    <row r="66" spans="1:2" s="13" customFormat="1">
+      <c r="A66" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B66" s="22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="13" customFormat="1">
-      <c r="A55" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C55" s="22" t="s">
+    <row r="67" spans="1:2" s="13" customFormat="1">
+      <c r="A67" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B67" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="13" customFormat="1">
-      <c r="A56" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C56" s="22" t="s">
+    <row r="68" spans="1:2" s="13" customFormat="1">
+      <c r="A68" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B68" s="22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="13" customFormat="1">
-      <c r="A57" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C57" s="22" t="s">
+    <row r="69" spans="1:2" s="13" customFormat="1">
+      <c r="A69" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B69" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="13" customFormat="1">
-      <c r="A58" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C58" s="22" t="s">
+    <row r="70" spans="1:2" s="13" customFormat="1">
+      <c r="A70" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B70" s="22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="13" customFormat="1">
-      <c r="A59" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C59" s="22" t="s">
+    <row r="71" spans="1:2" s="13" customFormat="1">
+      <c r="A71" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B71" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="13" customFormat="1">
-      <c r="A60" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C60" s="22" t="s">
+    <row r="72" spans="1:2" s="13" customFormat="1">
+      <c r="A72" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B72" s="22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="13" customFormat="1">
-      <c r="A61" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C61" s="22" t="s">
+    <row r="73" spans="1:2" s="13" customFormat="1">
+      <c r="A73" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B73" s="22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="15" customFormat="1">
-      <c r="A62" s="15">
-        <v>2001</v>
-      </c>
-      <c r="B62" s="15">
-        <v>0</v>
-      </c>
-      <c r="C62" s="15" t="s">
+    <row r="74" spans="1:2" s="15" customFormat="1">
+      <c r="A74" s="15">
+        <v>2001</v>
+      </c>
+      <c r="B74" s="15" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="13" customFormat="1">
-      <c r="A63" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" s="13" customFormat="1">
-      <c r="A64" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C64" s="22" t="s">
+    <row r="75" spans="1:2" s="13" customFormat="1">
+      <c r="A75" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="13" customFormat="1">
+      <c r="A76" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" s="13" customFormat="1">
+      <c r="A77" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" s="13" customFormat="1">
+      <c r="A78" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="13" customFormat="1">
+      <c r="A79" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" s="13" customFormat="1">
+      <c r="A80" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" s="13" customFormat="1">
+      <c r="A81" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" s="13" customFormat="1">
+      <c r="A82" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" s="13" customFormat="1">
+      <c r="A83" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B83" s="22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="13" customFormat="1">
-      <c r="A65" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C65" s="22" t="s">
+    <row r="84" spans="1:2" s="13" customFormat="1">
+      <c r="A84" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B84" s="22" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="13" customFormat="1">
-      <c r="A66" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C66" s="22" t="s">
+    <row r="85" spans="1:2" s="13" customFormat="1">
+      <c r="A85" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" s="13" customFormat="1">
+      <c r="A86" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B86" s="22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="13" customFormat="1">
-      <c r="A67" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C67" s="22" t="s">
+    <row r="87" spans="1:2" s="13" customFormat="1">
+      <c r="A87" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" s="13" customFormat="1">
+      <c r="A88" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" s="13" customFormat="1">
+      <c r="A89" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" s="13" customFormat="1">
+      <c r="A90" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" s="13" customFormat="1">
+      <c r="A91" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" s="13" customFormat="1">
+      <c r="A92" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" s="13" customFormat="1">
+      <c r="A93" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" s="13" customFormat="1">
+      <c r="A94" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" s="13" customFormat="1">
+      <c r="A95" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B95" s="22" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="13" customFormat="1">
-      <c r="A68" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C68" s="22" t="s">
+    <row r="96" spans="1:2" s="13" customFormat="1">
+      <c r="A96" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" s="13" customFormat="1">
+      <c r="A97" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B97" s="22" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="13" customFormat="1">
-      <c r="A69" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C69" s="22" t="s">
+    <row r="98" spans="1:2" s="13" customFormat="1">
+      <c r="A98" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B98" s="22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="13" customFormat="1">
-      <c r="A70" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C70" s="22" t="s">
+    <row r="99" spans="1:2" s="13" customFormat="1">
+      <c r="A99" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" s="13" customFormat="1">
+      <c r="A100" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" s="13" customFormat="1">
+      <c r="A101" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B101" s="22" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="13" customFormat="1">
-      <c r="A71" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C71" s="22" t="s">
+    <row r="102" spans="1:2" s="13" customFormat="1">
+      <c r="A102" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" s="13" customFormat="1">
+      <c r="A103" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B103" s="22" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="13" customFormat="1">
-      <c r="A72" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C72" s="22" t="s">
+    <row r="104" spans="1:2" s="13" customFormat="1">
+      <c r="A104" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B104" s="22" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="13" customFormat="1">
-      <c r="A73" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C73" s="22" t="s">
+    <row r="105" spans="1:2" s="13" customFormat="1">
+      <c r="A105" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B105" s="22" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="13" customFormat="1">
-      <c r="A74" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C74" s="22" t="s">
+    <row r="106" spans="1:2" s="13" customFormat="1">
+      <c r="A106" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B106" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="13" customFormat="1">
-      <c r="A75" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C75" s="22" t="s">
+    <row r="107" spans="1:2" s="13" customFormat="1">
+      <c r="A107" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B107" s="22" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C76" s="22" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B108" s="22" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="13" customFormat="1">
-      <c r="A77" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C77" s="22" t="s">
+    <row r="109" spans="1:2" s="13" customFormat="1">
+      <c r="A109" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B109" s="22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="13" customFormat="1">
-      <c r="A78" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C78" s="22" t="s">
+    <row r="110" spans="1:2" s="13" customFormat="1">
+      <c r="A110" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B110" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="13" customFormat="1">
-      <c r="A79" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C79" s="22" t="s">
+    <row r="111" spans="1:2" s="13" customFormat="1">
+      <c r="A111" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B111" s="22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="13" customFormat="1">
-      <c r="A80" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" s="13" customFormat="1">
-      <c r="A81" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" s="13" customFormat="1">
-      <c r="A82" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C82" s="22" t="s">
+    <row r="112" spans="1:2" s="13" customFormat="1">
+      <c r="A112" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" s="13" customFormat="1">
+      <c r="A113" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" s="13" customFormat="1">
+      <c r="A114" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B114" s="22" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="13" customFormat="1">
-      <c r="A83" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C83" s="22" t="s">
+    <row r="115" spans="1:2" s="13" customFormat="1">
+      <c r="A115" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B115" s="22" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="13" customFormat="1">
-      <c r="A84" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C84" s="22" t="s">
+    <row r="116" spans="1:2" s="13" customFormat="1">
+      <c r="A116" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B116" s="22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="13" customFormat="1">
-      <c r="A85" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" s="13" customFormat="1">
-      <c r="A86" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C86" s="22" t="s">
+    <row r="117" spans="1:2" s="13" customFormat="1">
+      <c r="A117" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B117" s="22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" s="13" customFormat="1">
+      <c r="A118" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B118" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="13" customFormat="1">
-      <c r="A87" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C87" s="22" t="s">
+    <row r="119" spans="1:2" s="13" customFormat="1">
+      <c r="A119" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B119" s="22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="13" customFormat="1">
-      <c r="A88" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C88" s="22" t="s">
+    <row r="120" spans="1:2" s="13" customFormat="1">
+      <c r="A120" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B120" s="22" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="13" customFormat="1">
-      <c r="A89" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C89" s="22" t="s">
+    <row r="121" spans="1:2" s="13" customFormat="1">
+      <c r="A121" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B121" s="22" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="13" customFormat="1">
-      <c r="A90" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C90" s="22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" s="13" customFormat="1">
-      <c r="A91" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C91" s="22" t="s">
+    <row r="122" spans="1:2" s="13" customFormat="1">
+      <c r="A122" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B122" s="22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" s="13" customFormat="1">
+      <c r="A123" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B123" s="22" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="92" spans="1:3" s="13" customFormat="1">
-      <c r="A92" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C92" s="22" t="s">
+    <row r="124" spans="1:2" s="13" customFormat="1">
+      <c r="A124" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B124" s="22" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:3" s="13" customFormat="1">
-      <c r="A93" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C93" s="22" t="s">
+    <row r="125" spans="1:2" s="13" customFormat="1">
+      <c r="A125" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B125" s="22" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="13" customFormat="1">
-      <c r="A94" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C94" s="22" t="s">
+    <row r="126" spans="1:2" s="13" customFormat="1">
+      <c r="A126" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B126" s="22" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="95" spans="1:3" s="13" customFormat="1">
-      <c r="A95" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C95" s="22" t="s">
+    <row r="127" spans="1:2" s="13" customFormat="1">
+      <c r="A127" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B127" s="22" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="96" spans="1:3" s="13" customFormat="1">
-      <c r="A96" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C96" s="22" t="s">
+    <row r="128" spans="1:2" s="13" customFormat="1">
+      <c r="A128" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B128" s="22" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="13" customFormat="1">
-      <c r="A97" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C97" s="22" t="s">
+    <row r="129" spans="1:2" s="13" customFormat="1">
+      <c r="A129" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B129" s="22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="13" customFormat="1">
-      <c r="A98" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" s="13" customFormat="1">
-      <c r="A99" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C99" s="22" t="s">
+    <row r="130" spans="1:2" s="13" customFormat="1">
+      <c r="A130" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B130" s="22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" s="13" customFormat="1">
+      <c r="A131" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B131" s="22" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="13" customFormat="1">
-      <c r="A100" s="13">
-        <v>2001</v>
-      </c>
-      <c r="C100" s="22" t="s">
+    <row r="132" spans="1:2" s="13" customFormat="1">
+      <c r="A132" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B132" s="22" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="19" customFormat="1">
-      <c r="A102" s="19">
-        <v>2002</v>
-      </c>
-      <c r="B102" s="19">
-        <v>0</v>
-      </c>
-      <c r="C102" s="19" t="s">
+    <row r="133" spans="1:2" s="13" customFormat="1">
+      <c r="A133" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B133" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" s="13" customFormat="1">
+      <c r="A134" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B134" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" s="19" customFormat="1">
+      <c r="A136" s="19">
+        <v>2002</v>
+      </c>
+      <c r="B136" s="19" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C103" s="22" t="s">
+    <row r="137" spans="1:2" customFormat="1">
+      <c r="A137" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B137" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" customFormat="1">
+      <c r="A138" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B138" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" customFormat="1">
+      <c r="A139" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B139" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" customFormat="1">
+      <c r="A140" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B140" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B141" s="22" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C104" s="22" t="s">
+    <row r="142" spans="1:2">
+      <c r="A142" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B142" s="22" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C105" s="22" t="s">
+    <row r="143" spans="1:2">
+      <c r="A143" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B143" s="22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B144" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B145" s="22" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C107" s="22" t="s">
+    <row r="146" spans="1:2">
+      <c r="A146" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B146" s="22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B147" s="22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B148" s="22" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C108" s="22" t="s">
+    <row r="149" spans="1:2">
+      <c r="A149" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B149" s="22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B150" s="22" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C109" s="22" t="s">
+    <row r="151" spans="1:2">
+      <c r="A151" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B151" s="22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B152" s="22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B153" s="22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B154" s="22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B155" s="22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C110" s="22" t="s">
+    <row r="156" spans="1:2">
+      <c r="A156" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B156" s="22" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C111" s="22" t="s">
+    <row r="157" spans="1:2">
+      <c r="A157" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B157" s="22" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C112" s="22" t="s">
+    <row r="158" spans="1:2">
+      <c r="A158" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B158" s="22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B159" s="22" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B160" s="22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B161" s="22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B162" s="22" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C113" s="22" t="s">
+    <row r="163" spans="1:2">
+      <c r="A163" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B163" s="22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B164" s="22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B165" s="22" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C114" s="22" t="s">
+    <row r="166" spans="1:2">
+      <c r="A166" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B166" s="22" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C115" s="22" t="s">
+    <row r="167" spans="1:2">
+      <c r="A167" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B167" s="22" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C116" s="22" t="s">
+    <row r="168" spans="1:2">
+      <c r="A168" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B168" s="22" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C117" s="22" t="s">
+    <row r="169" spans="1:2">
+      <c r="A169" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B169" s="22" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C118" s="22" t="s">
+    <row r="170" spans="1:2">
+      <c r="A170" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B170" s="22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C119" s="22" t="s">
+    <row r="171" spans="1:2">
+      <c r="A171" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B171" s="22" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C120" s="22" t="s">
+    <row r="172" spans="1:2">
+      <c r="A172" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B172" s="22" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C121" s="22" t="s">
+    <row r="173" spans="1:2">
+      <c r="A173" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B173" s="22" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C122" s="22" t="s">
+    <row r="174" spans="1:2">
+      <c r="A174" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B174" s="22" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C123" s="22" t="s">
+    <row r="175" spans="1:2">
+      <c r="A175" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B175" s="22" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C124" s="22" t="s">
+    <row r="176" spans="1:2">
+      <c r="A176" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B176" s="22" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C125" s="22" t="s">
+    <row r="177" spans="1:2">
+      <c r="A177" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B177" s="22" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C126" s="22" t="s">
+    <row r="178" spans="1:2">
+      <c r="A178" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B178" s="22" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C127" s="22" t="s">
+    <row r="179" spans="1:2">
+      <c r="A179" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B179" s="22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C128" s="22" t="s">
+    <row r="180" spans="1:2">
+      <c r="A180" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B180" s="22" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C129" s="22" t="s">
+    <row r="181" spans="1:2">
+      <c r="A181" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B181" s="22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B182" s="22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B183" s="22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B184" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B185" s="22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B186" s="22" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B187" s="22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B188" s="22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B189" s="22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B190" s="22" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B191" s="22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B192" s="22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B193" s="22" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="12">
-        <v>2002</v>
-      </c>
-      <c r="C130" s="22" t="s">
+    <row r="194" spans="1:2">
+      <c r="A194" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B194" s="22" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="131" spans="1:3" s="28" customFormat="1">
-      <c r="A131" s="28">
-        <v>2003</v>
-      </c>
-      <c r="B131" s="28">
-        <v>0</v>
-      </c>
-      <c r="C131" s="29" t="s">
+    <row r="195" spans="1:2" s="28" customFormat="1">
+      <c r="A195" s="28">
+        <v>2003</v>
+      </c>
+      <c r="B195" s="29" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C132" s="22" t="s">
+    <row r="196" spans="1:2" customFormat="1">
+      <c r="A196" s="36">
+        <v>2003</v>
+      </c>
+      <c r="B196" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" customFormat="1">
+      <c r="A197" s="36">
+        <v>2003</v>
+      </c>
+      <c r="B197" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B198" s="22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C133" s="22" t="s">
+    <row r="199" spans="1:2">
+      <c r="A199" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B199" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B200" s="22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C134" s="22" t="s">
+    <row r="201" spans="1:2">
+      <c r="A201" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B201" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C135" s="22" t="s">
+    <row r="202" spans="1:2">
+      <c r="A202" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B202" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C136" s="22" t="s">
+    <row r="203" spans="1:2">
+      <c r="A203" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B203" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C137" s="22" t="s">
+    <row r="204" spans="1:2">
+      <c r="A204" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B204" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C138" s="22" t="s">
+    <row r="205" spans="1:2">
+      <c r="A205" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B205" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C139" s="22" t="s">
+    <row r="206" spans="1:2">
+      <c r="A206" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B206" s="22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C140" s="22" t="s">
+    <row r="207" spans="1:2">
+      <c r="A207" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B207" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C141" s="22" t="s">
+    <row r="208" spans="1:2">
+      <c r="A208" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B208" s="22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C142" s="22" t="s">
+    <row r="209" spans="1:2">
+      <c r="A209" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B209" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C143" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C144" s="22" t="s">
+    <row r="210" spans="1:2">
+      <c r="A210" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B210" s="22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B211" s="22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B212" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C145" s="22" t="s">
+    <row r="213" spans="1:2">
+      <c r="A213" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B213" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C146" s="22" t="s">
+    <row r="214" spans="1:2">
+      <c r="A214" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B214" s="22" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B215" s="22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C147" s="22" t="s">
+    <row r="216" spans="1:2">
+      <c r="A216" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B216" s="22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B217" s="22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B218" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C148" s="22" t="s">
+    <row r="219" spans="1:2">
+      <c r="A219" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B219" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C149" s="22" t="s">
+    <row r="220" spans="1:2">
+      <c r="A220" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B220" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C150" s="22" t="s">
+    <row r="221" spans="1:2">
+      <c r="A221" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B221" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C151" s="22" t="s">
+    <row r="222" spans="1:2">
+      <c r="A222" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B222" s="22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C152" s="22" t="s">
+    <row r="223" spans="1:2">
+      <c r="A223" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B223" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C153" s="22" t="s">
+    <row r="224" spans="1:2">
+      <c r="A224" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B224" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C154" s="22" t="s">
+    <row r="225" spans="1:2">
+      <c r="A225" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B225" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C155" s="22" t="s">
+    <row r="226" spans="1:2">
+      <c r="A226" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B226" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C156" s="22" t="s">
+    <row r="227" spans="1:2">
+      <c r="A227" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B227" s="22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C157" s="22" t="s">
+    <row r="228" spans="1:2">
+      <c r="A228" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B228" s="22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C158" s="22" t="s">
+    <row r="229" spans="1:2">
+      <c r="A229" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B229" s="22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C159" s="22" t="s">
+    <row r="230" spans="1:2">
+      <c r="A230" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B230" s="22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C160" s="22" t="s">
+    <row r="231" spans="1:2">
+      <c r="A231" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B231" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C161" s="22" t="s">
+    <row r="232" spans="1:2">
+      <c r="A232" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B232" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C162" s="22" t="s">
+    <row r="233" spans="1:2">
+      <c r="A233" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B233" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C163" s="22" t="s">
+    <row r="234" spans="1:2">
+      <c r="A234" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B234" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C164" s="22" t="s">
+    <row r="235" spans="1:2">
+      <c r="A235" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B235" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C165" s="22" t="s">
+    <row r="236" spans="1:2">
+      <c r="A236" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B236" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C166" s="22" t="s">
+    <row r="237" spans="1:2">
+      <c r="A237" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B237" s="22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C167" s="22" t="s">
+    <row r="238" spans="1:2">
+      <c r="A238" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B238" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C168" s="22" t="s">
+    <row r="239" spans="1:2">
+      <c r="A239" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B239" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C169" s="22" t="s">
+    <row r="240" spans="1:2">
+      <c r="A240" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B240" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C170" s="22" t="s">
+    <row r="241" spans="1:6">
+      <c r="A241" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B241" s="22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C171" s="22" t="s">
+    <row r="242" spans="1:6">
+      <c r="A242" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B242" s="22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C172" s="22" t="s">
+    <row r="243" spans="1:6">
+      <c r="A243" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B243" s="22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C173" s="22" t="s">
+    <row r="244" spans="1:6">
+      <c r="A244" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B244" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C174" s="22" t="s">
+    <row r="245" spans="1:6">
+      <c r="A245" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B245" s="22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C175" s="22" t="s">
+    <row r="246" spans="1:6">
+      <c r="A246" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B246" s="22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C176" s="22" t="s">
+    <row r="247" spans="1:6">
+      <c r="A247" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B247" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C177" s="22" t="s">
+    <row r="248" spans="1:6">
+      <c r="A248" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B248" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C178" s="22" t="s">
+    <row r="249" spans="1:6">
+      <c r="A249" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B249" s="22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C179" s="22" t="s">
+    <row r="250" spans="1:6">
+      <c r="A250" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B250" s="22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
-      <c r="A180" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C180" s="22" t="s">
+    <row r="251" spans="1:6">
+      <c r="A251" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B251" s="22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="12">
-        <v>2003</v>
-      </c>
-      <c r="C181" s="22" t="s">
+    <row r="252" spans="1:6">
+      <c r="A252" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B252" s="22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="182" spans="1:7" s="15" customFormat="1">
-      <c r="A182" s="15">
+    <row r="253" spans="1:6" s="15" customFormat="1">
+      <c r="A253" s="15">
         <v>2004</v>
       </c>
-      <c r="B182" s="15">
-        <v>0</v>
-      </c>
-      <c r="C182" s="33" t="s">
+      <c r="B253" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="G182" s="33"/>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="12">
+      <c r="F253" s="33"/>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="12">
         <v>2004</v>
       </c>
-      <c r="C183" s="22" t="s">
+      <c r="B254" s="22" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="12">
+    <row r="255" spans="1:6">
+      <c r="A255" s="12">
         <v>2004</v>
       </c>
-      <c r="C184" s="22" t="s">
+      <c r="B255" s="22" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="12">
+    <row r="256" spans="1:6">
+      <c r="A256" s="12">
         <v>2004</v>
       </c>
-      <c r="C185" s="22" t="s">
+      <c r="B256" s="22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="12">
+    <row r="257" spans="1:2">
+      <c r="A257" s="12">
         <v>2004</v>
       </c>
-      <c r="C186" s="22" t="s">
+      <c r="B257" s="22" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="12">
+    <row r="258" spans="1:2">
+      <c r="A258" s="12">
         <v>2004</v>
       </c>
-      <c r="C187" s="22" t="s">
+      <c r="B258" s="22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="188" spans="1:7" s="34" customFormat="1">
-      <c r="A188" s="34">
+    <row r="259" spans="1:2" s="34" customFormat="1">
+      <c r="A259" s="34">
         <v>2005</v>
       </c>
-      <c r="B188" s="34">
-        <v>0</v>
-      </c>
-      <c r="C188" s="35" t="s">
+      <c r="B259" s="35" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="12">
+    <row r="260" spans="1:2">
+      <c r="A260" s="12">
         <v>2005</v>
       </c>
-      <c r="C189" s="22" t="s">
+      <c r="B260" s="22" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="12">
+    <row r="261" spans="1:2">
+      <c r="A261" s="12">
         <v>2005</v>
       </c>
-      <c r="C190" s="22" t="s">
+      <c r="B261" s="22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="12">
+        <v>2005</v>
+      </c>
+      <c r="B262" s="22" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="12">
+    <row r="263" spans="1:2">
+      <c r="A263" s="12">
         <v>2005</v>
       </c>
-      <c r="C191" s="22" t="s">
+      <c r="B263" s="22" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="12">
+    <row r="264" spans="1:2">
+      <c r="A264" s="12">
         <v>2005</v>
       </c>
-      <c r="C192" s="22" t="s">
+      <c r="B264" s="22" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="12">
+    <row r="265" spans="1:2">
+      <c r="A265" s="12">
         <v>2005</v>
       </c>
-      <c r="C193" s="22" t="s">
+      <c r="B265" s="22" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="12">
+    <row r="266" spans="1:2">
+      <c r="A266" s="12">
         <v>2005</v>
       </c>
-      <c r="C194" s="22" t="s">
+      <c r="B266" s="22" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="12">
+    <row r="267" spans="1:2">
+      <c r="A267" s="12">
         <v>2005</v>
       </c>
-      <c r="C195" s="22" t="s">
+      <c r="B267" s="22" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="12">
+    <row r="268" spans="1:2">
+      <c r="A268" s="12">
         <v>2005</v>
       </c>
-      <c r="C196" s="22" t="s">
+      <c r="B268" s="22" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="12">
+    <row r="269" spans="1:2">
+      <c r="A269" s="12">
         <v>2005</v>
       </c>
-      <c r="C197" s="22" t="s">
+      <c r="B269" s="22" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="12">
+    <row r="270" spans="1:2">
+      <c r="A270" s="12">
         <v>2005</v>
       </c>
-      <c r="C198" s="22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="12">
+      <c r="B270" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="12">
         <v>2005</v>
       </c>
-      <c r="C199" s="22" t="s">
+      <c r="B271" s="22" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="200" spans="1:7" s="13" customFormat="1">
-      <c r="A200" s="13">
+    <row r="272" spans="1:2" s="13" customFormat="1">
+      <c r="A272" s="13">
         <v>2005</v>
       </c>
-      <c r="C200" s="22" t="s">
+      <c r="B272" s="22" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="201" spans="1:7" s="13" customFormat="1">
-      <c r="A201" s="13">
+    <row r="273" spans="1:6" s="13" customFormat="1">
+      <c r="A273" s="13">
         <v>2005</v>
       </c>
-      <c r="C201" s="22" t="s">
+      <c r="B273" s="22" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="202" spans="1:7" s="13" customFormat="1">
-      <c r="A202" s="13">
+    <row r="274" spans="1:6" s="13" customFormat="1">
+      <c r="A274" s="13">
         <v>2005</v>
       </c>
-      <c r="C202" s="22" t="s">
+      <c r="B274" s="22" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="203" spans="1:7" s="13" customFormat="1">
-      <c r="A203" s="13">
+    <row r="275" spans="1:6" s="13" customFormat="1">
+      <c r="A275" s="13">
         <v>2005</v>
       </c>
-      <c r="C203" s="22" t="s">
+      <c r="B275" s="22" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
-      <c r="G204" s="25"/>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="G206" s="25"/>
+    <row r="276" spans="1:6">
+      <c r="A276" s="12">
+        <v>2005</v>
+      </c>
+      <c r="B276" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F276" s="25"/>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="12">
+        <v>2005</v>
+      </c>
+      <c r="B277" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="F278" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" location="bi" display="bi" xr:uid="{BABC1E17-EE1C-4F40-A81B-A67D11E1E58E}"/>
-    <hyperlink ref="C5" r:id="rId2" location="km" display="https://www.internetworldstats.com/africa.htm - km" xr:uid="{7D9C33B7-37D7-44D4-BF85-17F8E40703E3}"/>
-    <hyperlink ref="C6" r:id="rId3" location="dj" display="https://www.internetworldstats.com/africa.htm - dj" xr:uid="{F508DCC8-21C5-4030-A8EA-F0FF513858FC}"/>
-    <hyperlink ref="C7" r:id="rId4" location="er" display="https://www.internetworldstats.com/africa.htm - er" xr:uid="{C7292C68-E28D-4911-8E34-70C6F470A131}"/>
-    <hyperlink ref="C8" r:id="rId5" location="et" display="https://www.internetworldstats.com/africa.htm - et" xr:uid="{7D0833DF-A115-42B3-B3A7-84A8825D7C1E}"/>
-    <hyperlink ref="C9" r:id="rId6" location="ke" display="https://www.internetworldstats.com/africa.htm - ke" xr:uid="{3376C38D-0D07-40AE-9B87-76444A12D1CD}"/>
-    <hyperlink ref="C10" r:id="rId7" location="mg" display="https://www.internetworldstats.com/africa.htm - mg" xr:uid="{23F22B82-ED1F-430B-AA1D-6FC434614EE6}"/>
-    <hyperlink ref="C11" r:id="rId8" location="mw" display="https://www.internetworldstats.com/africa.htm - mw" xr:uid="{C745FBAE-FD55-44B7-B6BE-730A11C87922}"/>
-    <hyperlink ref="C12" r:id="rId9" location="mu" display="https://www.internetworldstats.com/africa.htm - mu" xr:uid="{AD93A047-E344-48CE-85E0-903764AEB4DE}"/>
-    <hyperlink ref="C13" r:id="rId10" location="yt" display="https://www.internetworldstats.com/africa.htm - yt" xr:uid="{E3BB5889-8702-4BCE-A60E-F6DACB3FB106}"/>
-    <hyperlink ref="C14" r:id="rId11" location="mz" display="https://www.internetworldstats.com/africa.htm - mz" xr:uid="{7DF464BB-E5A5-4A82-BEFF-D8E0FE81040F}"/>
-    <hyperlink ref="C15" r:id="rId12" location="re" display="https://www.internetworldstats.com/africa.htm - re" xr:uid="{040E3044-ECEE-4E8B-BEBF-82C64A8A53C4}"/>
-    <hyperlink ref="C16" r:id="rId13" location="rw" display="https://www.internetworldstats.com/africa.htm - rw" xr:uid="{245C52B3-4F12-4B72-A46F-E38C0E3A3716}"/>
-    <hyperlink ref="C17" r:id="rId14" location="sc" display="https://www.internetworldstats.com/africa.htm - sc" xr:uid="{DF4043EE-6C7B-4EB6-B678-88E93467A282}"/>
-    <hyperlink ref="C18" r:id="rId15" location="so" display="https://www.internetworldstats.com/africa.htm - so" xr:uid="{8B4F053F-31B5-4FB5-90E7-D96BEB063F30}"/>
-    <hyperlink ref="C19" r:id="rId16" location="tz" display="https://www.internetworldstats.com/africa.htm - tz" xr:uid="{67C1D454-70F0-4B1C-8FFC-A55408E6DEDA}"/>
-    <hyperlink ref="C20" r:id="rId17" location="ug" display="https://www.internetworldstats.com/africa.htm - ug" xr:uid="{1645E0D6-D71B-4651-BD6D-F6234DA741EC}"/>
-    <hyperlink ref="C21" r:id="rId18" location="zm" display="https://www.internetworldstats.com/africa.htm - zm" xr:uid="{4C349B6F-D397-44EB-A88B-2793AEE360A2}"/>
-    <hyperlink ref="C22" r:id="rId19" location="zw" display="https://www.internetworldstats.com/africa.htm - zw" xr:uid="{504DA1A6-6EEF-4C2D-8353-CC61355B469E}"/>
-    <hyperlink ref="C23" r:id="rId20" location="ao" display="https://www.internetworldstats.com/africa.htm - ao" xr:uid="{6876F028-90BA-4A1E-8F97-26E2340D41A9}"/>
-    <hyperlink ref="C24" r:id="rId21" location="cm" display="https://www.internetworldstats.com/africa.htm - cm" xr:uid="{14B230B8-8C59-4838-8CD6-51BABEBA1E4F}"/>
-    <hyperlink ref="C25" r:id="rId22" location="cf" display="https://www.internetworldstats.com/africa.htm - cf" xr:uid="{F773DF09-808D-45A4-BE9C-1A1A5D238E66}"/>
-    <hyperlink ref="C26" r:id="rId23" location="td" display="https://www.internetworldstats.com/africa.htm - td" xr:uid="{927C4D6B-AAD5-4BFF-A981-6A1B8CEE2B89}"/>
-    <hyperlink ref="C27" r:id="rId24" location="cg" display="https://www.internetworldstats.com/africa.htm - cg" xr:uid="{0FEA4CFE-49E8-4D4B-8267-4442DC3C82BC}"/>
-    <hyperlink ref="C28" r:id="rId25" location="cd" display="https://www.internetworldstats.com/africa.htm - cd" xr:uid="{D93205F3-6A2C-4CB2-952A-BF7693B655C6}"/>
-    <hyperlink ref="C29" r:id="rId26" location="gq" display="https://www.internetworldstats.com/africa.htm - gq" xr:uid="{F7AD3F8C-1B49-45CE-A8FF-6031CE5337F2}"/>
-    <hyperlink ref="C30" r:id="rId27" location="ga" display="https://www.internetworldstats.com/africa.htm - ga" xr:uid="{1479C478-91E4-4053-9955-28A1054F8195}"/>
-    <hyperlink ref="C31" r:id="rId28" location="st" display="https://www.internetworldstats.com/africa.htm - st" xr:uid="{7E9D7C16-F6EE-4A7E-9089-3304A5B6479F}"/>
-    <hyperlink ref="C32" r:id="rId29" location="dz" display="https://www.internetworldstats.com/africa.htm - dz" xr:uid="{FDCFBE39-FAD6-48F8-A9E9-9C8851498FEA}"/>
-    <hyperlink ref="C33" r:id="rId30" location="eg" display="https://www.internetworldstats.com/africa.htm - eg" xr:uid="{FBFF0CAD-5FF7-4ED8-B327-4BCB51D85F00}"/>
-    <hyperlink ref="C34" r:id="rId31" location="ly" display="https://www.internetworldstats.com/africa.htm - ly" xr:uid="{113F9DEF-2ED3-4382-B736-7513BEAEE7A3}"/>
-    <hyperlink ref="C35" r:id="rId32" location="ma" display="https://www.internetworldstats.com/africa.htm - ma" xr:uid="{90E7A41C-CB59-493B-A677-28ED73B798B4}"/>
-    <hyperlink ref="C36" r:id="rId33" location="ss" display="https://www.internetworldstats.com/africa.htm - ss" xr:uid="{8BF79AA7-044D-4EED-8F12-782DB99EF592}"/>
-    <hyperlink ref="C37" r:id="rId34" location="sd" display="https://www.internetworldstats.com/africa.htm - sd" xr:uid="{B71FC1FD-F7E6-443A-937B-33A7763B3237}"/>
-    <hyperlink ref="C38" r:id="rId35" location="tn" display="https://www.internetworldstats.com/africa.htm - tn" xr:uid="{DF715543-C352-4A7B-9717-7E12D976DD3C}"/>
-    <hyperlink ref="C39" r:id="rId36" location="st" display="https://www.internetworldstats.com/africa.htm - st" xr:uid="{E2A6DC44-E169-43DB-91D4-5975EB90FE16}"/>
-    <hyperlink ref="C40" r:id="rId37" location="bw" display="https://www.internetworldstats.com/africa.htm - bw" xr:uid="{300C6A95-0AE4-49C9-9E76-68AE5CEA84BA}"/>
-    <hyperlink ref="C41" r:id="rId38" location="sz" display="https://www.internetworldstats.com/africa.htm - sz" xr:uid="{960DCEBF-ED98-47EA-875D-7603FB5CA5A7}"/>
-    <hyperlink ref="C42" r:id="rId39" location="ls" display="https://www.internetworldstats.com/africa.htm - ls" xr:uid="{6E0BEA38-778C-493E-A15D-8DEDFC8C2694}"/>
-    <hyperlink ref="C43" r:id="rId40" location="na" display="https://www.internetworldstats.com/africa.htm - na" xr:uid="{38760EEE-613F-4613-B0F7-582CA6A103A8}"/>
-    <hyperlink ref="C44" r:id="rId41" location="za" display="https://www.internetworldstats.com/africa.htm - za" xr:uid="{DF07E74C-3D10-4F89-99B2-3BBB3F32DD92}"/>
-    <hyperlink ref="C45" r:id="rId42" location="bj" display="https://www.internetworldstats.com/africa.htm - bj" xr:uid="{24B75A85-3DAD-4DBE-BD71-495E9244EFC5}"/>
-    <hyperlink ref="C46" r:id="rId43" location="bf" display="https://www.internetworldstats.com/africa.htm - bf" xr:uid="{1988188B-4859-435F-9214-504D3109DAFB}"/>
-    <hyperlink ref="C47" r:id="rId44" location="cv" display="https://www.internetworldstats.com/africa.htm - cv" xr:uid="{8E0287AC-CB4C-4B91-B044-89A7DFAAB7B8}"/>
-    <hyperlink ref="C48" r:id="rId45" location="ci" display="https://www.internetworldstats.com/africa.htm - ci" xr:uid="{70DEB09C-7FCA-4DE9-85E8-E8BD50AC81B1}"/>
-    <hyperlink ref="C49" r:id="rId46" location="gm" display="gm" xr:uid="{27688B10-15EB-4A80-8661-3B11A45A6E0E}"/>
-    <hyperlink ref="C50" r:id="rId47" location="gh" display="https://www.internetworldstats.com/africa.htm - gh" xr:uid="{A52FF825-F4D0-4FC4-A48E-7D29DEFBB6D3}"/>
-    <hyperlink ref="C51" r:id="rId48" location="gn" display="https://www.internetworldstats.com/africa.htm - gn" xr:uid="{F8CB6567-831D-4F60-B822-0396C7A2DA08}"/>
-    <hyperlink ref="C52" r:id="rId49" location="gw" display="https://www.internetworldstats.com/africa.htm - gw" xr:uid="{202EC057-428D-472F-B7AE-D68CD8966E92}"/>
-    <hyperlink ref="C53" r:id="rId50" location="lr" display="https://www.internetworldstats.com/africa.htm - lr" xr:uid="{A63BE2BE-3F1A-4F87-A1E5-8CB4D93EA271}"/>
-    <hyperlink ref="C54" r:id="rId51" location="ml" display="https://www.internetworldstats.com/africa.htm - ml" xr:uid="{E57F40C5-84F8-4EA0-B729-A6FF7118A166}"/>
-    <hyperlink ref="C55" r:id="rId52" location="mr" display="https://www.internetworldstats.com/africa.htm - mr" xr:uid="{B3BFD67C-42D8-4F08-85A2-39FBDC54F687}"/>
-    <hyperlink ref="C56" r:id="rId53" location="ne" display="https://www.internetworldstats.com/africa.htm - ne" xr:uid="{B28392D2-1329-48D2-9DC6-90EBCD6004B0}"/>
-    <hyperlink ref="C57" r:id="rId54" location="ng" display="https://www.internetworldstats.com/africa.htm - ng" xr:uid="{DBC7E1F7-1A74-4B76-AB4C-FE2DA69267AB}"/>
-    <hyperlink ref="C58" r:id="rId55" location="sh" display="https://www.internetworldstats.com/africa.htm - sh" xr:uid="{61A23F6C-7350-47E5-B15E-DC1C291BF920}"/>
-    <hyperlink ref="C59" r:id="rId56" location="sn" display="https://www.internetworldstats.com/africa.htm - sn" xr:uid="{61DF9310-2996-4525-86ED-D4DFFC269D03}"/>
-    <hyperlink ref="C60" r:id="rId57" location="sl" display="https://www.internetworldstats.com/africa.htm - sl" xr:uid="{F07D8924-0544-44F5-BB53-AFC38E312E19}"/>
-    <hyperlink ref="C61" r:id="rId58" location="tg" display="https://www.internetworldstats.com/africa.htm - tg" xr:uid="{0CAD2C3B-0A61-4504-B89E-1E40B48C790F}"/>
-    <hyperlink ref="C96" r:id="rId59" location="am" display="https://www.internetworldstats.com/asia.htm - am" xr:uid="{F770424F-0BF4-49AB-A8AC-8FDC2E420093}"/>
-    <hyperlink ref="C97" r:id="rId60" location="az" display="https://www.internetworldstats.com/asia.htm - az" xr:uid="{115B3A81-39D0-4BD9-B16F-C37C9CF118AB}"/>
-    <hyperlink ref="C65" r:id="rId61" location="bt" display="https://www.internetworldstats.com/asia.htm - bt" xr:uid="{ACC3F2CA-B062-40FD-880F-38ADCCC71957}"/>
-    <hyperlink ref="C85" r:id="rId62" location="bn" display="https://www.internetworldstats.com/asia.htm - bn" xr:uid="{A88F6E79-ABEC-4680-A528-57167B3F741F}"/>
-    <hyperlink ref="C86" r:id="rId63" location="kh" display="https://www.internetworldstats.com/asia.htm - kh" xr:uid="{531EFB26-CDD7-4246-B91E-FFD71E24ED3B}"/>
-    <hyperlink ref="C77" r:id="rId64" location="cn" display="https://www.internetworldstats.com/asia.htm - cn" xr:uid="{18A1A2D7-D4B7-4FEE-B8A7-20EFD59CC556}"/>
-    <hyperlink ref="C100" r:id="rId65" location="ge" display="https://www.internetworldstats.com/asia.htm - ge" xr:uid="{7F164D09-A27C-4496-88CF-E4E37DBDCB38}"/>
-    <hyperlink ref="C78" r:id="rId66" location="hk" display="https://www.internetworldstats.com/asia.htm - hk" xr:uid="{2D0F4255-F11C-4055-AB30-E23944676280}"/>
-    <hyperlink ref="C66" r:id="rId67" location="in" display="https://www.internetworldstats.com/asia.htm - in" xr:uid="{39970B56-1674-4A01-B294-FAFF5194241F}"/>
-    <hyperlink ref="C87" r:id="rId68" location="id" display="https://www.internetworldstats.com/asia.htm - id" xr:uid="{4560A6E5-1221-46AC-8F15-BBA2884770E9}"/>
-    <hyperlink ref="C79" r:id="rId69" location="jp" display="https://www.internetworldstats.com/asia.htm - jp" xr:uid="{E82855F7-C4B8-48FF-8600-CE009786C359}"/>
-    <hyperlink ref="C68" r:id="rId70" location="kz" display="https://www.internetworldstats.com/asia.htm - kz" xr:uid="{5C363626-49B3-4991-B26A-175C0717324A}"/>
-    <hyperlink ref="C80" r:id="rId71" location="kp" display="https://www.internetworldstats.com/asia.htm - kp" xr:uid="{2EC74BD9-707D-4B1B-9449-96152A1FAAEE}"/>
-    <hyperlink ref="C81" r:id="rId72" location="kr" display="https://www.internetworldstats.com/asia.htm - kr" xr:uid="{9155F3E1-7D7E-4B01-BDFF-72D2C533F7DF}"/>
-    <hyperlink ref="C69" r:id="rId73" location="kg" display="https://www.internetworldstats.com/asia.htm - kg" xr:uid="{AEB5B50F-5E23-4C53-A258-913760EFCD6A}"/>
-    <hyperlink ref="C88" r:id="rId74" location="la" display="https://www.internetworldstats.com/asia.htm - la" xr:uid="{7B2A2A72-650F-4232-9113-E46457EEB8F3}"/>
-    <hyperlink ref="C82" r:id="rId75" location="mo" display="https://www.internetworldstats.com/asia.htm - mo" xr:uid="{36BDD0D7-708E-40EE-8C5E-C0B634D44AE4}"/>
-    <hyperlink ref="C89" r:id="rId76" location="my" display="https://www.internetworldstats.com/asia.htm - my" xr:uid="{1F33F2BF-63C4-4635-B0C0-9B9045B3813F}"/>
-    <hyperlink ref="C70" r:id="rId77" location="mv" display="https://www.internetworldstats.com/asia.htm - mv" xr:uid="{56321E6C-C57C-439A-BC38-CA2A39A5CA29}"/>
-    <hyperlink ref="C83" r:id="rId78" location="mn" display="https://www.internetworldstats.com/asia.htm - mn" xr:uid="{9431BCB2-4DB8-4289-94AF-42CA7AECB538}"/>
-    <hyperlink ref="C90" r:id="rId79" location="mm" display="https://www.internetworldstats.com/asia.htm - mm" xr:uid="{D52F470F-EE63-4E53-A4BD-2357C7F0800E}"/>
-    <hyperlink ref="C71" r:id="rId80" location="np" display="https://www.internetworldstats.com/asia.htm - np" xr:uid="{48E4FDB0-FDA3-4F85-A3DF-2DCECFF985B1}"/>
-    <hyperlink ref="C72" r:id="rId81" location="pk" display="https://www.internetworldstats.com/asia.htm - pk" xr:uid="{70D9F5DB-2855-4CF3-A6BC-F9EBE9D31A9B}"/>
-    <hyperlink ref="C91" r:id="rId82" location="ph" display="https://www.internetworldstats.com/asia.htm - ph" xr:uid="{7773186C-CD8F-47F2-A11B-15B091EF0330}"/>
-    <hyperlink ref="C92" r:id="rId83" location="sg" display="https://www.internetworldstats.com/asia.htm - sg" xr:uid="{A10A09B5-89BD-41F7-8B61-5A324381B983}"/>
-    <hyperlink ref="C73" r:id="rId84" location="lk" display="https://www.internetworldstats.com/asia.htm - lk" xr:uid="{ECCA86BA-9720-49C9-8F08-D074738FD100}"/>
-    <hyperlink ref="C84" r:id="rId85" location="tw" display="https://www.internetworldstats.com/asia.htm - tw" xr:uid="{3A293983-4BB0-4172-9A5E-5DA19E8B7F4D}"/>
-    <hyperlink ref="C74" r:id="rId86" location="tj" display="https://www.internetworldstats.com/asia.htm - tj" xr:uid="{F6A4B091-5088-4628-A2AD-5B4746A23002}"/>
-    <hyperlink ref="C93" r:id="rId87" location="th" display="https://www.internetworldstats.com/asia.htm - th" xr:uid="{870D1F3C-6A75-4171-AD33-917E62F373C5}"/>
-    <hyperlink ref="C94" r:id="rId88" location="tl" display="https://www.internetworldstats.com/asia.htm - tl" xr:uid="{2F9007D0-A3B4-421F-9BCD-A45EABBD17C3}"/>
-    <hyperlink ref="C75" r:id="rId89" location="tm" display="https://www.internetworldstats.com/asia.htm - tm" xr:uid="{E87E59D2-5CA1-4572-8B0F-1D1F38DAB1C2}"/>
-    <hyperlink ref="C76" r:id="rId90" location="uz" display="https://www.internetworldstats.com/asia.htm - uz" xr:uid="{96A7DBB9-AB5C-4855-A9A7-E554C625FC52}"/>
-    <hyperlink ref="C95" r:id="rId91" location="vn" display="https://www.internetworldstats.com/asia.htm - vn" xr:uid="{75C99AE0-9A0C-4711-8B07-3F1377B8E474}"/>
-    <hyperlink ref="C63" r:id="rId92" location="af" display="https://www.internetworldstats.com/asia.htm - af" xr:uid="{92BC515D-68A5-4646-BA3F-44A769EEA4B6}"/>
-    <hyperlink ref="C64" r:id="rId93" location="bd" display="https://www.internetworldstats.com/asia.htm - bd" xr:uid="{7EB58D4C-E246-4960-BF73-980687FBA987}"/>
-    <hyperlink ref="C103" r:id="rId94" location="al" display="https://www.internetworldstats.com/europa2.htm - al" xr:uid="{DB5E26C6-6DB0-440C-B5D5-8F6CFAEB37DF}"/>
-    <hyperlink ref="C104" r:id="rId95" location="ad" display="https://www.internetworldstats.com/europa2.htm - ad" xr:uid="{B4D59FA1-066C-41A6-A50B-FE5AF0F8A6B6}"/>
-    <hyperlink ref="C105" r:id="rId96" location="by" display="https://www.internetworldstats.com/europa2.htm - by" xr:uid="{EA89F209-E274-45CB-9FFF-66AF669625B8}"/>
-    <hyperlink ref="C106" r:id="rId97" location="ba" display="https://www.internetworldstats.com/europa2.htm - ba" xr:uid="{1C8D5AC1-1C9E-461A-B88C-EAC77E5B7187}"/>
-    <hyperlink ref="C107" r:id="rId98" location="hr" display="https://www.internetworldstats.com/europa1.htm - hr" xr:uid="{9977ED11-4294-48F4-AF2B-348613ABE00B}"/>
-    <hyperlink ref="C108" r:id="rId99" display="https://www.internetworldstats.com/europa.htm" xr:uid="{FD4187A3-3413-4D03-BEC7-E1EA8CE0F114}"/>
-    <hyperlink ref="C109" r:id="rId100" location="fo" display="https://www.internetworldstats.com/europa2.htm - fo" xr:uid="{62E50065-6A00-4A85-BFDB-B63339897D31}"/>
-    <hyperlink ref="C110" r:id="rId101" location="gi" display="https://www.internetworldstats.com/europa2.htm - gi" xr:uid="{134DB8F5-AFE8-42EE-8137-2541BADD0605}"/>
-    <hyperlink ref="C111" r:id="rId102" location="gg" display="https://www.internetworldstats.com/europa2.htm - gg" xr:uid="{9A513AD6-FC12-4B64-A8BB-DFDE32F530AF}"/>
-    <hyperlink ref="C112" r:id="rId103" location="is" display="https://www.internetworldstats.com/europa2.htm - is" xr:uid="{1B7887BC-C084-4E8B-B533-706CF7C46AC5}"/>
-    <hyperlink ref="C113" r:id="rId104" location="je" display="https://www.internetworldstats.com/europa2.htm - je" xr:uid="{1FD6969D-95BB-4582-A2DE-2A6BC0D25604}"/>
-    <hyperlink ref="C114" r:id="rId105" location="kv" display="https://www.internetworldstats.com/europa2.htm - kv" xr:uid="{3CC6A200-DEAC-4AA7-A0BA-68A94B882BBC}"/>
-    <hyperlink ref="C115" r:id="rId106" location="li" display="https://www.internetworldstats.com/europa2.htm - li" xr:uid="{82E8C1B4-3C36-4236-9F06-40CF859952F3}"/>
-    <hyperlink ref="C116" r:id="rId107" display="https://www.internetworldstats.com/europa2.htm" xr:uid="{CFB50494-88D0-4FC1-A859-7E1D173B914A}"/>
-    <hyperlink ref="C117" r:id="rId108" location="md" display="https://www.internetworldstats.com/europa2.htm - md" xr:uid="{8FB1FA33-A347-4A32-96CF-32360F1AC5AC}"/>
-    <hyperlink ref="C118" r:id="rId109" location="mc" display="https://www.internetworldstats.com/europa2.htm - mc" xr:uid="{44D991B8-C2E4-4384-BBE8-C0E5CDF5F448}"/>
-    <hyperlink ref="C119" r:id="rId110" location="me" display="https://www.internetworldstats.com/europa2.htm - me" xr:uid="{6BAF6B80-744B-4745-AD17-C56C47EF6400}"/>
-    <hyperlink ref="C120" r:id="rId111" location="mk" display="https://www.internetworldstats.com/europa2.htm - mk" xr:uid="{9CF4BDB1-ED3F-48F0-8F7F-653D5970A95D}"/>
-    <hyperlink ref="C121" r:id="rId112" location="no" display="https://www.internetworldstats.com/europa2.htm - no" xr:uid="{8E0931C0-38E4-4784-AAC1-A5148E6E7003}"/>
-    <hyperlink ref="C122" r:id="rId113" location="ru" display="https://www.internetworldstats.com/europa2.htm - ru" xr:uid="{3833320C-2535-4F00-83C6-C237CF7418A1}"/>
-    <hyperlink ref="C123" r:id="rId114" location="sm" display="https://www.internetworldstats.com/europa2.htm - sm" xr:uid="{7041428F-7A10-490A-AEE6-B33C35484DE4}"/>
-    <hyperlink ref="C124" r:id="rId115" location="rs" display="https://www.internetworldstats.com/europa2.htm - rs" xr:uid="{28EC4582-AC2D-4EEA-B8E7-D57EABF029CB}"/>
-    <hyperlink ref="C125" r:id="rId116" location="sj" display="https://www.internetworldstats.com/europa2.htm - sj" xr:uid="{DCAB57A7-E9BD-449A-9246-D189631A844C}"/>
-    <hyperlink ref="C126" r:id="rId117" location="ch" display="https://www.internetworldstats.com/europa2.htm - ch" xr:uid="{9F64BFF8-9EF3-4484-B76C-32FE75967845}"/>
-    <hyperlink ref="C127" r:id="rId118" location="tr" display="https://www.internetworldstats.com/europa1.htm - tr" xr:uid="{7384FF62-A4C2-4C8F-8AB7-23E8B8D00B76}"/>
-    <hyperlink ref="C128" r:id="rId119" location="ua" display="https://www.internetworldstats.com/europa2.htm - ua" xr:uid="{4C09450C-B570-4015-B23C-5BF2058753FC}"/>
-    <hyperlink ref="C129" r:id="rId120" location="uk" display="https://www.internetworldstats.com/europa2.htm - uk" xr:uid="{46903C08-C2CF-4CC1-9DFC-98DA56056C43}"/>
-    <hyperlink ref="C130" r:id="rId121" location="va" display="https://www.internetworldstats.com/europa2.htm - va" xr:uid="{8558856F-EBD6-44E5-BB53-7E0EEDA9BA12}"/>
-    <hyperlink ref="C132" r:id="rId122" location="ai" display="https://www.internetworldstats.com/carib.htm - ai" xr:uid="{73AA11B4-9CEA-409F-A606-FF53C9CE0202}"/>
-    <hyperlink ref="C133" r:id="rId123" location="ag" display="https://www.internetworldstats.com/carib.htm - ag" xr:uid="{076EFBC6-1840-444C-9731-54BCD37295AE}"/>
-    <hyperlink ref="C134" r:id="rId124" location="aw" display="https://www.internetworldstats.com/carib.htm - aw" xr:uid="{D818E5DF-2931-43DB-A8C3-F61E8729EE3C}"/>
-    <hyperlink ref="C135" r:id="rId125" location="bs" display="https://www.internetworldstats.com/carib.htm - bs" xr:uid="{E7F1A26F-C940-4A56-AD7C-15DC4B2B61A3}"/>
-    <hyperlink ref="C136" r:id="rId126" location="bb" display="https://www.internetworldstats.com/carib.htm - bb" xr:uid="{C6584A04-1E59-41D3-8519-418D9769C2AA}"/>
-    <hyperlink ref="C137" r:id="rId127" location="bq" display="https://www.internetworldstats.com/carib.htm - bq" xr:uid="{E8C31C0E-5014-4457-87D2-3326DF7C5E9C}"/>
-    <hyperlink ref="C138" r:id="rId128" location="vg" display="https://www.internetworldstats.com/carib.htm - vg" xr:uid="{8458FE30-286A-42CF-8EF2-F9383C7F399C}"/>
-    <hyperlink ref="C139" r:id="rId129" location="ky" display="https://www.internetworldstats.com/carib.htm - ky" xr:uid="{2976FD26-E91F-4AEF-8837-DAB7ADA1AAC1}"/>
-    <hyperlink ref="C140" r:id="rId130" location="cu" display="https://www.internetworldstats.com/carib.htm - cu" xr:uid="{EF2B030F-2230-4267-9B1F-73E32EDE823C}"/>
-    <hyperlink ref="C141" r:id="rId131" location="cw" display="https://www.internetworldstats.com/carib.htm - cw" xr:uid="{2E4E72A1-28EB-4AA6-8133-E7F10C9ED910}"/>
-    <hyperlink ref="C142" r:id="rId132" location="dm" display="https://www.internetworldstats.com/carib.htm - dm" xr:uid="{AAF48F51-2854-4B7A-BD01-D61241510B64}"/>
-    <hyperlink ref="C143" r:id="rId133" location="do" display="https://www.internetworldstats.com/carib.htm - do" xr:uid="{F123FEA7-AD85-44B2-BF00-033E19EAA3BE}"/>
-    <hyperlink ref="C144" r:id="rId134" location="gd" display="https://www.internetworldstats.com/carib.htm - gd" xr:uid="{09376A3D-AAC5-496C-87CC-8AFCCDDDE091}"/>
-    <hyperlink ref="C145" r:id="rId135" location="gp" display="https://www.internetworldstats.com/carib.htm - gp" xr:uid="{3B75A723-1C99-4E06-A4AB-4FA42B518867}"/>
-    <hyperlink ref="C146" r:id="rId136" location="ht" display="https://www.internetworldstats.com/carib.htm - ht" xr:uid="{F804B389-DFFC-4885-A29A-31488C60499E}"/>
-    <hyperlink ref="C147" r:id="rId137" location="jm" display="https://www.internetworldstats.com/carib.htm - jm" xr:uid="{EC67799A-2045-477C-BC9C-A496B6810346}"/>
-    <hyperlink ref="C148" r:id="rId138" location="mq" display="https://www.internetworldstats.com/carib.htm - mq" xr:uid="{E1D1D9AD-7217-42D4-A075-7028012B8611}"/>
-    <hyperlink ref="C149" r:id="rId139" location="ms" display="https://www.internetworldstats.com/carib.htm - ms" xr:uid="{29CAC481-42A1-4E5A-AB6C-3D9C4B304E15}"/>
-    <hyperlink ref="C150" r:id="rId140" location="pr" display="https://www.internetworldstats.com/carib.htm - pr" xr:uid="{8CF83556-3EF7-4295-88BA-FED3CF478D83}"/>
-    <hyperlink ref="C151" r:id="rId141" location="bl" display="https://www.internetworldstats.com/carib.htm - bl" xr:uid="{8EA911C2-8BB9-40F5-A20D-B458F3BEEDC7}"/>
-    <hyperlink ref="C152" r:id="rId142" location="kn" display="https://www.internetworldstats.com/carib.htm - kn" xr:uid="{91A6CF08-3397-4717-8AD1-71D95F360C6F}"/>
-    <hyperlink ref="C153" r:id="rId143" location="lc" display="https://www.internetworldstats.com/carib.htm - lc" xr:uid="{E73BF4A1-9491-4511-B520-BB5D575B86FD}"/>
-    <hyperlink ref="C154" r:id="rId144" location="mf" display="https://www.internetworldstats.com/carib.htm - mf" xr:uid="{B22E02CD-43CA-49B7-8CC3-ECF02DF78574}"/>
-    <hyperlink ref="C155" r:id="rId145" location="vc" display="https://www.internetworldstats.com/carib.htm - vc" xr:uid="{5D9EC28E-356A-4328-8992-1B6C1E4BAB71}"/>
-    <hyperlink ref="C156" r:id="rId146" location="sx" display="https://www.internetworldstats.com/carib.htm - sx" xr:uid="{C863C08C-AD96-4A04-A16E-1C31B1DCA287}"/>
-    <hyperlink ref="C157" r:id="rId147" location="tt" display="https://www.internetworldstats.com/carib.htm - tt" xr:uid="{3E7D1350-72B9-4F27-BB1C-C4EFD712E43C}"/>
-    <hyperlink ref="C158" r:id="rId148" location="tc" display="https://www.internetworldstats.com/carib.htm - tc" xr:uid="{A8C00767-D5F9-4E61-BF91-502A9EA95246}"/>
-    <hyperlink ref="C159" r:id="rId149" location="vi" display="https://www.internetworldstats.com/carib.htm - vi" xr:uid="{16D21544-D387-45F4-8A34-1BF8AFD62E7C}"/>
-    <hyperlink ref="C160" r:id="rId150" location="bz" display="https://www.internetworldstats.com/central.htm - bz" xr:uid="{78036B9F-23D4-4E53-B4A9-7F14CF373CC3}"/>
-    <hyperlink ref="C161" r:id="rId151" location="cr" display="https://www.internetworldstats.com/central.htm - cr" xr:uid="{FDD8373E-36B6-4892-8629-1A75E3600D1B}"/>
-    <hyperlink ref="C162" r:id="rId152" location="sv" display="https://www.internetworldstats.com/central.htm - sv" xr:uid="{A58D7F48-4341-4B44-B597-126C5194B0F0}"/>
-    <hyperlink ref="C163" r:id="rId153" location="gt" display="https://www.internetworldstats.com/central.htm - gt" xr:uid="{C3F89B7E-56C5-4027-A710-E5EC37C69A69}"/>
-    <hyperlink ref="C164" r:id="rId154" location="hn" display="https://www.internetworldstats.com/central.htm - hn" xr:uid="{C1F3AF75-2E35-4B21-9533-81E0F5001D89}"/>
-    <hyperlink ref="C165" r:id="rId155" location="mx" display="https://www.internetworldstats.com/central.htm - mx" xr:uid="{15C4F4A2-4188-4FD7-8D63-4130FBDB4032}"/>
-    <hyperlink ref="C166" r:id="rId156" location="ni" display="https://www.internetworldstats.com/central.htm - ni" xr:uid="{BD4C17CD-4E77-4A1D-ACE6-30FA5DB55C24}"/>
-    <hyperlink ref="C167" r:id="rId157" location="pa" display="https://www.internetworldstats.com/central.htm - pa" xr:uid="{FFDD6128-460D-411A-A5D0-36478F533FB8}"/>
-    <hyperlink ref="C168" r:id="rId158" location="ar" display="https://www.internetworldstats.com/south.htm - ar" xr:uid="{DDEA2E5B-20A9-44CA-B9FB-CA8952DEDAA2}"/>
-    <hyperlink ref="C169" r:id="rId159" location="bo" display="https://www.internetworldstats.com/south.htm - bo" xr:uid="{EC3F88AF-C29D-4309-A128-1382F4F06918}"/>
-    <hyperlink ref="C170" r:id="rId160" location="br" display="https://www.internetworldstats.com/south.htm - br" xr:uid="{48AF529C-3504-443D-88B9-F0F021F72E22}"/>
-    <hyperlink ref="C171" r:id="rId161" location="cl" display="https://www.internetworldstats.com/south.htm - cl" xr:uid="{E7FD1B90-EBB1-4B23-8F61-C719443710D1}"/>
-    <hyperlink ref="C172" r:id="rId162" location="co" display="https://www.internetworldstats.com/south.htm - co" xr:uid="{03BC451C-4E6B-4226-81DE-91D020211E5B}"/>
-    <hyperlink ref="C173" r:id="rId163" location="ec" display="https://www.internetworldstats.com/south.htm - ec" xr:uid="{EC8F167A-CDB8-46F0-BD78-A7067890C552}"/>
-    <hyperlink ref="C174" r:id="rId164" location="fk" display="https://www.internetworldstats.com/south.htm - fk" xr:uid="{C22CFC53-9F0E-4FB9-8587-F1F13E872F78}"/>
-    <hyperlink ref="C175" r:id="rId165" location="gf" display="https://www.internetworldstats.com/south.htm - gf" xr:uid="{7984146A-6EE4-4631-8550-0AF8D699B797}"/>
-    <hyperlink ref="C176" r:id="rId166" location="gy" display="https://www.internetworldstats.com/south.htm - gy" xr:uid="{399F3D73-451A-4BD6-90BB-F430390777F4}"/>
-    <hyperlink ref="C177" r:id="rId167" location="py" display="https://www.internetworldstats.com/south.htm - py" xr:uid="{1BEEF65E-8E1A-48C2-92EC-9FA7261601C3}"/>
-    <hyperlink ref="C178" r:id="rId168" location="pe" display="https://www.internetworldstats.com/south.htm - pe" xr:uid="{D089775B-A152-41B5-A7A9-13249F751547}"/>
-    <hyperlink ref="C179" r:id="rId169" location="sr" display="https://www.internetworldstats.com/south.htm - sr" xr:uid="{459600FD-73EC-42F6-97A1-B9031ACBCEEA}"/>
-    <hyperlink ref="C180" r:id="rId170" location="uy" display="https://www.internetworldstats.com/south.htm - uy" xr:uid="{3ED5B46F-7440-48C1-99F9-2C903E11C9E8}"/>
-    <hyperlink ref="C181" r:id="rId171" location="ve" display="https://www.internetworldstats.com/south.htm - ve" xr:uid="{95DF07C7-A6DF-4F1C-8D45-FE7B1A8F2CE4}"/>
-    <hyperlink ref="C183" r:id="rId172" location="bm" display="https://www.internetworldstats.com/america.htm - bm" xr:uid="{1927EE60-1877-4E5A-9D61-8EF728458252}"/>
-    <hyperlink ref="C184" r:id="rId173" location="ca" display="https://www.internetworldstats.com/america.htm - ca" xr:uid="{03DAE126-C4F5-406E-A1D3-6DDE72B16F39}"/>
-    <hyperlink ref="C185" r:id="rId174" location="gl" display="https://www.internetworldstats.com/america.htm - gl" xr:uid="{48EF07EE-320B-44D6-9913-8722ACFDBC45}"/>
-    <hyperlink ref="C186" r:id="rId175" location="sp" display="https://www.internetworldstats.com/america.htm - sp" xr:uid="{4A2F7857-37B8-499C-BC1F-D0A590F56897}"/>
-    <hyperlink ref="C187" r:id="rId176" location="us" display="https://www.internetworldstats.com/america.htm - us" xr:uid="{CFF3F48A-59C5-4AD1-841B-8BBC6206E5C7}"/>
-    <hyperlink ref="C189" r:id="rId177" location="au" display="https://www.internetworldstats.com/pacific.htm - au" xr:uid="{DAE889FB-5839-4183-87B1-9558AD6E2AA6}"/>
-    <hyperlink ref="C200" r:id="rId178" location="fj" display="https://www.internetworldstats.com/pacific.htm - fj" xr:uid="{5C474700-87B1-4B26-A156-1382EEFA912F}"/>
-    <hyperlink ref="C190" r:id="rId179" location="pf" display="https://www.internetworldstats.com/pacific.htm - pf" xr:uid="{EC6BAFE5-2D41-4C0B-AAFC-396AD6DA5A0D}"/>
-    <hyperlink ref="C191" r:id="rId180" location="gu" display="https://www.internetworldstats.com/pacific.htm - gu" xr:uid="{72843FE2-5B14-4850-9353-5B6389E122DE}"/>
-    <hyperlink ref="C192" r:id="rId181" location="ki" display="https://www.internetworldstats.com/pacific.htm - ki" xr:uid="{4B4C1B50-2D1C-4B0A-8B7D-0F9F3FE29EFC}"/>
-    <hyperlink ref="C193" r:id="rId182" location="mh" display="https://www.internetworldstats.com/pacific.htm - mh" xr:uid="{02B5211F-62B4-4BDD-AAD4-EA2D2D6CC780}"/>
-    <hyperlink ref="C194" r:id="rId183" location="fm" display="https://www.internetworldstats.com/pacific.htm - fm" xr:uid="{B313A3B9-33E3-48B4-9580-170052CC474B}"/>
-    <hyperlink ref="C201" r:id="rId184" location="nc" display="https://www.internetworldstats.com/pacific.htm - nc" xr:uid="{7F359C34-AB57-478E-807F-745F2024021A}"/>
-    <hyperlink ref="C202" r:id="rId185" location="pg" display="https://www.internetworldstats.com/pacific.htm - pg" xr:uid="{FA53BC60-7E35-420C-9856-1BCE44632333}"/>
-    <hyperlink ref="C196" r:id="rId186" location="ws" display="https://www.internetworldstats.com/pacific.htm - ws" xr:uid="{854E6A94-F340-4199-87E7-E5479B78461F}"/>
-    <hyperlink ref="C197" r:id="rId187" location="as" display="https://www.internetworldstats.com/pacific.htm - as" xr:uid="{4CA78EFA-C411-4DD8-8F05-34CA04E6AB24}"/>
-    <hyperlink ref="C198" r:id="rId188" location="sb" display="https://www.internetworldstats.com/pacific.htm - sb" xr:uid="{64EFED3B-484E-490F-B1C3-C2C33DA6BB29}"/>
-    <hyperlink ref="C199" r:id="rId189" location="to" display="https://www.internetworldstats.com/pacific.htm - to" xr:uid="{EF6E26C0-2C9F-4FAC-8774-4B789863D4FD}"/>
-    <hyperlink ref="C203" r:id="rId190" location="vu" display="https://www.internetworldstats.com/pacific.htm - vu" xr:uid="{6609B09D-12A1-4821-B485-F8D9BE0F046C}"/>
-    <hyperlink ref="C195" r:id="rId191" location="nz" display="https://www.internetworldstats.com/pacific.htm - nz" xr:uid="{9A960A45-686A-4EF6-852E-A2A989BA9314}"/>
+    <hyperlink ref="B9" r:id="rId1" location="bi" display="bi" xr:uid="{BABC1E17-EE1C-4F40-A81B-A67D11E1E58E}"/>
+    <hyperlink ref="B10" r:id="rId2" location="km" display="https://www.internetworldstats.com/africa.htm - km" xr:uid="{7D9C33B7-37D7-44D4-BF85-17F8E40703E3}"/>
+    <hyperlink ref="B11" r:id="rId3" location="dj" display="https://www.internetworldstats.com/africa.htm - dj" xr:uid="{F508DCC8-21C5-4030-A8EA-F0FF513858FC}"/>
+    <hyperlink ref="B12" r:id="rId4" location="er" display="https://www.internetworldstats.com/africa.htm - er" xr:uid="{C7292C68-E28D-4911-8E34-70C6F470A131}"/>
+    <hyperlink ref="B13" r:id="rId5" location="et" display="https://www.internetworldstats.com/africa.htm - et" xr:uid="{7D0833DF-A115-42B3-B3A7-84A8825D7C1E}"/>
+    <hyperlink ref="B14" r:id="rId6" location="ke" display="https://www.internetworldstats.com/africa.htm - ke" xr:uid="{3376C38D-0D07-40AE-9B87-76444A12D1CD}"/>
+    <hyperlink ref="B16" r:id="rId7" location="mg" display="https://www.internetworldstats.com/africa.htm - mg" xr:uid="{23F22B82-ED1F-430B-AA1D-6FC434614EE6}"/>
+    <hyperlink ref="B17" r:id="rId8" location="mw" display="https://www.internetworldstats.com/africa.htm - mw" xr:uid="{C745FBAE-FD55-44B7-B6BE-730A11C87922}"/>
+    <hyperlink ref="B18" r:id="rId9" location="mu" display="https://www.internetworldstats.com/africa.htm - mu" xr:uid="{AD93A047-E344-48CE-85E0-903764AEB4DE}"/>
+    <hyperlink ref="B19" r:id="rId10" location="yt" display="https://www.internetworldstats.com/africa.htm - yt" xr:uid="{E3BB5889-8702-4BCE-A60E-F6DACB3FB106}"/>
+    <hyperlink ref="B20" r:id="rId11" location="mz" display="https://www.internetworldstats.com/africa.htm - mz" xr:uid="{7DF464BB-E5A5-4A82-BEFF-D8E0FE81040F}"/>
+    <hyperlink ref="B21" r:id="rId12" location="re" display="https://www.internetworldstats.com/africa.htm - re" xr:uid="{040E3044-ECEE-4E8B-BEBF-82C64A8A53C4}"/>
+    <hyperlink ref="B22" r:id="rId13" location="rw" display="https://www.internetworldstats.com/africa.htm - rw" xr:uid="{245C52B3-4F12-4B72-A46F-E38C0E3A3716}"/>
+    <hyperlink ref="B23" r:id="rId14" location="sc" display="https://www.internetworldstats.com/africa.htm - sc" xr:uid="{DF4043EE-6C7B-4EB6-B678-88E93467A282}"/>
+    <hyperlink ref="B24" r:id="rId15" location="so" display="https://www.internetworldstats.com/africa.htm - so" xr:uid="{8B4F053F-31B5-4FB5-90E7-D96BEB063F30}"/>
+    <hyperlink ref="B25" r:id="rId16" location="tz" display="https://www.internetworldstats.com/africa.htm - tz" xr:uid="{67C1D454-70F0-4B1C-8FFC-A55408E6DEDA}"/>
+    <hyperlink ref="B26" r:id="rId17" location="ug" display="https://www.internetworldstats.com/africa.htm - ug" xr:uid="{1645E0D6-D71B-4651-BD6D-F6234DA741EC}"/>
+    <hyperlink ref="B27" r:id="rId18" location="zm" display="https://www.internetworldstats.com/africa.htm - zm" xr:uid="{4C349B6F-D397-44EB-A88B-2793AEE360A2}"/>
+    <hyperlink ref="B28" r:id="rId19" location="zw" display="https://www.internetworldstats.com/africa.htm - zw" xr:uid="{504DA1A6-6EEF-4C2D-8353-CC61355B469E}"/>
+    <hyperlink ref="B29" r:id="rId20" location="ao" display="https://www.internetworldstats.com/africa.htm - ao" xr:uid="{6876F028-90BA-4A1E-8F97-26E2340D41A9}"/>
+    <hyperlink ref="B31" r:id="rId21" location="cm" display="https://www.internetworldstats.com/africa.htm - cm" xr:uid="{14B230B8-8C59-4838-8CD6-51BABEBA1E4F}"/>
+    <hyperlink ref="B32" r:id="rId22" location="cf" display="https://www.internetworldstats.com/africa.htm - cf" xr:uid="{F773DF09-808D-45A4-BE9C-1A1A5D238E66}"/>
+    <hyperlink ref="B33" r:id="rId23" location="td" display="https://www.internetworldstats.com/africa.htm - td" xr:uid="{927C4D6B-AAD5-4BFF-A981-6A1B8CEE2B89}"/>
+    <hyperlink ref="B35" r:id="rId24" location="cg" display="https://www.internetworldstats.com/africa.htm - cg" xr:uid="{0FEA4CFE-49E8-4D4B-8267-4442DC3C82BC}"/>
+    <hyperlink ref="B36" r:id="rId25" location="cd" display="https://www.internetworldstats.com/africa.htm - cd" xr:uid="{D93205F3-6A2C-4CB2-952A-BF7693B655C6}"/>
+    <hyperlink ref="B37" r:id="rId26" location="gq" display="https://www.internetworldstats.com/africa.htm - gq" xr:uid="{F7AD3F8C-1B49-45CE-A8FF-6031CE5337F2}"/>
+    <hyperlink ref="B38" r:id="rId27" location="ga" display="https://www.internetworldstats.com/africa.htm - ga" xr:uid="{1479C478-91E4-4053-9955-28A1054F8195}"/>
+    <hyperlink ref="B40" r:id="rId28" location="st" display="https://www.internetworldstats.com/africa.htm - st" xr:uid="{7E9D7C16-F6EE-4A7E-9089-3304A5B6479F}"/>
+    <hyperlink ref="B41" r:id="rId29" location="dz" display="https://www.internetworldstats.com/africa.htm - dz" xr:uid="{FDCFBE39-FAD6-48F8-A9E9-9C8851498FEA}"/>
+    <hyperlink ref="B42" r:id="rId30" location="eg" display="https://www.internetworldstats.com/africa.htm - eg" xr:uid="{FBFF0CAD-5FF7-4ED8-B327-4BCB51D85F00}"/>
+    <hyperlink ref="B43" r:id="rId31" location="ly" display="https://www.internetworldstats.com/africa.htm - ly" xr:uid="{113F9DEF-2ED3-4382-B736-7513BEAEE7A3}"/>
+    <hyperlink ref="B44" r:id="rId32" location="ma" display="https://www.internetworldstats.com/africa.htm - ma" xr:uid="{90E7A41C-CB59-493B-A677-28ED73B798B4}"/>
+    <hyperlink ref="B45" r:id="rId33" location="ss" display="https://www.internetworldstats.com/africa.htm - ss" xr:uid="{8BF79AA7-044D-4EED-8F12-782DB99EF592}"/>
+    <hyperlink ref="B47" r:id="rId34" location="sd" display="https://www.internetworldstats.com/africa.htm - sd" xr:uid="{B71FC1FD-F7E6-443A-937B-33A7763B3237}"/>
+    <hyperlink ref="B48" r:id="rId35" location="tn" display="https://www.internetworldstats.com/africa.htm - tn" xr:uid="{DF715543-C352-4A7B-9717-7E12D976DD3C}"/>
+    <hyperlink ref="B49" r:id="rId36" location="st" display="https://www.internetworldstats.com/africa.htm - st" xr:uid="{E2A6DC44-E169-43DB-91D4-5975EB90FE16}"/>
+    <hyperlink ref="B50" r:id="rId37" location="bw" display="https://www.internetworldstats.com/africa.htm - bw" xr:uid="{300C6A95-0AE4-49C9-9E76-68AE5CEA84BA}"/>
+    <hyperlink ref="B51" r:id="rId38" location="sz" display="https://www.internetworldstats.com/africa.htm - sz" xr:uid="{960DCEBF-ED98-47EA-875D-7603FB5CA5A7}"/>
+    <hyperlink ref="B52" r:id="rId39" location="ls" display="https://www.internetworldstats.com/africa.htm - ls" xr:uid="{6E0BEA38-778C-493E-A15D-8DEDFC8C2694}"/>
+    <hyperlink ref="B53" r:id="rId40" location="na" display="https://www.internetworldstats.com/africa.htm - na" xr:uid="{38760EEE-613F-4613-B0F7-582CA6A103A8}"/>
+    <hyperlink ref="B55" r:id="rId41" location="za" display="https://www.internetworldstats.com/africa.htm - za" xr:uid="{DF07E74C-3D10-4F89-99B2-3BBB3F32DD92}"/>
+    <hyperlink ref="B56" r:id="rId42" location="bj" display="https://www.internetworldstats.com/africa.htm - bj" xr:uid="{24B75A85-3DAD-4DBE-BD71-495E9244EFC5}"/>
+    <hyperlink ref="B58" r:id="rId43" location="bf" display="https://www.internetworldstats.com/africa.htm - bf" xr:uid="{1988188B-4859-435F-9214-504D3109DAFB}"/>
+    <hyperlink ref="B59" r:id="rId44" location="cv" display="https://www.internetworldstats.com/africa.htm - cv" xr:uid="{8E0287AC-CB4C-4B91-B044-89A7DFAAB7B8}"/>
+    <hyperlink ref="B60" r:id="rId45" location="ci" display="https://www.internetworldstats.com/africa.htm - ci" xr:uid="{70DEB09C-7FCA-4DE9-85E8-E8BD50AC81B1}"/>
+    <hyperlink ref="B61" r:id="rId46" location="gm" display="gm" xr:uid="{27688B10-15EB-4A80-8661-3B11A45A6E0E}"/>
+    <hyperlink ref="B62" r:id="rId47" location="gh" display="https://www.internetworldstats.com/africa.htm - gh" xr:uid="{A52FF825-F4D0-4FC4-A48E-7D29DEFBB6D3}"/>
+    <hyperlink ref="B63" r:id="rId48" location="gn" display="https://www.internetworldstats.com/africa.htm - gn" xr:uid="{F8CB6567-831D-4F60-B822-0396C7A2DA08}"/>
+    <hyperlink ref="B64" r:id="rId49" location="gw" display="https://www.internetworldstats.com/africa.htm - gw" xr:uid="{202EC057-428D-472F-B7AE-D68CD8966E92}"/>
+    <hyperlink ref="B65" r:id="rId50" location="lr" display="https://www.internetworldstats.com/africa.htm - lr" xr:uid="{A63BE2BE-3F1A-4F87-A1E5-8CB4D93EA271}"/>
+    <hyperlink ref="B66" r:id="rId51" location="ml" display="https://www.internetworldstats.com/africa.htm - ml" xr:uid="{E57F40C5-84F8-4EA0-B729-A6FF7118A166}"/>
+    <hyperlink ref="B67" r:id="rId52" location="mr" display="https://www.internetworldstats.com/africa.htm - mr" xr:uid="{B3BFD67C-42D8-4F08-85A2-39FBDC54F687}"/>
+    <hyperlink ref="B68" r:id="rId53" location="ne" display="https://www.internetworldstats.com/africa.htm - ne" xr:uid="{B28392D2-1329-48D2-9DC6-90EBCD6004B0}"/>
+    <hyperlink ref="B69" r:id="rId54" location="ng" display="https://www.internetworldstats.com/africa.htm - ng" xr:uid="{DBC7E1F7-1A74-4B76-AB4C-FE2DA69267AB}"/>
+    <hyperlink ref="B70" r:id="rId55" location="sh" display="https://www.internetworldstats.com/africa.htm - sh" xr:uid="{61A23F6C-7350-47E5-B15E-DC1C291BF920}"/>
+    <hyperlink ref="B71" r:id="rId56" location="sn" display="https://www.internetworldstats.com/africa.htm - sn" xr:uid="{61DF9310-2996-4525-86ED-D4DFFC269D03}"/>
+    <hyperlink ref="B72" r:id="rId57" location="sl" display="https://www.internetworldstats.com/africa.htm - sl" xr:uid="{F07D8924-0544-44F5-BB53-AFC38E312E19}"/>
+    <hyperlink ref="B73" r:id="rId58" location="tg" display="https://www.internetworldstats.com/africa.htm - tg" xr:uid="{0CAD2C3B-0A61-4504-B89E-1E40B48C790F}"/>
+    <hyperlink ref="B128" r:id="rId59" location="am" display="https://www.internetworldstats.com/asia.htm - am" xr:uid="{F770424F-0BF4-49AB-A8AC-8FDC2E420093}"/>
+    <hyperlink ref="B129" r:id="rId60" location="az" display="https://www.internetworldstats.com/asia.htm - az" xr:uid="{115B3A81-39D0-4BD9-B16F-C37C9CF118AB}"/>
+    <hyperlink ref="B84" r:id="rId61" location="bt" display="https://www.internetworldstats.com/asia.htm - bt" xr:uid="{ACC3F2CA-B062-40FD-880F-38ADCCC71957}"/>
+    <hyperlink ref="B117" r:id="rId62" location="bn" display="https://www.internetworldstats.com/asia.htm - bn" xr:uid="{A88F6E79-ABEC-4680-A528-57167B3F741F}"/>
+    <hyperlink ref="B118" r:id="rId63" location="kh" display="https://www.internetworldstats.com/asia.htm - kh" xr:uid="{531EFB26-CDD7-4246-B91E-FFD71E24ED3B}"/>
+    <hyperlink ref="B109" r:id="rId64" location="cn" display="https://www.internetworldstats.com/asia.htm - cn" xr:uid="{18A1A2D7-D4B7-4FEE-B8A7-20EFD59CC556}"/>
+    <hyperlink ref="B132" r:id="rId65" location="ge" display="https://www.internetworldstats.com/asia.htm - ge" xr:uid="{7F164D09-A27C-4496-88CF-E4E37DBDCB38}"/>
+    <hyperlink ref="B110" r:id="rId66" location="hk" display="https://www.internetworldstats.com/asia.htm - hk" xr:uid="{2D0F4255-F11C-4055-AB30-E23944676280}"/>
+    <hyperlink ref="B86" r:id="rId67" location="in" display="https://www.internetworldstats.com/asia.htm - in" xr:uid="{39970B56-1674-4A01-B294-FAFF5194241F}"/>
+    <hyperlink ref="B119" r:id="rId68" location="id" display="https://www.internetworldstats.com/asia.htm - id" xr:uid="{4560A6E5-1221-46AC-8F15-BBA2884770E9}"/>
+    <hyperlink ref="B111" r:id="rId69" location="jp" display="https://www.internetworldstats.com/asia.htm - jp" xr:uid="{E82855F7-C4B8-48FF-8600-CE009786C359}"/>
+    <hyperlink ref="B97" r:id="rId70" location="kz" display="https://www.internetworldstats.com/asia.htm - kz" xr:uid="{5C363626-49B3-4991-B26A-175C0717324A}"/>
+    <hyperlink ref="B112" r:id="rId71" location="kp" display="https://www.internetworldstats.com/asia.htm - kp" xr:uid="{2EC74BD9-707D-4B1B-9449-96152A1FAAEE}"/>
+    <hyperlink ref="B113" r:id="rId72" location="kr" display="https://www.internetworldstats.com/asia.htm - kr" xr:uid="{9155F3E1-7D7E-4B01-BDFF-72D2C533F7DF}"/>
+    <hyperlink ref="B98" r:id="rId73" location="kg" display="https://www.internetworldstats.com/asia.htm - kg" xr:uid="{AEB5B50F-5E23-4C53-A258-913760EFCD6A}"/>
+    <hyperlink ref="B120" r:id="rId74" location="la" display="https://www.internetworldstats.com/asia.htm - la" xr:uid="{7B2A2A72-650F-4232-9113-E46457EEB8F3}"/>
+    <hyperlink ref="B114" r:id="rId75" location="mo" display="https://www.internetworldstats.com/asia.htm - mo" xr:uid="{36BDD0D7-708E-40EE-8C5E-C0B634D44AE4}"/>
+    <hyperlink ref="B121" r:id="rId76" location="my" display="https://www.internetworldstats.com/asia.htm - my" xr:uid="{1F33F2BF-63C4-4635-B0C0-9B9045B3813F}"/>
+    <hyperlink ref="B101" r:id="rId77" location="mv" display="https://www.internetworldstats.com/asia.htm - mv" xr:uid="{56321E6C-C57C-439A-BC38-CA2A39A5CA29}"/>
+    <hyperlink ref="B115" r:id="rId78" location="mn" display="https://www.internetworldstats.com/asia.htm - mn" xr:uid="{9431BCB2-4DB8-4289-94AF-42CA7AECB538}"/>
+    <hyperlink ref="B122" r:id="rId79" location="mm" display="https://www.internetworldstats.com/asia.htm - mm" xr:uid="{D52F470F-EE63-4E53-A4BD-2357C7F0800E}"/>
+    <hyperlink ref="B103" r:id="rId80" location="np" display="https://www.internetworldstats.com/asia.htm - np" xr:uid="{48E4FDB0-FDA3-4F85-A3DF-2DCECFF985B1}"/>
+    <hyperlink ref="B104" r:id="rId81" location="pk" display="https://www.internetworldstats.com/asia.htm - pk" xr:uid="{70D9F5DB-2855-4CF3-A6BC-F9EBE9D31A9B}"/>
+    <hyperlink ref="B123" r:id="rId82" location="ph" display="https://www.internetworldstats.com/asia.htm - ph" xr:uid="{7773186C-CD8F-47F2-A11B-15B091EF0330}"/>
+    <hyperlink ref="B124" r:id="rId83" location="sg" display="https://www.internetworldstats.com/asia.htm - sg" xr:uid="{A10A09B5-89BD-41F7-8B61-5A324381B983}"/>
+    <hyperlink ref="B105" r:id="rId84" location="lk" display="https://www.internetworldstats.com/asia.htm - lk" xr:uid="{ECCA86BA-9720-49C9-8F08-D074738FD100}"/>
+    <hyperlink ref="B116" r:id="rId85" location="tw" display="https://www.internetworldstats.com/asia.htm - tw" xr:uid="{3A293983-4BB0-4172-9A5E-5DA19E8B7F4D}"/>
+    <hyperlink ref="B106" r:id="rId86" location="tj" display="https://www.internetworldstats.com/asia.htm - tj" xr:uid="{F6A4B091-5088-4628-A2AD-5B4746A23002}"/>
+    <hyperlink ref="B125" r:id="rId87" location="th" display="https://www.internetworldstats.com/asia.htm - th" xr:uid="{870D1F3C-6A75-4171-AD33-917E62F373C5}"/>
+    <hyperlink ref="B126" r:id="rId88" location="tl" display="https://www.internetworldstats.com/asia.htm - tl" xr:uid="{2F9007D0-A3B4-421F-9BCD-A45EABBD17C3}"/>
+    <hyperlink ref="B107" r:id="rId89" location="tm" display="https://www.internetworldstats.com/asia.htm - tm" xr:uid="{E87E59D2-5CA1-4572-8B0F-1D1F38DAB1C2}"/>
+    <hyperlink ref="B108" r:id="rId90" location="uz" display="https://www.internetworldstats.com/asia.htm - uz" xr:uid="{96A7DBB9-AB5C-4855-A9A7-E554C625FC52}"/>
+    <hyperlink ref="B127" r:id="rId91" location="vn" display="https://www.internetworldstats.com/asia.htm - vn" xr:uid="{75C99AE0-9A0C-4711-8B07-3F1377B8E474}"/>
+    <hyperlink ref="B75" r:id="rId92" location="af" display="https://www.internetworldstats.com/asia.htm - af" xr:uid="{92BC515D-68A5-4646-BA3F-44A769EEA4B6}"/>
+    <hyperlink ref="B83" r:id="rId93" location="bd" display="https://www.internetworldstats.com/asia.htm - bd" xr:uid="{7EB58D4C-E246-4960-BF73-980687FBA987}"/>
+    <hyperlink ref="B141" r:id="rId94" location="al" display="https://www.internetworldstats.com/europa2.htm - al" xr:uid="{DB5E26C6-6DB0-440C-B5D5-8F6CFAEB37DF}"/>
+    <hyperlink ref="B142" r:id="rId95" location="ad" display="https://www.internetworldstats.com/europa2.htm - ad" xr:uid="{B4D59FA1-066C-41A6-A50B-FE5AF0F8A6B6}"/>
+    <hyperlink ref="B145" r:id="rId96" location="by" display="https://www.internetworldstats.com/europa2.htm - by" xr:uid="{EA89F209-E274-45CB-9FFF-66AF669625B8}"/>
+    <hyperlink ref="B146" r:id="rId97" location="ba" display="https://www.internetworldstats.com/europa2.htm - ba" xr:uid="{1C8D5AC1-1C9E-461A-B88C-EAC77E5B7187}"/>
+    <hyperlink ref="B148" r:id="rId98" location="hr" display="https://www.internetworldstats.com/europa1.htm - hr" xr:uid="{9977ED11-4294-48F4-AF2B-348613ABE00B}"/>
+    <hyperlink ref="B150" r:id="rId99" display="https://www.internetworldstats.com/europa.htm" xr:uid="{FD4187A3-3413-4D03-BEC7-E1EA8CE0F114}"/>
+    <hyperlink ref="B155" r:id="rId100" location="fo" display="https://www.internetworldstats.com/europa2.htm - fo" xr:uid="{62E50065-6A00-4A85-BFDB-B63339897D31}"/>
+    <hyperlink ref="B156" r:id="rId101" location="gi" display="https://www.internetworldstats.com/europa2.htm - gi" xr:uid="{134DB8F5-AFE8-42EE-8137-2541BADD0605}"/>
+    <hyperlink ref="B157" r:id="rId102" location="gg" display="https://www.internetworldstats.com/europa2.htm - gg" xr:uid="{9A513AD6-FC12-4B64-A8BB-DFDE32F530AF}"/>
+    <hyperlink ref="B162" r:id="rId103" location="is" display="https://www.internetworldstats.com/europa2.htm - is" xr:uid="{1B7887BC-C084-4E8B-B533-706CF7C46AC5}"/>
+    <hyperlink ref="B165" r:id="rId104" location="je" display="https://www.internetworldstats.com/europa2.htm - je" xr:uid="{1FD6969D-95BB-4582-A2DE-2A6BC0D25604}"/>
+    <hyperlink ref="B166" r:id="rId105" location="kv" display="https://www.internetworldstats.com/europa2.htm - kv" xr:uid="{3CC6A200-DEAC-4AA7-A0BA-68A94B882BBC}"/>
+    <hyperlink ref="B167" r:id="rId106" location="li" display="https://www.internetworldstats.com/europa2.htm - li" xr:uid="{82E8C1B4-3C36-4236-9F06-40CF859952F3}"/>
+    <hyperlink ref="B168" r:id="rId107" display="https://www.internetworldstats.com/europa2.htm" xr:uid="{CFB50494-88D0-4FC1-A859-7E1D173B914A}"/>
+    <hyperlink ref="B169" r:id="rId108" location="md" display="https://www.internetworldstats.com/europa2.htm - md" xr:uid="{8FB1FA33-A347-4A32-96CF-32360F1AC5AC}"/>
+    <hyperlink ref="B170" r:id="rId109" location="mc" display="https://www.internetworldstats.com/europa2.htm - mc" xr:uid="{44D991B8-C2E4-4384-BBE8-C0E5CDF5F448}"/>
+    <hyperlink ref="B171" r:id="rId110" location="me" display="https://www.internetworldstats.com/europa2.htm - me" xr:uid="{6BAF6B80-744B-4745-AD17-C56C47EF6400}"/>
+    <hyperlink ref="B172" r:id="rId111" location="mk" display="https://www.internetworldstats.com/europa2.htm - mk" xr:uid="{9CF4BDB1-ED3F-48F0-8F7F-653D5970A95D}"/>
+    <hyperlink ref="B173" r:id="rId112" location="no" display="https://www.internetworldstats.com/europa2.htm - no" xr:uid="{8E0931C0-38E4-4784-AAC1-A5148E6E7003}"/>
+    <hyperlink ref="B174" r:id="rId113" location="ru" display="https://www.internetworldstats.com/europa2.htm - ru" xr:uid="{3833320C-2535-4F00-83C6-C237CF7418A1}"/>
+    <hyperlink ref="B175" r:id="rId114" location="sm" display="https://www.internetworldstats.com/europa2.htm - sm" xr:uid="{7041428F-7A10-490A-AEE6-B33C35484DE4}"/>
+    <hyperlink ref="B176" r:id="rId115" location="rs" display="https://www.internetworldstats.com/europa2.htm - rs" xr:uid="{28EC4582-AC2D-4EEA-B8E7-D57EABF029CB}"/>
+    <hyperlink ref="B177" r:id="rId116" location="sj" display="https://www.internetworldstats.com/europa2.htm - sj" xr:uid="{DCAB57A7-E9BD-449A-9246-D189631A844C}"/>
+    <hyperlink ref="B178" r:id="rId117" location="ch" display="https://www.internetworldstats.com/europa2.htm - ch" xr:uid="{9F64BFF8-9EF3-4484-B76C-32FE75967845}"/>
+    <hyperlink ref="B179" r:id="rId118" location="tr" display="https://www.internetworldstats.com/europa1.htm - tr" xr:uid="{7384FF62-A4C2-4C8F-8AB7-23E8B8D00B76}"/>
+    <hyperlink ref="B180" r:id="rId119" location="ua" display="https://www.internetworldstats.com/europa2.htm - ua" xr:uid="{4C09450C-B570-4015-B23C-5BF2058753FC}"/>
+    <hyperlink ref="B193" r:id="rId120" location="uk" display="https://www.internetworldstats.com/europa2.htm - uk" xr:uid="{46903C08-C2CF-4CC1-9DFC-98DA56056C43}"/>
+    <hyperlink ref="B194" r:id="rId121" location="va" display="https://www.internetworldstats.com/europa2.htm - va" xr:uid="{8558856F-EBD6-44E5-BB53-7E0EEDA9BA12}"/>
+    <hyperlink ref="B198" r:id="rId122" location="ai" display="https://www.internetworldstats.com/carib.htm - ai" xr:uid="{73AA11B4-9CEA-409F-A606-FF53C9CE0202}"/>
+    <hyperlink ref="B200" r:id="rId123" location="ag" display="https://www.internetworldstats.com/carib.htm - ag" xr:uid="{076EFBC6-1840-444C-9731-54BCD37295AE}"/>
+    <hyperlink ref="B201" r:id="rId124" location="aw" display="https://www.internetworldstats.com/carib.htm - aw" xr:uid="{D818E5DF-2931-43DB-A8C3-F61E8729EE3C}"/>
+    <hyperlink ref="B202" r:id="rId125" location="bs" display="https://www.internetworldstats.com/carib.htm - bs" xr:uid="{E7F1A26F-C940-4A56-AD7C-15DC4B2B61A3}"/>
+    <hyperlink ref="B203" r:id="rId126" location="bb" display="https://www.internetworldstats.com/carib.htm - bb" xr:uid="{C6584A04-1E59-41D3-8519-418D9769C2AA}"/>
+    <hyperlink ref="B204" r:id="rId127" location="bq" display="https://www.internetworldstats.com/carib.htm - bq" xr:uid="{E8C31C0E-5014-4457-87D2-3326DF7C5E9C}"/>
+    <hyperlink ref="B205" r:id="rId128" location="vg" display="https://www.internetworldstats.com/carib.htm - vg" xr:uid="{8458FE30-286A-42CF-8EF2-F9383C7F399C}"/>
+    <hyperlink ref="B206" r:id="rId129" location="ky" display="https://www.internetworldstats.com/carib.htm - ky" xr:uid="{2976FD26-E91F-4AEF-8837-DAB7ADA1AAC1}"/>
+    <hyperlink ref="B207" r:id="rId130" location="cu" display="https://www.internetworldstats.com/carib.htm - cu" xr:uid="{EF2B030F-2230-4267-9B1F-73E32EDE823C}"/>
+    <hyperlink ref="B208" r:id="rId131" location="cw" display="https://www.internetworldstats.com/carib.htm - cw" xr:uid="{2E4E72A1-28EB-4AA6-8133-E7F10C9ED910}"/>
+    <hyperlink ref="B209" r:id="rId132" location="dm" display="https://www.internetworldstats.com/carib.htm - dm" xr:uid="{AAF48F51-2854-4B7A-BD01-D61241510B64}"/>
+    <hyperlink ref="B210" r:id="rId133" location="do" display="https://www.internetworldstats.com/carib.htm - do" xr:uid="{F123FEA7-AD85-44B2-BF00-033E19EAA3BE}"/>
+    <hyperlink ref="B212" r:id="rId134" location="gd" display="https://www.internetworldstats.com/carib.htm - gd" xr:uid="{09376A3D-AAC5-496C-87CC-8AFCCDDDE091}"/>
+    <hyperlink ref="B213" r:id="rId135" location="gp" display="https://www.internetworldstats.com/carib.htm - gp" xr:uid="{3B75A723-1C99-4E06-A4AB-4FA42B518867}"/>
+    <hyperlink ref="B215" r:id="rId136" location="ht" display="https://www.internetworldstats.com/carib.htm - ht" xr:uid="{F804B389-DFFC-4885-A29A-31488C60499E}"/>
+    <hyperlink ref="B218" r:id="rId137" location="jm" display="https://www.internetworldstats.com/carib.htm - jm" xr:uid="{EC67799A-2045-477C-BC9C-A496B6810346}"/>
+    <hyperlink ref="B219" r:id="rId138" location="mq" display="https://www.internetworldstats.com/carib.htm - mq" xr:uid="{E1D1D9AD-7217-42D4-A075-7028012B8611}"/>
+    <hyperlink ref="B220" r:id="rId139" location="ms" display="https://www.internetworldstats.com/carib.htm - ms" xr:uid="{29CAC481-42A1-4E5A-AB6C-3D9C4B304E15}"/>
+    <hyperlink ref="B221" r:id="rId140" location="pr" display="https://www.internetworldstats.com/carib.htm - pr" xr:uid="{8CF83556-3EF7-4295-88BA-FED3CF478D83}"/>
+    <hyperlink ref="B222" r:id="rId141" location="bl" display="https://www.internetworldstats.com/carib.htm - bl" xr:uid="{8EA911C2-8BB9-40F5-A20D-B458F3BEEDC7}"/>
+    <hyperlink ref="B223" r:id="rId142" location="kn" display="https://www.internetworldstats.com/carib.htm - kn" xr:uid="{91A6CF08-3397-4717-8AD1-71D95F360C6F}"/>
+    <hyperlink ref="B224" r:id="rId143" location="lc" display="https://www.internetworldstats.com/carib.htm - lc" xr:uid="{E73BF4A1-9491-4511-B520-BB5D575B86FD}"/>
+    <hyperlink ref="B225" r:id="rId144" location="mf" display="https://www.internetworldstats.com/carib.htm - mf" xr:uid="{B22E02CD-43CA-49B7-8CC3-ECF02DF78574}"/>
+    <hyperlink ref="B226" r:id="rId145" location="vc" display="https://www.internetworldstats.com/carib.htm - vc" xr:uid="{5D9EC28E-356A-4328-8992-1B6C1E4BAB71}"/>
+    <hyperlink ref="B227" r:id="rId146" location="sx" display="https://www.internetworldstats.com/carib.htm - sx" xr:uid="{C863C08C-AD96-4A04-A16E-1C31B1DCA287}"/>
+    <hyperlink ref="B228" r:id="rId147" location="tt" display="https://www.internetworldstats.com/carib.htm - tt" xr:uid="{3E7D1350-72B9-4F27-BB1C-C4EFD712E43C}"/>
+    <hyperlink ref="B229" r:id="rId148" location="tc" display="https://www.internetworldstats.com/carib.htm - tc" xr:uid="{A8C00767-D5F9-4E61-BF91-502A9EA95246}"/>
+    <hyperlink ref="B230" r:id="rId149" location="vi" display="https://www.internetworldstats.com/carib.htm - vi" xr:uid="{16D21544-D387-45F4-8A34-1BF8AFD62E7C}"/>
+    <hyperlink ref="B231" r:id="rId150" location="bz" display="https://www.internetworldstats.com/central.htm - bz" xr:uid="{78036B9F-23D4-4E53-B4A9-7F14CF373CC3}"/>
+    <hyperlink ref="B232" r:id="rId151" location="cr" display="https://www.internetworldstats.com/central.htm - cr" xr:uid="{FDD8373E-36B6-4892-8629-1A75E3600D1B}"/>
+    <hyperlink ref="B233" r:id="rId152" location="sv" display="https://www.internetworldstats.com/central.htm - sv" xr:uid="{A58D7F48-4341-4B44-B597-126C5194B0F0}"/>
+    <hyperlink ref="B234" r:id="rId153" location="gt" display="https://www.internetworldstats.com/central.htm - gt" xr:uid="{C3F89B7E-56C5-4027-A710-E5EC37C69A69}"/>
+    <hyperlink ref="B235" r:id="rId154" location="hn" display="https://www.internetworldstats.com/central.htm - hn" xr:uid="{C1F3AF75-2E35-4B21-9533-81E0F5001D89}"/>
+    <hyperlink ref="B236" r:id="rId155" location="mx" display="https://www.internetworldstats.com/central.htm - mx" xr:uid="{15C4F4A2-4188-4FD7-8D63-4130FBDB4032}"/>
+    <hyperlink ref="B237" r:id="rId156" location="ni" display="https://www.internetworldstats.com/central.htm - ni" xr:uid="{BD4C17CD-4E77-4A1D-ACE6-30FA5DB55C24}"/>
+    <hyperlink ref="B238" r:id="rId157" location="pa" display="https://www.internetworldstats.com/central.htm - pa" xr:uid="{FFDD6128-460D-411A-A5D0-36478F533FB8}"/>
+    <hyperlink ref="B239" r:id="rId158" location="ar" display="https://www.internetworldstats.com/south.htm - ar" xr:uid="{DDEA2E5B-20A9-44CA-B9FB-CA8952DEDAA2}"/>
+    <hyperlink ref="B240" r:id="rId159" location="bo" display="https://www.internetworldstats.com/south.htm - bo" xr:uid="{EC3F88AF-C29D-4309-A128-1382F4F06918}"/>
+    <hyperlink ref="B241" r:id="rId160" location="br" display="https://www.internetworldstats.com/south.htm - br" xr:uid="{48AF529C-3504-443D-88B9-F0F021F72E22}"/>
+    <hyperlink ref="B242" r:id="rId161" location="cl" display="https://www.internetworldstats.com/south.htm - cl" xr:uid="{E7FD1B90-EBB1-4B23-8F61-C719443710D1}"/>
+    <hyperlink ref="B243" r:id="rId162" location="co" display="https://www.internetworldstats.com/south.htm - co" xr:uid="{03BC451C-4E6B-4226-81DE-91D020211E5B}"/>
+    <hyperlink ref="B244" r:id="rId163" location="ec" display="https://www.internetworldstats.com/south.htm - ec" xr:uid="{EC8F167A-CDB8-46F0-BD78-A7067890C552}"/>
+    <hyperlink ref="B245" r:id="rId164" location="fk" display="https://www.internetworldstats.com/south.htm - fk" xr:uid="{C22CFC53-9F0E-4FB9-8587-F1F13E872F78}"/>
+    <hyperlink ref="B246" r:id="rId165" location="gf" display="https://www.internetworldstats.com/south.htm - gf" xr:uid="{7984146A-6EE4-4631-8550-0AF8D699B797}"/>
+    <hyperlink ref="B247" r:id="rId166" location="gy" display="https://www.internetworldstats.com/south.htm - gy" xr:uid="{399F3D73-451A-4BD6-90BB-F430390777F4}"/>
+    <hyperlink ref="B248" r:id="rId167" location="py" display="https://www.internetworldstats.com/south.htm - py" xr:uid="{1BEEF65E-8E1A-48C2-92EC-9FA7261601C3}"/>
+    <hyperlink ref="B249" r:id="rId168" location="pe" display="https://www.internetworldstats.com/south.htm - pe" xr:uid="{D089775B-A152-41B5-A7A9-13249F751547}"/>
+    <hyperlink ref="B250" r:id="rId169" location="sr" display="https://www.internetworldstats.com/south.htm - sr" xr:uid="{459600FD-73EC-42F6-97A1-B9031ACBCEEA}"/>
+    <hyperlink ref="B251" r:id="rId170" location="uy" display="https://www.internetworldstats.com/south.htm - uy" xr:uid="{3ED5B46F-7440-48C1-99F9-2C903E11C9E8}"/>
+    <hyperlink ref="B252" r:id="rId171" location="ve" display="https://www.internetworldstats.com/south.htm - ve" xr:uid="{95DF07C7-A6DF-4F1C-8D45-FE7B1A8F2CE4}"/>
+    <hyperlink ref="B254" r:id="rId172" location="bm" display="https://www.internetworldstats.com/america.htm - bm" xr:uid="{1927EE60-1877-4E5A-9D61-8EF728458252}"/>
+    <hyperlink ref="B255" r:id="rId173" location="ca" display="https://www.internetworldstats.com/america.htm - ca" xr:uid="{03DAE126-C4F5-406E-A1D3-6DDE72B16F39}"/>
+    <hyperlink ref="B256" r:id="rId174" location="gl" display="https://www.internetworldstats.com/america.htm - gl" xr:uid="{48EF07EE-320B-44D6-9913-8722ACFDBC45}"/>
+    <hyperlink ref="B257" r:id="rId175" location="sp" display="https://www.internetworldstats.com/america.htm - sp" xr:uid="{4A2F7857-37B8-499C-BC1F-D0A590F56897}"/>
+    <hyperlink ref="B258" r:id="rId176" location="us" display="https://www.internetworldstats.com/america.htm - us" xr:uid="{CFF3F48A-59C5-4AD1-841B-8BBC6206E5C7}"/>
+    <hyperlink ref="B260" r:id="rId177" location="au" display="https://www.internetworldstats.com/pacific.htm - au" xr:uid="{DAE889FB-5839-4183-87B1-9558AD6E2AA6}"/>
+    <hyperlink ref="B272" r:id="rId178" location="fj" display="https://www.internetworldstats.com/pacific.htm - fj" xr:uid="{5C474700-87B1-4B26-A156-1382EEFA912F}"/>
+    <hyperlink ref="B262" r:id="rId179" location="pf" display="https://www.internetworldstats.com/pacific.htm - pf" xr:uid="{EC6BAFE5-2D41-4C0B-AAFC-396AD6DA5A0D}"/>
+    <hyperlink ref="B263" r:id="rId180" location="gu" display="https://www.internetworldstats.com/pacific.htm - gu" xr:uid="{72843FE2-5B14-4850-9353-5B6389E122DE}"/>
+    <hyperlink ref="B264" r:id="rId181" location="ki" display="https://www.internetworldstats.com/pacific.htm - ki" xr:uid="{4B4C1B50-2D1C-4B0A-8B7D-0F9F3FE29EFC}"/>
+    <hyperlink ref="B265" r:id="rId182" location="mh" display="https://www.internetworldstats.com/pacific.htm - mh" xr:uid="{02B5211F-62B4-4BDD-AAD4-EA2D2D6CC780}"/>
+    <hyperlink ref="B266" r:id="rId183" location="fm" display="https://www.internetworldstats.com/pacific.htm - fm" xr:uid="{B313A3B9-33E3-48B4-9580-170052CC474B}"/>
+    <hyperlink ref="B273" r:id="rId184" location="nc" display="https://www.internetworldstats.com/pacific.htm - nc" xr:uid="{7F359C34-AB57-478E-807F-745F2024021A}"/>
+    <hyperlink ref="B274" r:id="rId185" location="pg" display="https://www.internetworldstats.com/pacific.htm - pg" xr:uid="{FA53BC60-7E35-420C-9856-1BCE44632333}"/>
+    <hyperlink ref="B268" r:id="rId186" location="ws" display="https://www.internetworldstats.com/pacific.htm - ws" xr:uid="{854E6A94-F340-4199-87E7-E5479B78461F}"/>
+    <hyperlink ref="B269" r:id="rId187" location="as" display="https://www.internetworldstats.com/pacific.htm - as" xr:uid="{4CA78EFA-C411-4DD8-8F05-34CA04E6AB24}"/>
+    <hyperlink ref="B270" r:id="rId188" location="sb" display="https://www.internetworldstats.com/pacific.htm - sb" xr:uid="{64EFED3B-484E-490F-B1C3-C2C33DA6BB29}"/>
+    <hyperlink ref="B271" r:id="rId189" location="to" display="https://www.internetworldstats.com/pacific.htm - to" xr:uid="{EF6E26C0-2C9F-4FAC-8774-4B789863D4FD}"/>
+    <hyperlink ref="B275" r:id="rId190" location="vu" display="https://www.internetworldstats.com/pacific.htm - vu" xr:uid="{6609B09D-12A1-4821-B485-F8D9BE0F046C}"/>
+    <hyperlink ref="B267" r:id="rId191" location="nz" display="https://www.internetworldstats.com/pacific.htm - nz" xr:uid="{9A960A45-686A-4EF6-852E-A2A989BA9314}"/>
+    <hyperlink ref="B82" r:id="rId192" location="af" display="https://www.internetworldstats.com/asia.htm - af" xr:uid="{C1777100-1CA6-4D2B-AE73-B84A29B1E859}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId192"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId193"/>
 </worksheet>
 </file>